--- a/mammoth-description.xlsx
+++ b/mammoth-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE49FFC-93DB-40B2-B936-F9689C17207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B0A0CD-6D90-4253-B118-966B363BEA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="319">
   <si>
     <t>Descripción de tablas</t>
   </si>
@@ -780,17 +780,227 @@
     <t>Listado de usuarios</t>
   </si>
   <si>
-    <t>Objetivo: Presentar de manera ordenada toda la información útil de los usuarios registrados en el ecommerce</t>
-  </si>
-  <si>
     <t>Tablas que la componen</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>user / address / city / province</t>
+  </si>
+  <si>
+    <t>favorite_rank</t>
+  </si>
+  <si>
+    <t>Ranking de favoritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>fav_quantity</t>
+  </si>
+  <si>
+    <t>cantidad de favoritos</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>favorite / product / brand</t>
+  </si>
+  <si>
+    <t>subscription_by_topic</t>
+  </si>
+  <si>
+    <t>Cantidad de suscripciones por tema</t>
+  </si>
+  <si>
+    <t>tema de suscripción</t>
+  </si>
+  <si>
+    <t>subscriptions</t>
+  </si>
+  <si>
+    <t>suscripciones</t>
+  </si>
+  <si>
+    <t>subscriptions / topic</t>
+  </si>
+  <si>
+    <t>product_list</t>
+  </si>
+  <si>
+    <t>Listado de productos</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>PLF</t>
+  </si>
+  <si>
+    <t>PVF</t>
+  </si>
+  <si>
+    <t>categoría</t>
+  </si>
+  <si>
+    <t>país de origen</t>
+  </si>
+  <si>
+    <t>precio de lista (sin IVA)</t>
+  </si>
+  <si>
+    <t>descuento</t>
+  </si>
+  <si>
+    <t>precio de lista final (con IVA)</t>
+  </si>
+  <si>
+    <t>precio de venta final (con descuento)</t>
+  </si>
+  <si>
+    <t>DECIMAL(14,2)</t>
+  </si>
+  <si>
+    <t>DECIMAL(16,2)</t>
+  </si>
+  <si>
+    <t>product / brand / country / category</t>
+  </si>
+  <si>
+    <t>product_without_stock</t>
+  </si>
+  <si>
+    <t>Listado de productos sin stock</t>
+  </si>
+  <si>
+    <t>proveedor del producto</t>
+  </si>
+  <si>
+    <t>product / brand / provider / category / stock</t>
+  </si>
+  <si>
+    <t>provider_list</t>
+  </si>
+  <si>
+    <t>Listado de proveedores</t>
+  </si>
+  <si>
+    <t>nombre del proveedor</t>
+  </si>
+  <si>
+    <t>provider / address / city / province</t>
+  </si>
+  <si>
+    <t>order_list</t>
+  </si>
+  <si>
+    <t>Listado de pedidos</t>
+  </si>
+  <si>
+    <t>IDO</t>
+  </si>
+  <si>
+    <t>correo electrónico del usuario</t>
+  </si>
+  <si>
+    <t>nombre completo del usuario</t>
+  </si>
+  <si>
+    <t>tipo de envío</t>
+  </si>
+  <si>
+    <t>VARCHAR(62)</t>
+  </si>
+  <si>
+    <t>order / user / delivery_type</t>
+  </si>
+  <si>
+    <t>order_to_prepare</t>
+  </si>
+  <si>
+    <t>Listado de pedidos para preparar</t>
+  </si>
+  <si>
+    <t>sales_by_day_of_week</t>
+  </si>
+  <si>
+    <t>Ventas por día de la semana</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>día de la semana</t>
+  </si>
+  <si>
+    <t>VARCHAR(9)</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>total de ventas</t>
+  </si>
+  <si>
+    <t>DECIMAL(33,2)</t>
+  </si>
+  <si>
+    <t>invoice / date</t>
+  </si>
+  <si>
+    <t>sales_by_product_category</t>
+  </si>
+  <si>
+    <t>Ventas por categoría de producto</t>
+  </si>
+  <si>
+    <t>categoría del producto</t>
+  </si>
+  <si>
+    <t>DECIMAL(43,2)</t>
+  </si>
+  <si>
+    <t>order_detail / product / category / invoice</t>
+  </si>
+  <si>
+    <t>Objetivo: Mostrar los productos que poseen mayor cantidad de usuarios que lo eligieron como favorito, ordenados de manera decreciente según esta cantidad</t>
+  </si>
+  <si>
+    <t>Objetivo: Presentar de manera ordenada la información de mayor utilidad de los usuarios registrados en el ecommerce</t>
+  </si>
+  <si>
+    <t>Objetivo: Presentar el catálogo de productos del ecommerce junto a su lista de precios</t>
+  </si>
+  <si>
+    <t>Objetivo: Mostrar la cantidad de usuarios suscriptos por cada uno de los temas de interés, ordenados de manera decreciente según esta cantidad.</t>
+  </si>
+  <si>
+    <t>Objetivo: Listar los productos que no cuentan con stock al momento de la consulta</t>
+  </si>
+  <si>
+    <t>Objetivo: Presentar de manera ordenada la información de mayor utilidad de los proveedores del ecommerce</t>
+  </si>
+  <si>
+    <t>Objetivo: Generar un informe con la información más relevante del estado de los pedidos registrados</t>
+  </si>
+  <si>
+    <t>Objetivo: Mostrar la información básica sobre los pedidos que estan en condiciones para comenzar con su preparación</t>
+  </si>
+  <si>
+    <t>Objetivo: Presentar un informe con los totales de venta históricos agrupados según los días de la semana</t>
+  </si>
+  <si>
+    <t>Objetivo: Presentar un informa con los totales de venta históricos agrupados según las categorías de los productos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +1084,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -907,7 +1125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1784,74 +2002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color theme="8" tint="0.39997558519241921"/>
@@ -1878,15 +2028,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color theme="8" tint="0.39997558519241921"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2032,6 +2206,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2160,49 +2340,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2213,9 +2359,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2556,18 +2724,18 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
       <c r="L1" s="47"/>
       <c r="M1" s="57"/>
     </row>
@@ -2625,56 +2793,56 @@
       <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="85"/>
+      <c r="K8" s="87"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2684,23 +2852,23 @@
       <c r="B9" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="35" t="s">
         <v>63</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2708,105 +2876,105 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92" t="s">
+      <c r="D10" s="93"/>
+      <c r="E10" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92" t="s">
+      <c r="D11" s="93"/>
+      <c r="E11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
       <c r="H11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="94"/>
-      <c r="K11" s="95"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="97"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92" t="s">
+      <c r="D12" s="93"/>
+      <c r="E12" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="95"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="97"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="36"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="97"/>
       <c r="M14" s="46"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -2815,46 +2983,46 @@
       <c r="B15" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92" t="s">
+      <c r="D15" s="93"/>
+      <c r="E15" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="97"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92" t="s">
+      <c r="D16" s="93"/>
+      <c r="E16" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="35" t="s">
         <v>216</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="97"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -2863,105 +3031,105 @@
       <c r="B17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92" t="s">
+      <c r="D17" s="93"/>
+      <c r="E17" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="95"/>
       <c r="H17" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="94" t="s">
+      <c r="J17" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="95"/>
+      <c r="K17" s="97"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92" t="s">
+      <c r="D18" s="93"/>
+      <c r="E18" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="H18" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="97"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66" t="s">
+      <c r="D19" s="67"/>
+      <c r="E19" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="69"/>
+      <c r="K19" s="71"/>
     </row>
     <row r="20" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
       <c r="J21" s="8"/>
       <c r="K21" s="20"/>
     </row>
@@ -2969,19 +3137,19 @@
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="62" t="s">
+      <c r="G22" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="23"/>
       <c r="K22" s="24"/>
     </row>
@@ -2991,108 +3159,108 @@
       <c r="A25" s="48">
         <v>2</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82" t="s">
+      <c r="D27" s="83"/>
+      <c r="E27" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="84" t="s">
+      <c r="J27" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K27" s="85"/>
+      <c r="K27" s="87"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66" t="s">
+      <c r="D28" s="67"/>
+      <c r="E28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
       <c r="H28" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="68" t="s">
+      <c r="J28" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="69"/>
+      <c r="K28" s="71"/>
     </row>
     <row r="29" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="91"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
       <c r="J30" s="8"/>
       <c r="K30" s="20"/>
     </row>
@@ -3100,19 +3268,19 @@
       <c r="B31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="63" t="s">
+      <c r="G31" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
       <c r="J31" s="9"/>
       <c r="K31" s="27"/>
     </row>
@@ -3120,19 +3288,19 @@
       <c r="B32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="23"/>
       <c r="K32" s="24"/>
     </row>
@@ -3142,108 +3310,108 @@
       <c r="A35" s="48">
         <v>3</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82" t="s">
+      <c r="D37" s="83"/>
+      <c r="E37" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="84" t="s">
+      <c r="J37" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K37" s="85"/>
+      <c r="K37" s="87"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92" t="s">
+      <c r="D38" s="93"/>
+      <c r="E38" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="93"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="95"/>
       <c r="H38" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="94"/>
-      <c r="K38" s="95"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="97"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66" t="s">
+      <c r="D39" s="67"/>
+      <c r="E39" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
       <c r="H39" s="38" t="s">
         <v>50</v>
       </c>
       <c r="I39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="71"/>
     </row>
     <row r="40" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="98"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="100"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="102"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3251,108 +3419,108 @@
       <c r="A43" s="48">
         <v>4</v>
       </c>
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="79"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82" t="s">
+      <c r="D45" s="83"/>
+      <c r="E45" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="83"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="85"/>
       <c r="H45" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I45" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="84" t="s">
+      <c r="J45" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K45" s="85"/>
+      <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66" t="s">
+      <c r="D46" s="67"/>
+      <c r="E46" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="68" t="s">
+      <c r="J46" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="K46" s="69"/>
+      <c r="K46" s="71"/>
     </row>
     <row r="47" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="87" t="s">
+      <c r="B47" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="89"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="91"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
       <c r="J48" s="8"/>
       <c r="K48" s="20"/>
     </row>
@@ -3360,19 +3528,19 @@
       <c r="B49" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
       <c r="J49" s="9"/>
       <c r="K49" s="27"/>
     </row>
@@ -3380,19 +3548,19 @@
       <c r="B50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
       <c r="J50" s="23"/>
       <c r="K50" s="24"/>
     </row>
@@ -3402,88 +3570,88 @@
       <c r="A53" s="55">
         <v>5</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="78"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="77" t="s">
+      <c r="B54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="79"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="81"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82" t="s">
+      <c r="D55" s="83"/>
+      <c r="E55" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="82"/>
-      <c r="G55" s="83"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="84" t="s">
+      <c r="J55" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K55" s="85"/>
+      <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="37"/>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66" t="s">
+      <c r="D56" s="67"/>
+      <c r="E56" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="66"/>
-      <c r="G56" s="67"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="38" t="s">
         <v>25</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="68"/>
-      <c r="K56" s="69"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="71"/>
     </row>
     <row r="57" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="98"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-      <c r="K57" s="100"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="102"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3491,154 +3659,154 @@
       <c r="A60" s="55">
         <v>6</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="78"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="77" t="s">
+      <c r="B61" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="79"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="81"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="82" t="s">
+      <c r="D62" s="83"/>
+      <c r="E62" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="82"/>
-      <c r="G62" s="83"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="84" t="s">
+      <c r="J62" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K62" s="85"/>
+      <c r="K62" s="87"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="91"/>
-      <c r="E63" s="92" t="s">
+      <c r="D63" s="93"/>
+      <c r="E63" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="92"/>
-      <c r="G63" s="93"/>
+      <c r="F63" s="94"/>
+      <c r="G63" s="95"/>
       <c r="H63" s="35" t="s">
         <v>238</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="94"/>
-      <c r="K63" s="95"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="97"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="90" t="s">
+      <c r="C64" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="92" t="s">
+      <c r="D64" s="93"/>
+      <c r="E64" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="92"/>
-      <c r="G64" s="93"/>
+      <c r="F64" s="94"/>
+      <c r="G64" s="95"/>
       <c r="H64" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J64" s="94" t="s">
+      <c r="J64" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K64" s="95"/>
+      <c r="K64" s="97"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" s="37"/>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66" t="s">
+      <c r="D65" s="67"/>
+      <c r="E65" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I65" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J65" s="68" t="s">
+      <c r="J65" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="K65" s="69"/>
+      <c r="K65" s="71"/>
     </row>
     <row r="66" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
-      <c r="K66" s="72"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="73"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="74"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
       <c r="F67" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="62" t="s">
+      <c r="G67" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
       <c r="J67" s="23"/>
       <c r="K67" s="24"/>
     </row>
@@ -3648,132 +3816,132 @@
       <c r="A70" s="55">
         <v>7</v>
       </c>
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="76"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="78"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="81"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="80" t="s">
+      <c r="C72" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="81"/>
-      <c r="E72" s="82" t="s">
+      <c r="D72" s="83"/>
+      <c r="E72" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="82"/>
-      <c r="G72" s="83"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="85"/>
       <c r="H72" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I72" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="84" t="s">
+      <c r="J72" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K72" s="85"/>
+      <c r="K72" s="87"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="34"/>
-      <c r="C73" s="90" t="s">
+      <c r="C73" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="91"/>
-      <c r="E73" s="92" t="s">
+      <c r="D73" s="93"/>
+      <c r="E73" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="92"/>
-      <c r="G73" s="93"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="95"/>
       <c r="H73" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I73" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="94"/>
-      <c r="K73" s="95"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="97"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="65"/>
-      <c r="E74" s="66" t="s">
+      <c r="D74" s="67"/>
+      <c r="E74" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="66"/>
-      <c r="G74" s="67"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="69"/>
       <c r="H74" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I74" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="68" t="s">
+      <c r="J74" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="K74" s="69"/>
+      <c r="K74" s="71"/>
     </row>
     <row r="75" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="71"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-      <c r="K75" s="72"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+      <c r="K75" s="74"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="62" t="s">
+      <c r="C76" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
       <c r="F76" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="62" t="s">
+      <c r="G76" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
       <c r="J76" s="23"/>
       <c r="K76" s="24"/>
     </row>
@@ -3783,152 +3951,152 @@
       <c r="A79" s="55">
         <v>8</v>
       </c>
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="74"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="76"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="78"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
-      <c r="H80" s="78"/>
-      <c r="I80" s="78"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="79"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="81"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="82" t="s">
+      <c r="D81" s="83"/>
+      <c r="E81" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="82"/>
-      <c r="G81" s="83"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="85"/>
       <c r="H81" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I81" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="84" t="s">
+      <c r="J81" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K81" s="85"/>
+      <c r="K81" s="87"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="90" t="s">
+      <c r="C82" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="91"/>
-      <c r="E82" s="92" t="s">
+      <c r="D82" s="93"/>
+      <c r="E82" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="F82" s="92"/>
-      <c r="G82" s="93"/>
+      <c r="F82" s="94"/>
+      <c r="G82" s="95"/>
       <c r="H82" s="35" t="s">
         <v>235</v>
       </c>
       <c r="I82" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J82" s="94"/>
-      <c r="K82" s="95"/>
+      <c r="J82" s="96"/>
+      <c r="K82" s="97"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" s="34"/>
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="92" t="s">
+      <c r="D83" s="93"/>
+      <c r="E83" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="92"/>
-      <c r="G83" s="93"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="95"/>
       <c r="H83" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I83" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="94"/>
-      <c r="K83" s="95"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="97"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="101" t="s">
+      <c r="C84" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="102"/>
-      <c r="E84" s="103" t="s">
+      <c r="D84" s="104"/>
+      <c r="E84" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="103"/>
-      <c r="G84" s="104"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="106"/>
       <c r="H84" s="41" t="s">
         <v>1</v>
       </c>
       <c r="I84" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J84" s="105" t="s">
+      <c r="J84" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="K84" s="106"/>
+      <c r="K84" s="108"/>
     </row>
     <row r="85" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="61"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="62"/>
+      <c r="I85" s="62"/>
+      <c r="J85" s="62"/>
+      <c r="K85" s="63"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
       <c r="F86" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
       <c r="J86" s="8"/>
       <c r="K86" s="20"/>
     </row>
@@ -3936,19 +4104,19 @@
       <c r="B87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="62" t="s">
+      <c r="C87" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
       <c r="F87" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="62" t="s">
+      <c r="G87" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H87" s="62"/>
-      <c r="I87" s="62"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
       <c r="J87" s="23"/>
       <c r="K87" s="24"/>
     </row>
@@ -3958,128 +4126,128 @@
       <c r="A90" s="55">
         <v>9</v>
       </c>
-      <c r="B90" s="73" t="s">
+      <c r="B90" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="74"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="74"/>
-      <c r="H90" s="74"/>
-      <c r="I90" s="74"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="78"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="78"/>
-      <c r="I91" s="78"/>
-      <c r="J91" s="78"/>
-      <c r="K91" s="79"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="80"/>
+      <c r="I91" s="80"/>
+      <c r="J91" s="80"/>
+      <c r="K91" s="81"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="80" t="s">
+      <c r="C92" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="81"/>
-      <c r="E92" s="82" t="s">
+      <c r="D92" s="83"/>
+      <c r="E92" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="82"/>
-      <c r="G92" s="83"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="85"/>
       <c r="H92" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J92" s="84" t="s">
+      <c r="J92" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K92" s="85"/>
+      <c r="K92" s="87"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="90" t="s">
+      <c r="C93" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="D93" s="91"/>
-      <c r="E93" s="92" t="s">
+      <c r="D93" s="93"/>
+      <c r="E93" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="F93" s="92"/>
-      <c r="G93" s="93"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="95"/>
       <c r="H93" s="35" t="s">
         <v>240</v>
       </c>
       <c r="I93" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="94"/>
-      <c r="K93" s="95"/>
+      <c r="J93" s="96"/>
+      <c r="K93" s="97"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="37"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66" t="s">
+      <c r="D94" s="67"/>
+      <c r="E94" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="F94" s="66"/>
-      <c r="G94" s="67"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="69"/>
       <c r="H94" s="38" t="s">
         <v>24</v>
       </c>
       <c r="I94" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="68"/>
-      <c r="K94" s="69"/>
+      <c r="J94" s="70"/>
+      <c r="K94" s="71"/>
     </row>
     <row r="95" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="60"/>
-      <c r="J95" s="60"/>
-      <c r="K95" s="61"/>
+      <c r="C95" s="62"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="62"/>
+      <c r="J95" s="62"/>
+      <c r="K95" s="63"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C96" s="62" t="s">
+      <c r="C96" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="64"/>
       <c r="F96" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
       <c r="J96" s="23"/>
       <c r="K96" s="24"/>
     </row>
@@ -4089,134 +4257,134 @@
       <c r="A99" s="48">
         <v>10</v>
       </c>
-      <c r="B99" s="73" t="s">
+      <c r="B99" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="74"/>
-      <c r="D99" s="74"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="76"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="78"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="77" t="s">
+      <c r="B100" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="78"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
-      <c r="H100" s="78"/>
-      <c r="I100" s="78"/>
-      <c r="J100" s="78"/>
-      <c r="K100" s="79"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="80"/>
+      <c r="H100" s="80"/>
+      <c r="I100" s="80"/>
+      <c r="J100" s="80"/>
+      <c r="K100" s="81"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="80" t="s">
+      <c r="C101" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="81"/>
-      <c r="E101" s="82" t="s">
+      <c r="D101" s="83"/>
+      <c r="E101" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="82"/>
-      <c r="G101" s="83"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="85"/>
       <c r="H101" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I101" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="84" t="s">
+      <c r="J101" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K101" s="85"/>
+      <c r="K101" s="87"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="90" t="s">
+      <c r="C102" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="91"/>
-      <c r="E102" s="92" t="s">
+      <c r="D102" s="93"/>
+      <c r="E102" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="92"/>
-      <c r="G102" s="93"/>
+      <c r="F102" s="94"/>
+      <c r="G102" s="95"/>
       <c r="H102" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I102" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="94" t="s">
+      <c r="J102" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K102" s="95"/>
+      <c r="K102" s="97"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" s="37"/>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="65"/>
-      <c r="E103" s="66" t="s">
+      <c r="D103" s="67"/>
+      <c r="E103" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="67"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="69"/>
       <c r="H103" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I103" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="68" t="s">
+      <c r="J103" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="K103" s="69"/>
+      <c r="K103" s="71"/>
     </row>
     <row r="104" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="70" t="s">
+      <c r="B104" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="72"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
+      <c r="I104" s="73"/>
+      <c r="J104" s="73"/>
+      <c r="K104" s="74"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C105" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
+      <c r="D105" s="64"/>
+      <c r="E105" s="64"/>
       <c r="F105" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="62" t="s">
+      <c r="G105" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H105" s="62"/>
-      <c r="I105" s="62"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
       <c r="J105" s="23"/>
       <c r="K105" s="24"/>
     </row>
@@ -4225,130 +4393,130 @@
       <c r="A108" s="48">
         <v>11</v>
       </c>
-      <c r="B108" s="73" t="s">
+      <c r="B108" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="75"/>
-      <c r="K108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="78"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C109" s="78"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="78"/>
-      <c r="I109" s="78"/>
-      <c r="J109" s="78"/>
-      <c r="K109" s="79"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="80"/>
+      <c r="J109" s="80"/>
+      <c r="K109" s="81"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="80" t="s">
+      <c r="C110" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D110" s="81"/>
-      <c r="E110" s="82" t="s">
+      <c r="D110" s="83"/>
+      <c r="E110" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="F110" s="82"/>
-      <c r="G110" s="83"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="85"/>
       <c r="H110" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I110" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J110" s="107" t="s">
+      <c r="J110" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="K110" s="108"/>
+      <c r="K110" s="110"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="90" t="s">
+      <c r="C111" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="91"/>
-      <c r="E111" s="92" t="s">
+      <c r="D111" s="93"/>
+      <c r="E111" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="92"/>
-      <c r="G111" s="93"/>
+      <c r="F111" s="94"/>
+      <c r="G111" s="95"/>
       <c r="H111" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I111" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J111" s="109" t="s">
+      <c r="J111" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K111" s="110"/>
+      <c r="K111" s="112"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" s="37"/>
-      <c r="C112" s="64" t="s">
+      <c r="C112" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66" t="s">
+      <c r="D112" s="67"/>
+      <c r="E112" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="F112" s="66"/>
-      <c r="G112" s="67"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="69"/>
       <c r="H112" s="38" t="s">
         <v>127</v>
       </c>
       <c r="I112" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J112" s="111" t="s">
+      <c r="J112" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="K112" s="112"/>
+      <c r="K112" s="114"/>
     </row>
     <row r="113" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="70" t="s">
+      <c r="B113" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C113" s="71"/>
-      <c r="D113" s="71"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="71"/>
-      <c r="J113" s="71"/>
-      <c r="K113" s="72"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="73"/>
+      <c r="E113" s="73"/>
+      <c r="F113" s="73"/>
+      <c r="G113" s="73"/>
+      <c r="H113" s="73"/>
+      <c r="I113" s="73"/>
+      <c r="J113" s="73"/>
+      <c r="K113" s="74"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B114" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="86" t="s">
+      <c r="C114" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="86"/>
-      <c r="E114" s="86"/>
+      <c r="D114" s="88"/>
+      <c r="E114" s="88"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="86"/>
-      <c r="I114" s="86"/>
+      <c r="G114" s="88"/>
+      <c r="H114" s="88"/>
+      <c r="I114" s="88"/>
       <c r="J114" s="8"/>
       <c r="K114" s="20"/>
     </row>
@@ -4356,19 +4524,19 @@
       <c r="B115" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="63" t="s">
+      <c r="C115" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D115" s="63"/>
-      <c r="E115" s="63"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
       <c r="F115" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G115" s="63" t="s">
+      <c r="G115" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
       <c r="J115" s="10" t="s">
         <v>215</v>
       </c>
@@ -4380,19 +4548,19 @@
       <c r="B116" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="62" t="s">
+      <c r="C116" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D116" s="62"/>
-      <c r="E116" s="62"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
       <c r="F116" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G116" s="62" t="s">
+      <c r="G116" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H116" s="62"/>
-      <c r="I116" s="62"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
       <c r="J116" s="23"/>
       <c r="K116" s="24"/>
     </row>
@@ -4402,344 +4570,344 @@
       <c r="A119" s="55">
         <v>12</v>
       </c>
-      <c r="B119" s="73" t="s">
+      <c r="B119" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C119" s="74"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="74"/>
-      <c r="H119" s="74"/>
-      <c r="I119" s="74"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="76"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="77"/>
+      <c r="K119" s="78"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="77" t="s">
+      <c r="B120" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="78"/>
-      <c r="D120" s="78"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="78"/>
-      <c r="G120" s="78"/>
-      <c r="H120" s="78"/>
-      <c r="I120" s="78"/>
-      <c r="J120" s="78"/>
-      <c r="K120" s="79"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="80"/>
+      <c r="G120" s="80"/>
+      <c r="H120" s="80"/>
+      <c r="I120" s="80"/>
+      <c r="J120" s="80"/>
+      <c r="K120" s="81"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B121" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="80" t="s">
+      <c r="C121" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="81"/>
-      <c r="E121" s="82" t="s">
+      <c r="D121" s="83"/>
+      <c r="E121" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="82"/>
-      <c r="G121" s="83"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="85"/>
       <c r="H121" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I121" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J121" s="84" t="s">
+      <c r="J121" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K121" s="85"/>
+      <c r="K121" s="87"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B122" s="34"/>
-      <c r="C122" s="90" t="s">
+      <c r="C122" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="D122" s="91"/>
-      <c r="E122" s="92" t="s">
+      <c r="D122" s="93"/>
+      <c r="E122" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="92"/>
-      <c r="G122" s="93"/>
+      <c r="F122" s="94"/>
+      <c r="G122" s="95"/>
       <c r="H122" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I122" s="36"/>
-      <c r="J122" s="94"/>
-      <c r="K122" s="95"/>
+      <c r="J122" s="96"/>
+      <c r="K122" s="97"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B123" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C123" s="90" t="s">
+      <c r="C123" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D123" s="91"/>
-      <c r="E123" s="92" t="s">
+      <c r="D123" s="93"/>
+      <c r="E123" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="F123" s="92"/>
-      <c r="G123" s="93"/>
+      <c r="F123" s="94"/>
+      <c r="G123" s="95"/>
       <c r="H123" s="35" t="s">
         <v>241</v>
       </c>
       <c r="I123" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J123" s="94"/>
-      <c r="K123" s="95"/>
+      <c r="J123" s="96"/>
+      <c r="K123" s="97"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B124" s="34"/>
-      <c r="C124" s="90" t="s">
+      <c r="C124" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="91"/>
-      <c r="E124" s="92" t="s">
+      <c r="D124" s="93"/>
+      <c r="E124" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F124" s="92"/>
-      <c r="G124" s="93"/>
+      <c r="F124" s="94"/>
+      <c r="G124" s="95"/>
       <c r="H124" s="35" t="s">
         <v>124</v>
       </c>
       <c r="I124" s="36"/>
-      <c r="J124" s="94"/>
-      <c r="K124" s="95"/>
+      <c r="J124" s="96"/>
+      <c r="K124" s="97"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="90" t="s">
+      <c r="C125" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="D125" s="91"/>
-      <c r="E125" s="92" t="s">
+      <c r="D125" s="93"/>
+      <c r="E125" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="F125" s="92"/>
-      <c r="G125" s="93"/>
+      <c r="F125" s="94"/>
+      <c r="G125" s="95"/>
       <c r="H125" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I125" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J125" s="94" t="s">
+      <c r="J125" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K125" s="95"/>
+      <c r="K125" s="97"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="90" t="s">
+      <c r="C126" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="91"/>
-      <c r="E126" s="92" t="s">
+      <c r="D126" s="93"/>
+      <c r="E126" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="F126" s="92"/>
-      <c r="G126" s="93"/>
+      <c r="F126" s="94"/>
+      <c r="G126" s="95"/>
       <c r="H126" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I126" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J126" s="94" t="s">
+      <c r="J126" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K126" s="95"/>
+      <c r="K126" s="97"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="90" t="s">
+      <c r="C127" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="D127" s="91"/>
-      <c r="E127" s="92" t="s">
+      <c r="D127" s="93"/>
+      <c r="E127" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="F127" s="92"/>
-      <c r="G127" s="93"/>
+      <c r="F127" s="94"/>
+      <c r="G127" s="95"/>
       <c r="H127" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I127" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J127" s="94" t="s">
+      <c r="J127" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K127" s="95"/>
+      <c r="K127" s="97"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="90" t="s">
+      <c r="C128" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="91"/>
-      <c r="E128" s="92" t="s">
+      <c r="D128" s="93"/>
+      <c r="E128" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="F128" s="92"/>
-      <c r="G128" s="93"/>
+      <c r="F128" s="94"/>
+      <c r="G128" s="95"/>
       <c r="H128" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I128" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J128" s="94" t="s">
+      <c r="J128" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K128" s="95"/>
+      <c r="K128" s="97"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
-      <c r="C129" s="90" t="s">
+      <c r="C129" s="92" t="s">
         <v>105</v>
       </c>
-      <c r="D129" s="91"/>
-      <c r="E129" s="92" t="s">
+      <c r="D129" s="93"/>
+      <c r="E129" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="F129" s="92"/>
-      <c r="G129" s="93"/>
+      <c r="F129" s="94"/>
+      <c r="G129" s="95"/>
       <c r="H129" s="35" t="s">
         <v>224</v>
       </c>
       <c r="I129" s="36"/>
-      <c r="J129" s="94"/>
-      <c r="K129" s="95"/>
+      <c r="J129" s="96"/>
+      <c r="K129" s="97"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
-      <c r="C130" s="90" t="s">
+      <c r="C130" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D130" s="91"/>
-      <c r="E130" s="92" t="s">
+      <c r="D130" s="93"/>
+      <c r="E130" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="F130" s="92"/>
-      <c r="G130" s="93"/>
+      <c r="F130" s="94"/>
+      <c r="G130" s="95"/>
       <c r="H130" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I130" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J130" s="94"/>
-      <c r="K130" s="95"/>
+      <c r="J130" s="96"/>
+      <c r="K130" s="97"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
-      <c r="C131" s="90" t="s">
+      <c r="C131" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="D131" s="91"/>
-      <c r="E131" s="92" t="s">
+      <c r="D131" s="93"/>
+      <c r="E131" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="F131" s="92"/>
-      <c r="G131" s="93"/>
+      <c r="F131" s="94"/>
+      <c r="G131" s="95"/>
       <c r="H131" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I131" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J131" s="94" t="s">
+      <c r="J131" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="K131" s="95"/>
+      <c r="K131" s="97"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B132" s="34"/>
-      <c r="C132" s="90" t="s">
+      <c r="C132" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="91"/>
-      <c r="E132" s="92" t="s">
+      <c r="D132" s="93"/>
+      <c r="E132" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="92"/>
-      <c r="G132" s="93"/>
+      <c r="F132" s="94"/>
+      <c r="G132" s="95"/>
       <c r="H132" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I132" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J132" s="94" t="s">
+      <c r="J132" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="K132" s="95"/>
+      <c r="K132" s="97"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B133" s="37"/>
-      <c r="C133" s="64" t="s">
+      <c r="C133" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D133" s="65"/>
-      <c r="E133" s="66" t="s">
+      <c r="D133" s="67"/>
+      <c r="E133" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F133" s="66"/>
-      <c r="G133" s="67"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="69"/>
       <c r="H133" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I133" s="39"/>
-      <c r="J133" s="113" t="s">
+      <c r="J133" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="K133" s="114"/>
+      <c r="K133" s="116"/>
     </row>
     <row r="134" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="70" t="s">
+      <c r="B134" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C134" s="71"/>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="71"/>
-      <c r="H134" s="71"/>
-      <c r="I134" s="71"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="72"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="73"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="73"/>
+      <c r="H134" s="73"/>
+      <c r="I134" s="73"/>
+      <c r="J134" s="73"/>
+      <c r="K134" s="74"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B135" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C135" s="63" t="s">
+      <c r="C135" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="D135" s="63"/>
-      <c r="E135" s="63"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="65"/>
       <c r="F135" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G135" s="63" t="s">
+      <c r="G135" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="H135" s="63"/>
-      <c r="I135" s="63"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="65"/>
       <c r="J135" s="9"/>
       <c r="K135" s="27"/>
     </row>
@@ -4747,19 +4915,19 @@
       <c r="B136" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="63" t="s">
+      <c r="C136" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="65"/>
       <c r="F136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G136" s="63" t="s">
+      <c r="G136" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="H136" s="63"/>
-      <c r="I136" s="63"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="65"/>
       <c r="J136" s="9"/>
       <c r="K136" s="27"/>
     </row>
@@ -4767,19 +4935,19 @@
       <c r="B137" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="63" t="s">
+      <c r="C137" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="65"/>
       <c r="F137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G137" s="63" t="s">
+      <c r="G137" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="H137" s="63"/>
-      <c r="I137" s="63"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="65"/>
       <c r="J137" s="9"/>
       <c r="K137" s="27"/>
     </row>
@@ -4787,19 +4955,19 @@
       <c r="B138" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="62" t="s">
+      <c r="C138" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D138" s="62"/>
-      <c r="E138" s="62"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="64"/>
       <c r="F138" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G138" s="62" t="s">
+      <c r="G138" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="H138" s="62"/>
-      <c r="I138" s="62"/>
+      <c r="H138" s="64"/>
+      <c r="I138" s="64"/>
       <c r="J138" s="23"/>
       <c r="K138" s="24"/>
     </row>
@@ -4809,108 +4977,108 @@
       <c r="A141" s="48">
         <v>13</v>
       </c>
-      <c r="B141" s="73" t="s">
+      <c r="B141" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="74"/>
-      <c r="I141" s="74"/>
-      <c r="J141" s="75"/>
-      <c r="K141" s="76"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="78"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="77" t="s">
+      <c r="B142" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="78"/>
-      <c r="H142" s="78"/>
-      <c r="I142" s="78"/>
-      <c r="J142" s="78"/>
-      <c r="K142" s="79"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+      <c r="H142" s="80"/>
+      <c r="I142" s="80"/>
+      <c r="J142" s="80"/>
+      <c r="K142" s="81"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="80" t="s">
+      <c r="C143" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D143" s="81"/>
-      <c r="E143" s="82" t="s">
+      <c r="D143" s="83"/>
+      <c r="E143" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F143" s="82"/>
-      <c r="G143" s="83"/>
+      <c r="F143" s="84"/>
+      <c r="G143" s="85"/>
       <c r="H143" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I143" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J143" s="84" t="s">
+      <c r="J143" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K143" s="85"/>
+      <c r="K143" s="87"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="34"/>
-      <c r="C144" s="90" t="s">
+      <c r="C144" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="D144" s="91"/>
-      <c r="E144" s="92" t="s">
+      <c r="D144" s="93"/>
+      <c r="E144" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="92"/>
-      <c r="G144" s="93"/>
+      <c r="F144" s="94"/>
+      <c r="G144" s="95"/>
       <c r="H144" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I144" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J144" s="94"/>
-      <c r="K144" s="95"/>
+      <c r="J144" s="96"/>
+      <c r="K144" s="97"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" s="37"/>
-      <c r="C145" s="64" t="s">
+      <c r="C145" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="65"/>
-      <c r="E145" s="66" t="s">
+      <c r="D145" s="67"/>
+      <c r="E145" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="F145" s="66"/>
-      <c r="G145" s="67"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="69"/>
       <c r="H145" s="38" t="s">
         <v>50</v>
       </c>
       <c r="I145" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J145" s="68"/>
-      <c r="K145" s="69"/>
+      <c r="J145" s="70"/>
+      <c r="K145" s="71"/>
     </row>
     <row r="146" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="98"/>
-      <c r="C146" s="99"/>
-      <c r="D146" s="99"/>
-      <c r="E146" s="99"/>
-      <c r="F146" s="99"/>
-      <c r="G146" s="99"/>
-      <c r="H146" s="99"/>
-      <c r="I146" s="99"/>
-      <c r="J146" s="99"/>
-      <c r="K146" s="100"/>
+      <c r="B146" s="100"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="101"/>
+      <c r="E146" s="101"/>
+      <c r="F146" s="101"/>
+      <c r="G146" s="101"/>
+      <c r="H146" s="101"/>
+      <c r="I146" s="101"/>
+      <c r="J146" s="101"/>
+      <c r="K146" s="102"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4918,88 +5086,88 @@
       <c r="A149" s="48">
         <v>14</v>
       </c>
-      <c r="B149" s="73" t="s">
+      <c r="B149" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="74"/>
-      <c r="I149" s="74"/>
-      <c r="J149" s="75"/>
-      <c r="K149" s="76"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="76"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="76"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="76"/>
+      <c r="J149" s="77"/>
+      <c r="K149" s="78"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="77" t="s">
+      <c r="B150" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="C150" s="78"/>
-      <c r="D150" s="78"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
-      <c r="H150" s="78"/>
-      <c r="I150" s="78"/>
-      <c r="J150" s="78"/>
-      <c r="K150" s="79"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
+      <c r="K150" s="81"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="80" t="s">
+      <c r="C151" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="81"/>
-      <c r="E151" s="82" t="s">
+      <c r="D151" s="83"/>
+      <c r="E151" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="F151" s="82"/>
-      <c r="G151" s="83"/>
+      <c r="F151" s="84"/>
+      <c r="G151" s="85"/>
       <c r="H151" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I151" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J151" s="84" t="s">
+      <c r="J151" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K151" s="85"/>
+      <c r="K151" s="87"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" s="37"/>
-      <c r="C152" s="64" t="s">
+      <c r="C152" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="D152" s="65"/>
-      <c r="E152" s="66" t="s">
+      <c r="D152" s="67"/>
+      <c r="E152" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="F152" s="66"/>
-      <c r="G152" s="67"/>
+      <c r="F152" s="68"/>
+      <c r="G152" s="69"/>
       <c r="H152" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I152" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J152" s="119"/>
-      <c r="K152" s="120"/>
+      <c r="J152" s="121"/>
+      <c r="K152" s="122"/>
     </row>
     <row r="153" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="98"/>
-      <c r="C153" s="99"/>
-      <c r="D153" s="99"/>
-      <c r="E153" s="99"/>
-      <c r="F153" s="99"/>
-      <c r="G153" s="99"/>
-      <c r="H153" s="99"/>
-      <c r="I153" s="99"/>
-      <c r="J153" s="99"/>
-      <c r="K153" s="100"/>
+      <c r="B153" s="100"/>
+      <c r="C153" s="101"/>
+      <c r="D153" s="101"/>
+      <c r="E153" s="101"/>
+      <c r="F153" s="101"/>
+      <c r="G153" s="101"/>
+      <c r="H153" s="101"/>
+      <c r="I153" s="101"/>
+      <c r="J153" s="101"/>
+      <c r="K153" s="102"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5007,258 +5175,258 @@
       <c r="A156" s="48">
         <v>15</v>
       </c>
-      <c r="B156" s="73" t="s">
+      <c r="B156" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="C156" s="74"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="74"/>
-      <c r="H156" s="74"/>
-      <c r="I156" s="74"/>
-      <c r="J156" s="75"/>
-      <c r="K156" s="76"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="76"/>
+      <c r="E156" s="76"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="76"/>
+      <c r="H156" s="76"/>
+      <c r="I156" s="76"/>
+      <c r="J156" s="77"/>
+      <c r="K156" s="78"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="77" t="s">
+      <c r="B157" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="C157" s="78"/>
-      <c r="D157" s="78"/>
-      <c r="E157" s="78"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="78"/>
-      <c r="H157" s="78"/>
-      <c r="I157" s="78"/>
-      <c r="J157" s="78"/>
-      <c r="K157" s="79"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80"/>
+      <c r="E157" s="80"/>
+      <c r="F157" s="80"/>
+      <c r="G157" s="80"/>
+      <c r="H157" s="80"/>
+      <c r="I157" s="80"/>
+      <c r="J157" s="80"/>
+      <c r="K157" s="81"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B158" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="80" t="s">
+      <c r="C158" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="D158" s="81"/>
-      <c r="E158" s="82" t="s">
+      <c r="D158" s="83"/>
+      <c r="E158" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F158" s="82"/>
-      <c r="G158" s="83"/>
+      <c r="F158" s="84"/>
+      <c r="G158" s="85"/>
       <c r="H158" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J158" s="84" t="s">
+      <c r="J158" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K158" s="85"/>
+      <c r="K158" s="87"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" s="34"/>
-      <c r="C159" s="90" t="s">
+      <c r="C159" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="D159" s="91"/>
-      <c r="E159" s="92" t="s">
+      <c r="D159" s="93"/>
+      <c r="E159" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="F159" s="92"/>
-      <c r="G159" s="93"/>
+      <c r="F159" s="94"/>
+      <c r="G159" s="95"/>
       <c r="H159" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I159" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J159" s="94"/>
-      <c r="K159" s="95"/>
+      <c r="J159" s="96"/>
+      <c r="K159" s="97"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="90" t="s">
+      <c r="C160" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D160" s="91"/>
-      <c r="E160" s="92" t="s">
+      <c r="D160" s="93"/>
+      <c r="E160" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="92"/>
-      <c r="G160" s="93"/>
+      <c r="F160" s="94"/>
+      <c r="G160" s="95"/>
       <c r="H160" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I160" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J160" s="94"/>
-      <c r="K160" s="95"/>
+      <c r="J160" s="96"/>
+      <c r="K160" s="97"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C161" s="90" t="s">
+      <c r="C161" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="91"/>
-      <c r="E161" s="92" t="s">
+      <c r="D161" s="93"/>
+      <c r="E161" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="F161" s="92"/>
-      <c r="G161" s="93"/>
+      <c r="F161" s="94"/>
+      <c r="G161" s="95"/>
       <c r="H161" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I161" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J161" s="94" t="s">
+      <c r="J161" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K161" s="95"/>
+      <c r="K161" s="97"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B162" s="34"/>
-      <c r="C162" s="90" t="s">
+      <c r="C162" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="D162" s="91"/>
-      <c r="E162" s="92" t="s">
+      <c r="D162" s="93"/>
+      <c r="E162" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="F162" s="92"/>
-      <c r="G162" s="93"/>
+      <c r="F162" s="94"/>
+      <c r="G162" s="95"/>
       <c r="H162" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I162" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J162" s="94"/>
-      <c r="K162" s="95"/>
+      <c r="J162" s="96"/>
+      <c r="K162" s="97"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B163" s="34"/>
-      <c r="C163" s="90" t="s">
+      <c r="C163" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="91"/>
-      <c r="E163" s="92" t="s">
+      <c r="D163" s="93"/>
+      <c r="E163" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="F163" s="92"/>
-      <c r="G163" s="93"/>
+      <c r="F163" s="94"/>
+      <c r="G163" s="95"/>
       <c r="H163" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I163" s="36"/>
-      <c r="J163" s="94"/>
-      <c r="K163" s="95"/>
+      <c r="J163" s="96"/>
+      <c r="K163" s="97"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B164" s="34"/>
-      <c r="C164" s="90" t="s">
+      <c r="C164" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D164" s="91"/>
-      <c r="E164" s="92" t="s">
+      <c r="D164" s="93"/>
+      <c r="E164" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="F164" s="92"/>
-      <c r="G164" s="93"/>
+      <c r="F164" s="94"/>
+      <c r="G164" s="95"/>
       <c r="H164" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I164" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J164" s="94"/>
-      <c r="K164" s="95"/>
+      <c r="J164" s="96"/>
+      <c r="K164" s="97"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B165" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C165" s="90" t="s">
+      <c r="C165" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="91"/>
-      <c r="E165" s="92" t="s">
+      <c r="D165" s="93"/>
+      <c r="E165" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F165" s="92"/>
-      <c r="G165" s="93"/>
+      <c r="F165" s="94"/>
+      <c r="G165" s="95"/>
       <c r="H165" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I165" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J165" s="94" t="s">
+      <c r="J165" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K165" s="95"/>
+      <c r="K165" s="97"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B166" s="37"/>
-      <c r="C166" s="64" t="s">
+      <c r="C166" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D166" s="65"/>
-      <c r="E166" s="66" t="s">
+      <c r="D166" s="67"/>
+      <c r="E166" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F166" s="66"/>
-      <c r="G166" s="67"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="69"/>
       <c r="H166" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I166" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J166" s="68" t="s">
+      <c r="J166" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="K166" s="69"/>
+      <c r="K166" s="71"/>
     </row>
     <row r="167" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="70" t="s">
+      <c r="B167" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C167" s="71"/>
-      <c r="D167" s="71"/>
-      <c r="E167" s="71"/>
-      <c r="F167" s="71"/>
-      <c r="G167" s="71"/>
-      <c r="H167" s="71"/>
-      <c r="I167" s="71"/>
-      <c r="J167" s="71"/>
-      <c r="K167" s="72"/>
+      <c r="C167" s="73"/>
+      <c r="D167" s="73"/>
+      <c r="E167" s="73"/>
+      <c r="F167" s="73"/>
+      <c r="G167" s="73"/>
+      <c r="H167" s="73"/>
+      <c r="I167" s="73"/>
+      <c r="J167" s="73"/>
+      <c r="K167" s="74"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B168" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="86" t="s">
+      <c r="C168" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="86"/>
-      <c r="E168" s="86"/>
+      <c r="D168" s="88"/>
+      <c r="E168" s="88"/>
       <c r="F168" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G168" s="86" t="s">
+      <c r="G168" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="H168" s="86"/>
-      <c r="I168" s="86"/>
+      <c r="H168" s="88"/>
+      <c r="I168" s="88"/>
       <c r="J168" s="8"/>
       <c r="K168" s="20"/>
     </row>
@@ -5266,19 +5434,19 @@
       <c r="B169" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C169" s="62" t="s">
+      <c r="C169" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="62"/>
-      <c r="E169" s="62"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
       <c r="F169" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G169" s="62" t="s">
+      <c r="G169" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="H169" s="62"/>
-      <c r="I169" s="62"/>
+      <c r="H169" s="64"/>
+      <c r="I169" s="64"/>
       <c r="J169" s="23"/>
       <c r="K169" s="24"/>
     </row>
@@ -5288,132 +5456,132 @@
       <c r="A172" s="48">
         <v>16</v>
       </c>
-      <c r="B172" s="73" t="s">
+      <c r="B172" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="74"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
-      <c r="J172" s="75"/>
-      <c r="K172" s="76"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="76"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="76"/>
+      <c r="H172" s="76"/>
+      <c r="I172" s="76"/>
+      <c r="J172" s="77"/>
+      <c r="K172" s="78"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="77" t="s">
+      <c r="B173" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="C173" s="78"/>
-      <c r="D173" s="78"/>
-      <c r="E173" s="78"/>
-      <c r="F173" s="78"/>
-      <c r="G173" s="78"/>
-      <c r="H173" s="78"/>
-      <c r="I173" s="78"/>
-      <c r="J173" s="78"/>
-      <c r="K173" s="79"/>
+      <c r="C173" s="80"/>
+      <c r="D173" s="80"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="80"/>
+      <c r="H173" s="80"/>
+      <c r="I173" s="80"/>
+      <c r="J173" s="80"/>
+      <c r="K173" s="81"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B174" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C174" s="80" t="s">
+      <c r="C174" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D174" s="81"/>
-      <c r="E174" s="82" t="s">
+      <c r="D174" s="83"/>
+      <c r="E174" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="F174" s="82"/>
-      <c r="G174" s="83"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="85"/>
       <c r="H174" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I174" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J174" s="84" t="s">
+      <c r="J174" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K174" s="85"/>
+      <c r="K174" s="87"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" s="34"/>
-      <c r="C175" s="90" t="s">
+      <c r="C175" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="D175" s="91"/>
-      <c r="E175" s="92" t="s">
+      <c r="D175" s="93"/>
+      <c r="E175" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="F175" s="92"/>
-      <c r="G175" s="93"/>
+      <c r="F175" s="94"/>
+      <c r="G175" s="95"/>
       <c r="H175" s="35" t="s">
         <v>127</v>
       </c>
       <c r="I175" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J175" s="94" t="s">
+      <c r="J175" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="K175" s="95"/>
+      <c r="K175" s="97"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B176" s="37"/>
-      <c r="C176" s="64" t="s">
+      <c r="C176" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D176" s="65"/>
-      <c r="E176" s="66" t="s">
+      <c r="D176" s="67"/>
+      <c r="E176" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="F176" s="66"/>
-      <c r="G176" s="67"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="69"/>
       <c r="H176" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I176" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J176" s="68" t="s">
+      <c r="J176" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="K176" s="69"/>
+      <c r="K176" s="71"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="70" t="s">
+      <c r="B177" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C177" s="71"/>
-      <c r="D177" s="71"/>
-      <c r="E177" s="71"/>
-      <c r="F177" s="71"/>
-      <c r="G177" s="71"/>
-      <c r="H177" s="71"/>
-      <c r="I177" s="71"/>
-      <c r="J177" s="71"/>
-      <c r="K177" s="72"/>
+      <c r="C177" s="73"/>
+      <c r="D177" s="73"/>
+      <c r="E177" s="73"/>
+      <c r="F177" s="73"/>
+      <c r="G177" s="73"/>
+      <c r="H177" s="73"/>
+      <c r="I177" s="73"/>
+      <c r="J177" s="73"/>
+      <c r="K177" s="74"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="62" t="s">
+      <c r="C178" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D178" s="62"/>
-      <c r="E178" s="62"/>
+      <c r="D178" s="64"/>
+      <c r="E178" s="64"/>
       <c r="F178" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G178" s="62" t="s">
+      <c r="G178" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H178" s="62"/>
-      <c r="I178" s="62"/>
+      <c r="H178" s="64"/>
+      <c r="I178" s="64"/>
       <c r="J178" s="23"/>
       <c r="K178" s="24"/>
     </row>
@@ -5423,200 +5591,200 @@
       <c r="A181" s="48">
         <v>17</v>
       </c>
-      <c r="B181" s="73" t="s">
+      <c r="B181" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="C181" s="74"/>
-      <c r="D181" s="74"/>
-      <c r="E181" s="74"/>
-      <c r="F181" s="74"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="74"/>
-      <c r="I181" s="74"/>
-      <c r="J181" s="75"/>
-      <c r="K181" s="76"/>
+      <c r="C181" s="76"/>
+      <c r="D181" s="76"/>
+      <c r="E181" s="76"/>
+      <c r="F181" s="76"/>
+      <c r="G181" s="76"/>
+      <c r="H181" s="76"/>
+      <c r="I181" s="76"/>
+      <c r="J181" s="77"/>
+      <c r="K181" s="78"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="77" t="s">
+      <c r="B182" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="C182" s="78"/>
-      <c r="D182" s="78"/>
-      <c r="E182" s="78"/>
-      <c r="F182" s="78"/>
-      <c r="G182" s="78"/>
-      <c r="H182" s="78"/>
-      <c r="I182" s="78"/>
-      <c r="J182" s="78"/>
-      <c r="K182" s="79"/>
+      <c r="C182" s="80"/>
+      <c r="D182" s="80"/>
+      <c r="E182" s="80"/>
+      <c r="F182" s="80"/>
+      <c r="G182" s="80"/>
+      <c r="H182" s="80"/>
+      <c r="I182" s="80"/>
+      <c r="J182" s="80"/>
+      <c r="K182" s="81"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B183" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="80" t="s">
+      <c r="C183" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D183" s="81"/>
-      <c r="E183" s="82" t="s">
+      <c r="D183" s="83"/>
+      <c r="E183" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F183" s="82"/>
-      <c r="G183" s="83"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="85"/>
       <c r="H183" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I183" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J183" s="84" t="s">
+      <c r="J183" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K183" s="85"/>
+      <c r="K183" s="87"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B184" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C184" s="90" t="s">
+      <c r="C184" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="D184" s="91"/>
-      <c r="E184" s="92" t="s">
+      <c r="D184" s="93"/>
+      <c r="E184" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F184" s="92"/>
-      <c r="G184" s="93"/>
+      <c r="F184" s="94"/>
+      <c r="G184" s="95"/>
       <c r="H184" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I184" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J184" s="94" t="s">
+      <c r="J184" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K184" s="95"/>
+      <c r="K184" s="97"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C185" s="90" t="s">
+      <c r="C185" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="D185" s="91"/>
-      <c r="E185" s="92" t="s">
+      <c r="D185" s="93"/>
+      <c r="E185" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F185" s="92"/>
-      <c r="G185" s="93"/>
+      <c r="F185" s="94"/>
+      <c r="G185" s="95"/>
       <c r="H185" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I185" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J185" s="94" t="s">
+      <c r="J185" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K185" s="95"/>
+      <c r="K185" s="97"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="34"/>
-      <c r="C186" s="90" t="s">
+      <c r="C186" s="92" t="s">
         <v>225</v>
       </c>
-      <c r="D186" s="91"/>
-      <c r="E186" s="92" t="s">
+      <c r="D186" s="93"/>
+      <c r="E186" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="F186" s="92"/>
-      <c r="G186" s="93"/>
+      <c r="F186" s="94"/>
+      <c r="G186" s="95"/>
       <c r="H186" s="35" t="s">
         <v>221</v>
       </c>
       <c r="I186" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J186" s="94"/>
-      <c r="K186" s="95"/>
+      <c r="J186" s="96"/>
+      <c r="K186" s="97"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" s="34"/>
-      <c r="C187" s="90" t="s">
+      <c r="C187" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="D187" s="91"/>
-      <c r="E187" s="92" t="s">
+      <c r="D187" s="93"/>
+      <c r="E187" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="F187" s="92"/>
-      <c r="G187" s="93"/>
+      <c r="F187" s="94"/>
+      <c r="G187" s="95"/>
       <c r="H187" s="35" t="s">
         <v>232</v>
       </c>
       <c r="I187" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J187" s="94" t="s">
+      <c r="J187" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="K187" s="95"/>
+      <c r="K187" s="97"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" s="37"/>
-      <c r="C188" s="115" t="s">
+      <c r="C188" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D188" s="116"/>
-      <c r="E188" s="66" t="s">
+      <c r="D188" s="118"/>
+      <c r="E188" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="F188" s="66"/>
-      <c r="G188" s="67"/>
+      <c r="F188" s="68"/>
+      <c r="G188" s="69"/>
       <c r="H188" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I188" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J188" s="68" t="s">
+      <c r="J188" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="K188" s="69"/>
+      <c r="K188" s="71"/>
     </row>
     <row r="189" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="70" t="s">
+      <c r="B189" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C189" s="71"/>
-      <c r="D189" s="71"/>
-      <c r="E189" s="71"/>
-      <c r="F189" s="71"/>
-      <c r="G189" s="71"/>
-      <c r="H189" s="71"/>
-      <c r="I189" s="71"/>
-      <c r="J189" s="71"/>
-      <c r="K189" s="72"/>
+      <c r="C189" s="73"/>
+      <c r="D189" s="73"/>
+      <c r="E189" s="73"/>
+      <c r="F189" s="73"/>
+      <c r="G189" s="73"/>
+      <c r="H189" s="73"/>
+      <c r="I189" s="73"/>
+      <c r="J189" s="73"/>
+      <c r="K189" s="74"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B190" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="63" t="s">
+      <c r="C190" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D190" s="63"/>
-      <c r="E190" s="63"/>
+      <c r="D190" s="65"/>
+      <c r="E190" s="65"/>
       <c r="F190" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G190" s="63" t="s">
+      <c r="G190" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H190" s="63"/>
-      <c r="I190" s="63"/>
+      <c r="H190" s="65"/>
+      <c r="I190" s="65"/>
       <c r="J190" s="8"/>
       <c r="K190" s="20"/>
     </row>
@@ -5624,19 +5792,19 @@
       <c r="B191" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C191" s="62" t="s">
+      <c r="C191" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D191" s="62"/>
-      <c r="E191" s="62"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="64"/>
       <c r="F191" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G191" s="62" t="s">
+      <c r="G191" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="H191" s="62"/>
-      <c r="I191" s="62"/>
+      <c r="H191" s="64"/>
+      <c r="I191" s="64"/>
       <c r="J191" s="23"/>
       <c r="K191" s="24"/>
     </row>
@@ -5646,170 +5814,170 @@
       <c r="A194" s="48">
         <v>18</v>
       </c>
-      <c r="B194" s="73" t="s">
+      <c r="B194" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C194" s="74"/>
-      <c r="D194" s="74"/>
-      <c r="E194" s="74"/>
-      <c r="F194" s="74"/>
-      <c r="G194" s="74"/>
-      <c r="H194" s="74"/>
-      <c r="I194" s="74"/>
-      <c r="J194" s="75"/>
-      <c r="K194" s="76"/>
+      <c r="C194" s="76"/>
+      <c r="D194" s="76"/>
+      <c r="E194" s="76"/>
+      <c r="F194" s="76"/>
+      <c r="G194" s="76"/>
+      <c r="H194" s="76"/>
+      <c r="I194" s="76"/>
+      <c r="J194" s="77"/>
+      <c r="K194" s="78"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="77" t="s">
+      <c r="B195" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C195" s="78"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="78"/>
-      <c r="G195" s="78"/>
-      <c r="H195" s="78"/>
-      <c r="I195" s="78"/>
-      <c r="J195" s="78"/>
-      <c r="K195" s="79"/>
+      <c r="C195" s="80"/>
+      <c r="D195" s="80"/>
+      <c r="E195" s="80"/>
+      <c r="F195" s="80"/>
+      <c r="G195" s="80"/>
+      <c r="H195" s="80"/>
+      <c r="I195" s="80"/>
+      <c r="J195" s="80"/>
+      <c r="K195" s="81"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B196" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C196" s="80" t="s">
+      <c r="C196" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D196" s="81"/>
-      <c r="E196" s="82" t="s">
+      <c r="D196" s="83"/>
+      <c r="E196" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F196" s="82"/>
-      <c r="G196" s="83"/>
+      <c r="F196" s="84"/>
+      <c r="G196" s="85"/>
       <c r="H196" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I196" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J196" s="107" t="s">
+      <c r="J196" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="K196" s="108"/>
+      <c r="K196" s="110"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B197" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C197" s="90" t="s">
+      <c r="C197" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="D197" s="91"/>
-      <c r="E197" s="92" t="s">
+      <c r="D197" s="93"/>
+      <c r="E197" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="F197" s="92"/>
-      <c r="G197" s="93"/>
+      <c r="F197" s="94"/>
+      <c r="G197" s="95"/>
       <c r="H197" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I197" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J197" s="109" t="s">
+      <c r="J197" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K197" s="110"/>
+      <c r="K197" s="112"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B198" s="34"/>
-      <c r="C198" s="90" t="s">
+      <c r="C198" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="D198" s="91"/>
-      <c r="E198" s="92" t="s">
+      <c r="D198" s="93"/>
+      <c r="E198" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F198" s="92"/>
-      <c r="G198" s="93"/>
+      <c r="F198" s="94"/>
+      <c r="G198" s="95"/>
       <c r="H198" s="35" t="s">
         <v>231</v>
       </c>
       <c r="I198" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J198" s="94"/>
-      <c r="K198" s="95"/>
+      <c r="J198" s="96"/>
+      <c r="K198" s="97"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B199" s="34"/>
-      <c r="C199" s="90" t="s">
+      <c r="C199" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="D199" s="91"/>
-      <c r="E199" s="92" t="s">
+      <c r="D199" s="93"/>
+      <c r="E199" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="F199" s="92"/>
-      <c r="G199" s="93"/>
+      <c r="F199" s="94"/>
+      <c r="G199" s="95"/>
       <c r="H199" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I199" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J199" s="94"/>
-      <c r="K199" s="95"/>
+      <c r="J199" s="96"/>
+      <c r="K199" s="97"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B200" s="37"/>
-      <c r="C200" s="117" t="s">
+      <c r="C200" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="D200" s="118"/>
-      <c r="E200" s="92" t="s">
+      <c r="D200" s="120"/>
+      <c r="E200" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="F200" s="92"/>
-      <c r="G200" s="93"/>
+      <c r="F200" s="94"/>
+      <c r="G200" s="95"/>
       <c r="H200" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I200" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J200" s="94" t="s">
+      <c r="J200" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="K200" s="95"/>
+      <c r="K200" s="97"/>
     </row>
     <row r="201" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="70" t="s">
+      <c r="B201" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C201" s="71"/>
-      <c r="D201" s="71"/>
-      <c r="E201" s="71"/>
-      <c r="F201" s="71"/>
-      <c r="G201" s="71"/>
-      <c r="H201" s="71"/>
-      <c r="I201" s="71"/>
-      <c r="J201" s="71"/>
-      <c r="K201" s="72"/>
+      <c r="C201" s="73"/>
+      <c r="D201" s="73"/>
+      <c r="E201" s="73"/>
+      <c r="F201" s="73"/>
+      <c r="G201" s="73"/>
+      <c r="H201" s="73"/>
+      <c r="I201" s="73"/>
+      <c r="J201" s="73"/>
+      <c r="K201" s="74"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C202" s="86" t="s">
+      <c r="C202" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="D202" s="86"/>
-      <c r="E202" s="86"/>
+      <c r="D202" s="88"/>
+      <c r="E202" s="88"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="86"/>
-      <c r="H202" s="86"/>
-      <c r="I202" s="86"/>
+      <c r="G202" s="88"/>
+      <c r="H202" s="88"/>
+      <c r="I202" s="88"/>
       <c r="J202" s="8"/>
       <c r="K202" s="20"/>
     </row>
@@ -5817,19 +5985,19 @@
       <c r="B203" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C203" s="63" t="s">
+      <c r="C203" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D203" s="63"/>
-      <c r="E203" s="63"/>
+      <c r="D203" s="65"/>
+      <c r="E203" s="65"/>
       <c r="F203" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G203" s="63" t="s">
+      <c r="G203" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="H203" s="63"/>
-      <c r="I203" s="63"/>
+      <c r="H203" s="65"/>
+      <c r="I203" s="65"/>
       <c r="J203" s="9"/>
       <c r="K203" s="27"/>
     </row>
@@ -5837,19 +6005,19 @@
       <c r="B204" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C204" s="62" t="s">
+      <c r="C204" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D204" s="62"/>
-      <c r="E204" s="62"/>
+      <c r="D204" s="64"/>
+      <c r="E204" s="64"/>
       <c r="F204" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G204" s="62" t="s">
+      <c r="G204" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H204" s="62"/>
-      <c r="I204" s="62"/>
+      <c r="H204" s="64"/>
+      <c r="I204" s="64"/>
       <c r="J204" s="23"/>
       <c r="K204" s="24"/>
     </row>
@@ -5859,88 +6027,88 @@
       <c r="A207" s="55">
         <v>19</v>
       </c>
-      <c r="B207" s="73" t="s">
+      <c r="B207" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C207" s="74"/>
-      <c r="D207" s="74"/>
-      <c r="E207" s="74"/>
-      <c r="F207" s="74"/>
-      <c r="G207" s="74"/>
-      <c r="H207" s="74"/>
-      <c r="I207" s="74"/>
-      <c r="J207" s="75"/>
-      <c r="K207" s="76"/>
+      <c r="C207" s="76"/>
+      <c r="D207" s="76"/>
+      <c r="E207" s="76"/>
+      <c r="F207" s="76"/>
+      <c r="G207" s="76"/>
+      <c r="H207" s="76"/>
+      <c r="I207" s="76"/>
+      <c r="J207" s="77"/>
+      <c r="K207" s="78"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="77" t="s">
+      <c r="B208" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C208" s="78"/>
-      <c r="D208" s="78"/>
-      <c r="E208" s="78"/>
-      <c r="F208" s="78"/>
-      <c r="G208" s="78"/>
-      <c r="H208" s="78"/>
-      <c r="I208" s="78"/>
-      <c r="J208" s="78"/>
-      <c r="K208" s="79"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="80"/>
+      <c r="E208" s="80"/>
+      <c r="F208" s="80"/>
+      <c r="G208" s="80"/>
+      <c r="H208" s="80"/>
+      <c r="I208" s="80"/>
+      <c r="J208" s="80"/>
+      <c r="K208" s="81"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B209" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="80" t="s">
+      <c r="C209" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D209" s="81"/>
-      <c r="E209" s="82" t="s">
+      <c r="D209" s="83"/>
+      <c r="E209" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F209" s="82"/>
-      <c r="G209" s="83"/>
+      <c r="F209" s="84"/>
+      <c r="G209" s="85"/>
       <c r="H209" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I209" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J209" s="84" t="s">
+      <c r="J209" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K209" s="85"/>
+      <c r="K209" s="87"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B210" s="37"/>
-      <c r="C210" s="64" t="s">
+      <c r="C210" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="D210" s="65"/>
-      <c r="E210" s="66" t="s">
+      <c r="D210" s="67"/>
+      <c r="E210" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F210" s="66"/>
-      <c r="G210" s="67"/>
+      <c r="F210" s="68"/>
+      <c r="G210" s="69"/>
       <c r="H210" s="38" t="s">
         <v>234</v>
       </c>
       <c r="I210" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J210" s="68"/>
-      <c r="K210" s="69"/>
+      <c r="J210" s="70"/>
+      <c r="K210" s="71"/>
     </row>
     <row r="211" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="98"/>
-      <c r="C211" s="99"/>
-      <c r="D211" s="99"/>
-      <c r="E211" s="99"/>
-      <c r="F211" s="99"/>
-      <c r="G211" s="99"/>
-      <c r="H211" s="99"/>
-      <c r="I211" s="99"/>
-      <c r="J211" s="99"/>
-      <c r="K211" s="100"/>
+      <c r="B211" s="100"/>
+      <c r="C211" s="101"/>
+      <c r="D211" s="101"/>
+      <c r="E211" s="101"/>
+      <c r="F211" s="101"/>
+      <c r="G211" s="101"/>
+      <c r="H211" s="101"/>
+      <c r="I211" s="101"/>
+      <c r="J211" s="101"/>
+      <c r="K211" s="102"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5948,220 +6116,220 @@
       <c r="A214" s="55">
         <v>20</v>
       </c>
-      <c r="B214" s="73" t="s">
+      <c r="B214" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="C214" s="74"/>
-      <c r="D214" s="74"/>
-      <c r="E214" s="74"/>
-      <c r="F214" s="74"/>
-      <c r="G214" s="74"/>
-      <c r="H214" s="74"/>
-      <c r="I214" s="74"/>
-      <c r="J214" s="75"/>
-      <c r="K214" s="76"/>
+      <c r="C214" s="76"/>
+      <c r="D214" s="76"/>
+      <c r="E214" s="76"/>
+      <c r="F214" s="76"/>
+      <c r="G214" s="76"/>
+      <c r="H214" s="76"/>
+      <c r="I214" s="76"/>
+      <c r="J214" s="77"/>
+      <c r="K214" s="78"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="77" t="s">
+      <c r="B215" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C215" s="78"/>
-      <c r="D215" s="78"/>
-      <c r="E215" s="78"/>
-      <c r="F215" s="78"/>
-      <c r="G215" s="78"/>
-      <c r="H215" s="78"/>
-      <c r="I215" s="78"/>
-      <c r="J215" s="78"/>
-      <c r="K215" s="79"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="80"/>
+      <c r="E215" s="80"/>
+      <c r="F215" s="80"/>
+      <c r="G215" s="80"/>
+      <c r="H215" s="80"/>
+      <c r="I215" s="80"/>
+      <c r="J215" s="80"/>
+      <c r="K215" s="81"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B216" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C216" s="80" t="s">
+      <c r="C216" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="D216" s="81"/>
-      <c r="E216" s="82" t="s">
+      <c r="D216" s="83"/>
+      <c r="E216" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="F216" s="82"/>
-      <c r="G216" s="83"/>
+      <c r="F216" s="84"/>
+      <c r="G216" s="85"/>
       <c r="H216" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I216" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J216" s="84" t="s">
+      <c r="J216" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K216" s="85"/>
+      <c r="K216" s="87"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B217" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C217" s="90" t="s">
+      <c r="C217" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="D217" s="91"/>
-      <c r="E217" s="92" t="s">
+      <c r="D217" s="93"/>
+      <c r="E217" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="F217" s="92"/>
-      <c r="G217" s="93"/>
+      <c r="F217" s="94"/>
+      <c r="G217" s="95"/>
       <c r="H217" s="35" t="s">
         <v>152</v>
       </c>
       <c r="I217" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J217" s="94"/>
-      <c r="K217" s="95"/>
+      <c r="J217" s="96"/>
+      <c r="K217" s="97"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B218" s="34"/>
-      <c r="C218" s="90" t="s">
+      <c r="C218" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="D218" s="91"/>
-      <c r="E218" s="92" t="s">
+      <c r="D218" s="93"/>
+      <c r="E218" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="F218" s="92"/>
-      <c r="G218" s="93"/>
+      <c r="F218" s="94"/>
+      <c r="G218" s="95"/>
       <c r="H218" s="35" t="s">
         <v>221</v>
       </c>
       <c r="I218" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="J218" s="94"/>
-      <c r="K218" s="95"/>
+      <c r="J218" s="96"/>
+      <c r="K218" s="97"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C219" s="90" t="s">
+      <c r="C219" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="D219" s="91"/>
-      <c r="E219" s="92" t="s">
+      <c r="D219" s="93"/>
+      <c r="E219" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="F219" s="92"/>
-      <c r="G219" s="93"/>
+      <c r="F219" s="94"/>
+      <c r="G219" s="95"/>
       <c r="H219" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I219" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J219" s="94" t="s">
+      <c r="J219" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K219" s="95"/>
+      <c r="K219" s="97"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B220" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C220" s="90" t="s">
+      <c r="C220" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="D220" s="91"/>
-      <c r="E220" s="92" t="s">
+      <c r="D220" s="93"/>
+      <c r="E220" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="F220" s="92"/>
-      <c r="G220" s="93"/>
+      <c r="F220" s="94"/>
+      <c r="G220" s="95"/>
       <c r="H220" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I220" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J220" s="94" t="s">
+      <c r="J220" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K220" s="95"/>
+      <c r="K220" s="97"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B221" s="34"/>
-      <c r="C221" s="90" t="s">
+      <c r="C221" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="D221" s="91"/>
-      <c r="E221" s="92" t="s">
+      <c r="D221" s="93"/>
+      <c r="E221" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="F221" s="92"/>
-      <c r="G221" s="93"/>
+      <c r="F221" s="94"/>
+      <c r="G221" s="95"/>
       <c r="H221" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I221" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J221" s="94"/>
-      <c r="K221" s="95"/>
+      <c r="J221" s="96"/>
+      <c r="K221" s="97"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B222" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C222" s="64" t="s">
+      <c r="C222" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="D222" s="65"/>
-      <c r="E222" s="66" t="s">
+      <c r="D222" s="67"/>
+      <c r="E222" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="F222" s="66"/>
-      <c r="G222" s="67"/>
+      <c r="F222" s="68"/>
+      <c r="G222" s="69"/>
       <c r="H222" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I222" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J222" s="68" t="s">
+      <c r="J222" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="K222" s="69"/>
+      <c r="K222" s="71"/>
     </row>
     <row r="223" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="70" t="s">
+      <c r="B223" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C223" s="71"/>
-      <c r="D223" s="71"/>
-      <c r="E223" s="71"/>
-      <c r="F223" s="71"/>
-      <c r="G223" s="71"/>
-      <c r="H223" s="71"/>
-      <c r="I223" s="71"/>
-      <c r="J223" s="71"/>
-      <c r="K223" s="72"/>
+      <c r="C223" s="73"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="73"/>
+      <c r="F223" s="73"/>
+      <c r="G223" s="73"/>
+      <c r="H223" s="73"/>
+      <c r="I223" s="73"/>
+      <c r="J223" s="73"/>
+      <c r="K223" s="74"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B224" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C224" s="63" t="s">
+      <c r="C224" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="D224" s="63"/>
-      <c r="E224" s="63"/>
+      <c r="D224" s="65"/>
+      <c r="E224" s="65"/>
       <c r="F224" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="63"/>
-      <c r="H224" s="63"/>
-      <c r="I224" s="63"/>
+      <c r="G224" s="65"/>
+      <c r="H224" s="65"/>
+      <c r="I224" s="65"/>
       <c r="J224" s="8"/>
       <c r="K224" s="20"/>
     </row>
@@ -6169,11 +6337,11 @@
       <c r="B225" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C225" s="63" t="s">
+      <c r="C225" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D225" s="63"/>
-      <c r="E225" s="63"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="65"/>
       <c r="F225" s="5" t="s">
         <v>180</v>
       </c>
@@ -6187,19 +6355,19 @@
       <c r="B226" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C226" s="63" t="s">
+      <c r="C226" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D226" s="63"/>
-      <c r="E226" s="63"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="65"/>
       <c r="F226" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G226" s="63" t="s">
+      <c r="G226" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="H226" s="63"/>
-      <c r="I226" s="63"/>
+      <c r="H226" s="65"/>
+      <c r="I226" s="65"/>
       <c r="J226" s="9"/>
       <c r="K226" s="27"/>
     </row>
@@ -6207,19 +6375,19 @@
       <c r="B227" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C227" s="63" t="s">
+      <c r="C227" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="D227" s="63"/>
-      <c r="E227" s="63"/>
+      <c r="D227" s="65"/>
+      <c r="E227" s="65"/>
       <c r="F227" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G227" s="63" t="s">
+      <c r="G227" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="H227" s="63"/>
-      <c r="I227" s="63"/>
+      <c r="H227" s="65"/>
+      <c r="I227" s="65"/>
       <c r="J227" s="9"/>
       <c r="K227" s="27"/>
     </row>
@@ -6227,19 +6395,19 @@
       <c r="B228" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C228" s="62" t="s">
+      <c r="C228" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="D228" s="62"/>
-      <c r="E228" s="62"/>
+      <c r="D228" s="64"/>
+      <c r="E228" s="64"/>
       <c r="F228" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G228" s="62" t="s">
+      <c r="G228" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="H228" s="62"/>
-      <c r="I228" s="62"/>
+      <c r="H228" s="64"/>
+      <c r="I228" s="64"/>
       <c r="J228" s="23"/>
       <c r="K228" s="24"/>
     </row>
@@ -6249,88 +6417,88 @@
       <c r="A231" s="55">
         <v>21</v>
       </c>
-      <c r="B231" s="73" t="s">
+      <c r="B231" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="C231" s="74"/>
-      <c r="D231" s="74"/>
-      <c r="E231" s="74"/>
-      <c r="F231" s="74"/>
-      <c r="G231" s="74"/>
-      <c r="H231" s="74"/>
-      <c r="I231" s="74"/>
-      <c r="J231" s="75"/>
-      <c r="K231" s="76"/>
+      <c r="C231" s="76"/>
+      <c r="D231" s="76"/>
+      <c r="E231" s="76"/>
+      <c r="F231" s="76"/>
+      <c r="G231" s="76"/>
+      <c r="H231" s="76"/>
+      <c r="I231" s="76"/>
+      <c r="J231" s="77"/>
+      <c r="K231" s="78"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="77" t="s">
+      <c r="B232" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C232" s="78"/>
-      <c r="D232" s="78"/>
-      <c r="E232" s="78"/>
-      <c r="F232" s="78"/>
-      <c r="G232" s="78"/>
-      <c r="H232" s="78"/>
-      <c r="I232" s="78"/>
-      <c r="J232" s="78"/>
-      <c r="K232" s="79"/>
+      <c r="C232" s="80"/>
+      <c r="D232" s="80"/>
+      <c r="E232" s="80"/>
+      <c r="F232" s="80"/>
+      <c r="G232" s="80"/>
+      <c r="H232" s="80"/>
+      <c r="I232" s="80"/>
+      <c r="J232" s="80"/>
+      <c r="K232" s="81"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B233" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C233" s="80" t="s">
+      <c r="C233" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D233" s="81"/>
-      <c r="E233" s="82" t="s">
+      <c r="D233" s="83"/>
+      <c r="E233" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="F233" s="82"/>
-      <c r="G233" s="83"/>
+      <c r="F233" s="84"/>
+      <c r="G233" s="85"/>
       <c r="H233" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I233" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J233" s="84" t="s">
+      <c r="J233" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K233" s="85"/>
+      <c r="K233" s="87"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B234" s="37"/>
-      <c r="C234" s="64" t="s">
+      <c r="C234" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="D234" s="65"/>
-      <c r="E234" s="66" t="s">
+      <c r="D234" s="67"/>
+      <c r="E234" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="F234" s="66"/>
-      <c r="G234" s="67"/>
+      <c r="F234" s="68"/>
+      <c r="G234" s="69"/>
       <c r="H234" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I234" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J234" s="68"/>
-      <c r="K234" s="69"/>
+      <c r="J234" s="70"/>
+      <c r="K234" s="71"/>
     </row>
     <row r="235" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="98"/>
-      <c r="C235" s="99"/>
-      <c r="D235" s="99"/>
-      <c r="E235" s="99"/>
-      <c r="F235" s="99"/>
-      <c r="G235" s="99"/>
-      <c r="H235" s="99"/>
-      <c r="I235" s="99"/>
-      <c r="J235" s="99"/>
-      <c r="K235" s="100"/>
+      <c r="B235" s="100"/>
+      <c r="C235" s="101"/>
+      <c r="D235" s="101"/>
+      <c r="E235" s="101"/>
+      <c r="F235" s="101"/>
+      <c r="G235" s="101"/>
+      <c r="H235" s="101"/>
+      <c r="I235" s="101"/>
+      <c r="J235" s="101"/>
+      <c r="K235" s="102"/>
     </row>
     <row r="236" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6338,80 +6506,80 @@
       <c r="A238" s="48">
         <v>22</v>
       </c>
-      <c r="B238" s="73" t="s">
+      <c r="B238" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="C238" s="74"/>
-      <c r="D238" s="74"/>
-      <c r="E238" s="74"/>
-      <c r="F238" s="74"/>
-      <c r="G238" s="74"/>
-      <c r="H238" s="74"/>
-      <c r="I238" s="74"/>
-      <c r="J238" s="75"/>
-      <c r="K238" s="76"/>
+      <c r="C238" s="76"/>
+      <c r="D238" s="76"/>
+      <c r="E238" s="76"/>
+      <c r="F238" s="76"/>
+      <c r="G238" s="76"/>
+      <c r="H238" s="76"/>
+      <c r="I238" s="76"/>
+      <c r="J238" s="77"/>
+      <c r="K238" s="78"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="77" t="s">
+      <c r="B239" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="C239" s="78"/>
-      <c r="D239" s="78"/>
-      <c r="E239" s="78"/>
-      <c r="F239" s="78"/>
-      <c r="G239" s="78"/>
-      <c r="H239" s="78"/>
-      <c r="I239" s="78"/>
-      <c r="J239" s="78"/>
-      <c r="K239" s="79"/>
+      <c r="C239" s="80"/>
+      <c r="D239" s="80"/>
+      <c r="E239" s="80"/>
+      <c r="F239" s="80"/>
+      <c r="G239" s="80"/>
+      <c r="H239" s="80"/>
+      <c r="I239" s="80"/>
+      <c r="J239" s="80"/>
+      <c r="K239" s="81"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B240" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C240" s="80" t="s">
+      <c r="C240" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="D240" s="81"/>
-      <c r="E240" s="82" t="s">
+      <c r="D240" s="83"/>
+      <c r="E240" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="F240" s="82"/>
-      <c r="G240" s="83"/>
+      <c r="F240" s="84"/>
+      <c r="G240" s="85"/>
       <c r="H240" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I240" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J240" s="84" t="s">
+      <c r="J240" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K240" s="85"/>
+      <c r="K240" s="87"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B241" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C241" s="90" t="s">
+      <c r="C241" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="D241" s="91"/>
-      <c r="E241" s="92" t="s">
+      <c r="D241" s="93"/>
+      <c r="E241" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="F241" s="92"/>
-      <c r="G241" s="93"/>
+      <c r="F241" s="94"/>
+      <c r="G241" s="95"/>
       <c r="H241" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I241" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J241" s="94" t="s">
+      <c r="J241" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="K241" s="95"/>
+      <c r="K241" s="97"/>
       <c r="O241" t="s">
         <v>222</v>
       </c>
@@ -6420,55 +6588,55 @@
       <c r="B242" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="64" t="s">
+      <c r="C242" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D242" s="65"/>
-      <c r="E242" s="66" t="s">
+      <c r="D242" s="67"/>
+      <c r="E242" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="F242" s="66"/>
-      <c r="G242" s="67"/>
+      <c r="F242" s="68"/>
+      <c r="G242" s="69"/>
       <c r="H242" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I242" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J242" s="68" t="s">
+      <c r="J242" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="K242" s="69"/>
+      <c r="K242" s="71"/>
     </row>
     <row r="243" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="70" t="s">
+      <c r="B243" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C243" s="71"/>
-      <c r="D243" s="71"/>
-      <c r="E243" s="71"/>
-      <c r="F243" s="71"/>
-      <c r="G243" s="71"/>
-      <c r="H243" s="71"/>
-      <c r="I243" s="71"/>
-      <c r="J243" s="71"/>
-      <c r="K243" s="72"/>
+      <c r="C243" s="73"/>
+      <c r="D243" s="73"/>
+      <c r="E243" s="73"/>
+      <c r="F243" s="73"/>
+      <c r="G243" s="73"/>
+      <c r="H243" s="73"/>
+      <c r="I243" s="73"/>
+      <c r="J243" s="73"/>
+      <c r="K243" s="74"/>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B244" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C244" s="63" t="s">
+      <c r="C244" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="D244" s="63"/>
-      <c r="E244" s="63"/>
+      <c r="D244" s="65"/>
+      <c r="E244" s="65"/>
       <c r="F244" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G244" s="63"/>
-      <c r="H244" s="63"/>
-      <c r="I244" s="63"/>
+      <c r="G244" s="65"/>
+      <c r="H244" s="65"/>
+      <c r="I244" s="65"/>
       <c r="J244" s="9"/>
       <c r="K244" s="27"/>
     </row>
@@ -6476,19 +6644,19 @@
       <c r="B245" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C245" s="63" t="s">
+      <c r="C245" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="D245" s="63"/>
-      <c r="E245" s="63"/>
+      <c r="D245" s="65"/>
+      <c r="E245" s="65"/>
       <c r="F245" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G245" s="63" t="s">
+      <c r="G245" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="H245" s="63"/>
-      <c r="I245" s="63"/>
+      <c r="H245" s="65"/>
+      <c r="I245" s="65"/>
       <c r="J245" s="9"/>
       <c r="K245" s="27"/>
     </row>
@@ -6496,19 +6664,19 @@
       <c r="B246" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C246" s="62" t="s">
+      <c r="C246" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="D246" s="62"/>
-      <c r="E246" s="62"/>
+      <c r="D246" s="64"/>
+      <c r="E246" s="64"/>
       <c r="F246" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G246" s="62" t="s">
+      <c r="G246" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="H246" s="62"/>
-      <c r="I246" s="62"/>
+      <c r="H246" s="64"/>
+      <c r="I246" s="64"/>
       <c r="J246" s="23"/>
       <c r="K246" s="24"/>
     </row>
@@ -6518,88 +6686,88 @@
       <c r="A249" s="48">
         <v>23</v>
       </c>
-      <c r="B249" s="73" t="s">
+      <c r="B249" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C249" s="74"/>
-      <c r="D249" s="74"/>
-      <c r="E249" s="74"/>
-      <c r="F249" s="74"/>
-      <c r="G249" s="74"/>
-      <c r="H249" s="74"/>
-      <c r="I249" s="74"/>
-      <c r="J249" s="75"/>
-      <c r="K249" s="76"/>
+      <c r="C249" s="76"/>
+      <c r="D249" s="76"/>
+      <c r="E249" s="76"/>
+      <c r="F249" s="76"/>
+      <c r="G249" s="76"/>
+      <c r="H249" s="76"/>
+      <c r="I249" s="76"/>
+      <c r="J249" s="77"/>
+      <c r="K249" s="78"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B250" s="77" t="s">
+      <c r="B250" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C250" s="78"/>
-      <c r="D250" s="78"/>
-      <c r="E250" s="78"/>
-      <c r="F250" s="78"/>
-      <c r="G250" s="78"/>
-      <c r="H250" s="78"/>
-      <c r="I250" s="78"/>
-      <c r="J250" s="78"/>
-      <c r="K250" s="79"/>
+      <c r="C250" s="80"/>
+      <c r="D250" s="80"/>
+      <c r="E250" s="80"/>
+      <c r="F250" s="80"/>
+      <c r="G250" s="80"/>
+      <c r="H250" s="80"/>
+      <c r="I250" s="80"/>
+      <c r="J250" s="80"/>
+      <c r="K250" s="81"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B251" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="80" t="s">
+      <c r="C251" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="D251" s="81"/>
-      <c r="E251" s="82" t="s">
+      <c r="D251" s="83"/>
+      <c r="E251" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="F251" s="82"/>
-      <c r="G251" s="83"/>
+      <c r="F251" s="84"/>
+      <c r="G251" s="85"/>
       <c r="H251" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I251" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J251" s="84" t="s">
+      <c r="J251" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K251" s="85"/>
+      <c r="K251" s="87"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B252" s="37"/>
-      <c r="C252" s="64" t="s">
+      <c r="C252" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="D252" s="65"/>
-      <c r="E252" s="66" t="s">
+      <c r="D252" s="67"/>
+      <c r="E252" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="F252" s="66"/>
-      <c r="G252" s="67"/>
+      <c r="F252" s="68"/>
+      <c r="G252" s="69"/>
       <c r="H252" s="38" t="s">
         <v>24</v>
       </c>
       <c r="I252" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J252" s="68"/>
-      <c r="K252" s="69"/>
+      <c r="J252" s="70"/>
+      <c r="K252" s="71"/>
     </row>
     <row r="253" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="98"/>
-      <c r="C253" s="99"/>
-      <c r="D253" s="99"/>
-      <c r="E253" s="99"/>
-      <c r="F253" s="99"/>
-      <c r="G253" s="99"/>
-      <c r="H253" s="99"/>
-      <c r="I253" s="99"/>
-      <c r="J253" s="99"/>
-      <c r="K253" s="100"/>
+      <c r="B253" s="100"/>
+      <c r="C253" s="101"/>
+      <c r="D253" s="101"/>
+      <c r="E253" s="101"/>
+      <c r="F253" s="101"/>
+      <c r="G253" s="101"/>
+      <c r="H253" s="101"/>
+      <c r="I253" s="101"/>
+      <c r="J253" s="101"/>
+      <c r="K253" s="102"/>
     </row>
     <row r="254" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="255" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6607,256 +6775,256 @@
       <c r="A256" s="48">
         <v>24</v>
       </c>
-      <c r="B256" s="73" t="s">
+      <c r="B256" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C256" s="74"/>
-      <c r="D256" s="74"/>
-      <c r="E256" s="74"/>
-      <c r="F256" s="74"/>
-      <c r="G256" s="74"/>
-      <c r="H256" s="74"/>
-      <c r="I256" s="74"/>
-      <c r="J256" s="75"/>
-      <c r="K256" s="76"/>
+      <c r="C256" s="76"/>
+      <c r="D256" s="76"/>
+      <c r="E256" s="76"/>
+      <c r="F256" s="76"/>
+      <c r="G256" s="76"/>
+      <c r="H256" s="76"/>
+      <c r="I256" s="76"/>
+      <c r="J256" s="77"/>
+      <c r="K256" s="78"/>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="77" t="s">
+      <c r="B257" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="C257" s="78"/>
-      <c r="D257" s="78"/>
-      <c r="E257" s="78"/>
-      <c r="F257" s="78"/>
-      <c r="G257" s="78"/>
-      <c r="H257" s="78"/>
-      <c r="I257" s="78"/>
-      <c r="J257" s="78"/>
-      <c r="K257" s="79"/>
+      <c r="C257" s="80"/>
+      <c r="D257" s="80"/>
+      <c r="E257" s="80"/>
+      <c r="F257" s="80"/>
+      <c r="G257" s="80"/>
+      <c r="H257" s="80"/>
+      <c r="I257" s="80"/>
+      <c r="J257" s="80"/>
+      <c r="K257" s="81"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C258" s="80" t="s">
+      <c r="C258" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="D258" s="81"/>
-      <c r="E258" s="82" t="s">
+      <c r="D258" s="83"/>
+      <c r="E258" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="F258" s="82"/>
-      <c r="G258" s="83"/>
+      <c r="F258" s="84"/>
+      <c r="G258" s="85"/>
       <c r="H258" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I258" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J258" s="84" t="s">
+      <c r="J258" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K258" s="85"/>
+      <c r="K258" s="87"/>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C259" s="90" t="s">
+      <c r="C259" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="D259" s="91"/>
-      <c r="E259" s="92" t="s">
+      <c r="D259" s="93"/>
+      <c r="E259" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="F259" s="92"/>
-      <c r="G259" s="93"/>
+      <c r="F259" s="94"/>
+      <c r="G259" s="95"/>
       <c r="H259" s="35" t="s">
         <v>184</v>
       </c>
       <c r="I259" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J259" s="94"/>
-      <c r="K259" s="95"/>
+      <c r="J259" s="96"/>
+      <c r="K259" s="97"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="34"/>
-      <c r="C260" s="90" t="s">
+      <c r="C260" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="D260" s="91"/>
-      <c r="E260" s="92" t="s">
+      <c r="D260" s="93"/>
+      <c r="E260" s="94" t="s">
         <v>193</v>
       </c>
-      <c r="F260" s="92"/>
-      <c r="G260" s="93"/>
+      <c r="F260" s="94"/>
+      <c r="G260" s="95"/>
       <c r="H260" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I260" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J260" s="94" t="s">
+      <c r="J260" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="K260" s="95"/>
+      <c r="K260" s="97"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" s="34"/>
-      <c r="C261" s="90" t="s">
+      <c r="C261" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="D261" s="91"/>
-      <c r="E261" s="92" t="s">
+      <c r="D261" s="93"/>
+      <c r="E261" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="F261" s="92"/>
-      <c r="G261" s="93"/>
+      <c r="F261" s="94"/>
+      <c r="G261" s="95"/>
       <c r="H261" s="35" t="s">
         <v>188</v>
       </c>
       <c r="I261" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J261" s="94"/>
-      <c r="K261" s="95"/>
+      <c r="J261" s="96"/>
+      <c r="K261" s="97"/>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" s="34"/>
-      <c r="C262" s="90" t="s">
+      <c r="C262" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="D262" s="91"/>
-      <c r="E262" s="92" t="s">
+      <c r="D262" s="93"/>
+      <c r="E262" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="F262" s="92"/>
-      <c r="G262" s="93"/>
+      <c r="F262" s="94"/>
+      <c r="G262" s="95"/>
       <c r="H262" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I262" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J262" s="94" t="s">
+      <c r="J262" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="K262" s="95"/>
+      <c r="K262" s="97"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" s="34"/>
-      <c r="C263" s="90" t="s">
+      <c r="C263" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="D263" s="91"/>
-      <c r="E263" s="92" t="s">
+      <c r="D263" s="93"/>
+      <c r="E263" s="94" t="s">
         <v>185</v>
       </c>
-      <c r="F263" s="92"/>
-      <c r="G263" s="93"/>
+      <c r="F263" s="94"/>
+      <c r="G263" s="95"/>
       <c r="H263" s="35" t="s">
         <v>187</v>
       </c>
       <c r="I263" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J263" s="94"/>
-      <c r="K263" s="95"/>
+      <c r="J263" s="96"/>
+      <c r="K263" s="97"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="34"/>
-      <c r="C264" s="90" t="s">
+      <c r="C264" s="92" t="s">
         <v>204</v>
       </c>
-      <c r="D264" s="91"/>
-      <c r="E264" s="92" t="s">
+      <c r="D264" s="93"/>
+      <c r="E264" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="F264" s="92"/>
-      <c r="G264" s="93"/>
+      <c r="F264" s="94"/>
+      <c r="G264" s="95"/>
       <c r="H264" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I264" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J264" s="94" t="s">
+      <c r="J264" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="K264" s="95"/>
+      <c r="K264" s="97"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="34"/>
-      <c r="C265" s="90" t="s">
+      <c r="C265" s="92" t="s">
         <v>200</v>
       </c>
-      <c r="D265" s="91"/>
-      <c r="E265" s="92" t="s">
+      <c r="D265" s="93"/>
+      <c r="E265" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="F265" s="92"/>
-      <c r="G265" s="93"/>
+      <c r="F265" s="94"/>
+      <c r="G265" s="95"/>
       <c r="H265" s="35" t="s">
         <v>202</v>
       </c>
       <c r="I265" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J265" s="94"/>
-      <c r="K265" s="95"/>
+      <c r="J265" s="96"/>
+      <c r="K265" s="97"/>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="37"/>
-      <c r="C266" s="64" t="s">
+      <c r="C266" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="D266" s="65"/>
-      <c r="E266" s="66" t="s">
+      <c r="D266" s="67"/>
+      <c r="E266" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="F266" s="66"/>
-      <c r="G266" s="67"/>
+      <c r="F266" s="68"/>
+      <c r="G266" s="69"/>
       <c r="H266" s="38" t="s">
         <v>232</v>
       </c>
       <c r="I266" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J266" s="68" t="s">
+      <c r="J266" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="K266" s="69"/>
+      <c r="K266" s="71"/>
     </row>
     <row r="267" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="70" t="s">
+      <c r="B267" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C267" s="71"/>
-      <c r="D267" s="71"/>
-      <c r="E267" s="71"/>
-      <c r="F267" s="71"/>
-      <c r="G267" s="71"/>
-      <c r="H267" s="71"/>
-      <c r="I267" s="71"/>
-      <c r="J267" s="71"/>
-      <c r="K267" s="72"/>
+      <c r="C267" s="73"/>
+      <c r="D267" s="73"/>
+      <c r="E267" s="73"/>
+      <c r="F267" s="73"/>
+      <c r="G267" s="73"/>
+      <c r="H267" s="73"/>
+      <c r="I267" s="73"/>
+      <c r="J267" s="73"/>
+      <c r="K267" s="74"/>
     </row>
     <row r="268" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C268" s="62" t="s">
+      <c r="C268" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D268" s="62"/>
-      <c r="E268" s="62"/>
+      <c r="D268" s="64"/>
+      <c r="E268" s="64"/>
       <c r="F268" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G268" s="62"/>
-      <c r="H268" s="62"/>
-      <c r="I268" s="62"/>
+      <c r="G268" s="64"/>
+      <c r="H268" s="64"/>
+      <c r="I268" s="64"/>
       <c r="J268" s="23"/>
       <c r="K268" s="24"/>
     </row>
@@ -7341,16 +7509,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFF0B08-A089-4295-A84F-AC3E6F929B03}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="11"/>
     <col min="4" max="4" width="11.42578125" style="13"/>
     <col min="5" max="5" width="11.42578125" style="17"/>
@@ -7361,17 +7529,17 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
       <c r="H1" s="58"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="14"/>
@@ -7380,269 +7548,1476 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="122" t="s">
+    <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="130" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="132"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="133" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="126"/>
-    </row>
-    <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="136" t="s">
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="136" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="138"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="142" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="143"/>
+      <c r="D10" s="140" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="143"/>
+      <c r="D11" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="140"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="93"/>
+      <c r="D12" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="143"/>
+      <c r="D13" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="143"/>
+      <c r="D14" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="143"/>
+      <c r="D16" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="124" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="138"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="127" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="132" t="s">
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="127" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="130" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="132"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="133" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="135"/>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="136" t="s">
+        <v>309</v>
+      </c>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="138"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="128" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="133" t="s">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="128" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="133" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="123" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="126"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="129"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="130" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="131"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="132"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="135"/>
+    </row>
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="136" t="s">
+        <v>312</v>
+      </c>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="138"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="123" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="93"/>
+      <c r="D36" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="126"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="129"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="132"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="133" t="s">
+        <v>264</v>
+      </c>
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="135"/>
+    </row>
+    <row r="43" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="136" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="137"/>
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="138"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="84"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="93"/>
+      <c r="D45" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="94"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="93"/>
+      <c r="D46" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="94"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="93"/>
+      <c r="D47" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="94"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="128" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="143"/>
+      <c r="D48" s="140" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="140"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="142" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="143"/>
+      <c r="D49" s="140" t="s">
+        <v>269</v>
+      </c>
+      <c r="E49" s="140"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="93"/>
+      <c r="D50" s="94" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="94"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="142" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="143"/>
+      <c r="D51" s="140" t="s">
+        <v>271</v>
+      </c>
+      <c r="E51" s="140"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="142" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="143"/>
+      <c r="D52" s="140" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="140"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="143"/>
+      <c r="D53" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="140"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="126"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="129"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="130" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="132"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="133" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="135"/>
+    </row>
+    <row r="60" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" s="137"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="138"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="83"/>
+      <c r="D61" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="84"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="94"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="93"/>
+      <c r="D63" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="94"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="143"/>
+      <c r="D64" s="140" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="140"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="142" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="143"/>
+      <c r="D65" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="E65" s="140"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="126"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="129"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="130" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="131"/>
+      <c r="D70" s="131"/>
+      <c r="E70" s="131"/>
+      <c r="F70" s="131"/>
+      <c r="G70" s="132"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="133" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="134"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="135"/>
+    </row>
+    <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="136" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="138"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="83"/>
+      <c r="D73" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="84"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="93"/>
+      <c r="D74" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="94"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="123" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="93"/>
+      <c r="D75" s="94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="94"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="93"/>
+      <c r="D76" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="94"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="143"/>
+      <c r="D77" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="94"/>
+      <c r="F77" s="95"/>
+      <c r="G77" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="143"/>
+      <c r="D78" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="140"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" s="93"/>
+      <c r="D79" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="133" t="s">
+      <c r="E79" s="140"/>
+      <c r="F79" s="141"/>
+      <c r="G79" s="60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="143"/>
+      <c r="D80" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="140"/>
+      <c r="F80" s="141"/>
+      <c r="G80" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="143"/>
+      <c r="D81" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="E81" s="140"/>
+      <c r="F81" s="141"/>
+      <c r="G81" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="126"/>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="127" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="128"/>
+      <c r="D83" s="128"/>
+      <c r="E83" s="128"/>
+      <c r="F83" s="128"/>
+      <c r="G83" s="129"/>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="130" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="132"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="133" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="135"/>
+    </row>
+    <row r="88" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="136" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="137"/>
+      <c r="F88" s="137"/>
+      <c r="G88" s="138"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="83"/>
+      <c r="D89" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="84"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="133" t="s">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="93"/>
+      <c r="D90" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="E90" s="94"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="93"/>
+      <c r="D91" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="94"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="93"/>
+      <c r="D92" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="E92" s="94"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="143"/>
+      <c r="D93" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="94"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="143"/>
+      <c r="D94" s="140" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="140"/>
+      <c r="F94" s="141"/>
+      <c r="G94" s="60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="93"/>
+      <c r="D95" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="140"/>
+      <c r="F95" s="141"/>
+      <c r="G95" s="60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C96" s="125"/>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="125"/>
+      <c r="G96" s="126"/>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="128"/>
+      <c r="D97" s="128"/>
+      <c r="E97" s="128"/>
+      <c r="F97" s="128"/>
+      <c r="G97" s="129"/>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="130" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" s="131"/>
+      <c r="D100" s="131"/>
+      <c r="E100" s="131"/>
+      <c r="F100" s="131"/>
+      <c r="G100" s="132"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="134"/>
+      <c r="D101" s="134"/>
+      <c r="E101" s="134"/>
+      <c r="F101" s="134"/>
+      <c r="G101" s="135"/>
+    </row>
+    <row r="102" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="136" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" s="137"/>
+      <c r="D102" s="137"/>
+      <c r="E102" s="137"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="138"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="139" t="s">
+        <v>287</v>
+      </c>
+      <c r="C103" s="83"/>
+      <c r="D103" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="84"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="93"/>
+      <c r="D104" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="E104" s="94"/>
+      <c r="F104" s="95"/>
+      <c r="G104" s="60" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="123" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="93"/>
+      <c r="D105" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="E105" s="94"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="93"/>
+      <c r="D106" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="140"/>
+      <c r="F106" s="141"/>
+      <c r="G106" s="60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="125"/>
+      <c r="G107" s="126"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C108" s="128"/>
+      <c r="D108" s="128"/>
+      <c r="E108" s="128"/>
+      <c r="F108" s="128"/>
+      <c r="G108" s="129"/>
+    </row>
+    <row r="109" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C111" s="131"/>
+      <c r="D111" s="131"/>
+      <c r="E111" s="131"/>
+      <c r="F111" s="131"/>
+      <c r="G111" s="132"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="C112" s="134"/>
+      <c r="D112" s="134"/>
+      <c r="E112" s="134"/>
+      <c r="F112" s="134"/>
+      <c r="G112" s="135"/>
+    </row>
+    <row r="113" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="136" t="s">
+        <v>317</v>
+      </c>
+      <c r="C113" s="137"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="137"/>
+      <c r="F113" s="137"/>
+      <c r="G113" s="138"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="139" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" s="83"/>
+      <c r="D114" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="E114" s="84"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="93"/>
+      <c r="D115" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="E115" s="94"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="60" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="126"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" s="128"/>
+      <c r="D117" s="128"/>
+      <c r="E117" s="128"/>
+      <c r="F117" s="128"/>
+      <c r="G117" s="129"/>
+    </row>
+    <row r="118" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="130" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" s="131"/>
+      <c r="D120" s="131"/>
+      <c r="E120" s="131"/>
+      <c r="F120" s="131"/>
+      <c r="G120" s="132"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="133" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" s="134"/>
+      <c r="D121" s="134"/>
+      <c r="E121" s="134"/>
+      <c r="F121" s="134"/>
+      <c r="G121" s="135"/>
+    </row>
+    <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="136" t="s">
+        <v>318</v>
+      </c>
+      <c r="C122" s="137"/>
+      <c r="D122" s="137"/>
+      <c r="E122" s="137"/>
+      <c r="F122" s="137"/>
+      <c r="G122" s="138"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="83"/>
+      <c r="D123" s="84" t="s">
+        <v>306</v>
+      </c>
+      <c r="E123" s="84"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="133" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="133" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="128" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="133" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="133" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="128" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="133" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="131"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="139"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="141"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="144"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" s="93"/>
+      <c r="D124" s="94" t="s">
+        <v>301</v>
+      </c>
+      <c r="E124" s="94"/>
+      <c r="F124" s="95"/>
+      <c r="G124" s="60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="125"/>
+      <c r="G125" s="126"/>
+    </row>
+    <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="127" t="s">
+        <v>308</v>
+      </c>
+      <c r="C126" s="128"/>
+      <c r="D126" s="128"/>
+      <c r="E126" s="128"/>
+      <c r="F126" s="128"/>
+      <c r="G126" s="129"/>
+    </row>
+    <row r="127" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="163">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:F123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/mammoth-description.xlsx
+++ b/mammoth-description.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B0A0CD-6D90-4253-B118-966B363BEA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04E463-F6E3-4421-A63B-B4F6A4611D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
     <sheet name="views" sheetId="2" r:id="rId2"/>
+    <sheet name="functions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">tables!$A$1:$M$268</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="338">
   <si>
     <t>Descripción de tablas</t>
   </si>
@@ -738,9 +739,6 @@
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>stock de los productos</t>
-  </si>
-  <si>
     <t>VARCHAR(40)</t>
   </si>
   <si>
@@ -994,6 +992,66 @@
   </si>
   <si>
     <t>Objetivo: Presentar un informa con los totales de venta históricos agrupados según las categorías de los productos</t>
+  </si>
+  <si>
+    <t>Descripción de funciones</t>
+  </si>
+  <si>
+    <t>Objetivo: obtener el subtotal de un ítem determinado del detalle de un pedido, en base a su precio unitario, % de descuento y cantidad comprada</t>
+  </si>
+  <si>
+    <t>p_price</t>
+  </si>
+  <si>
+    <t>p_discount</t>
+  </si>
+  <si>
+    <t>p_quantity</t>
+  </si>
+  <si>
+    <t>Retorna</t>
+  </si>
+  <si>
+    <t>precio del producto</t>
+  </si>
+  <si>
+    <t>cantidad comprada</t>
+  </si>
+  <si>
+    <t>NO SQL</t>
+  </si>
+  <si>
+    <t>Objetivo: obtener el importe total de un determinado pedido a partir de su detalle de compra</t>
+  </si>
+  <si>
+    <t>p_id_order</t>
+  </si>
+  <si>
+    <t>Tablas que intervienen</t>
+  </si>
+  <si>
+    <t>get_subtotal (p_price, p_discount, p_quantity)</t>
+  </si>
+  <si>
+    <t>get_order_amount (p_id_order)</t>
+  </si>
+  <si>
+    <t>next_invoice_n (p_type)</t>
+  </si>
+  <si>
+    <t>Objetivo: obtener el string representativo del tipo y número de factura siguiente a emitir en base al tipo de factura que elegido</t>
+  </si>
+  <si>
+    <t>p_type</t>
+  </si>
+  <si>
+    <t>tipo de factura a emitir</t>
+  </si>
+  <si>
+    <t>ENUM("A","B")</t>
+  </si>
+  <si>
+    <t>Stock de los productos</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -2064,11 +2122,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2210,6 +2372,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2384,6 +2554,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2703,8 +2899,8 @@
   </sheetPr>
   <dimension ref="A1:Q269"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="O179" sqref="O179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,18 +2920,18 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="47"/>
       <c r="M1" s="57"/>
     </row>
@@ -2793,56 +2989,56 @@
       <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84" t="s">
+      <c r="D8" s="87"/>
+      <c r="E8" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="87"/>
+      <c r="K8" s="91"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2852,23 +3048,23 @@
       <c r="B9" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94" t="s">
+      <c r="D9" s="97"/>
+      <c r="E9" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99"/>
       <c r="H9" s="35" t="s">
         <v>63</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -2876,105 +3072,105 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="97"/>
+      <c r="E10" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94" t="s">
+      <c r="D11" s="97"/>
+      <c r="E11" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="96"/>
-      <c r="K11" s="97"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="96" t="s">
+      <c r="J12" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="97"/>
+      <c r="K12" s="101"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="97"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="97"/>
+      <c r="E14" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="36"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="97"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101"/>
       <c r="M14" s="46"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -2983,46 +3179,46 @@
       <c r="B15" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94" t="s">
+      <c r="D15" s="97"/>
+      <c r="E15" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="96"/>
-      <c r="K15" s="97"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94" t="s">
+      <c r="D16" s="97"/>
+      <c r="E16" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
       <c r="H16" s="35" t="s">
         <v>216</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="96"/>
-      <c r="K16" s="97"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="101"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -3031,105 +3227,105 @@
       <c r="B17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="96" t="s">
+      <c r="J17" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="97"/>
+      <c r="K17" s="101"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="70" t="s">
+      <c r="J19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="71"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="88" t="s">
+      <c r="G21" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
       <c r="J21" s="8"/>
       <c r="K21" s="20"/>
     </row>
@@ -3137,19 +3333,19 @@
       <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
       <c r="J22" s="23"/>
       <c r="K22" s="24"/>
     </row>
@@ -3159,108 +3355,108 @@
       <c r="A25" s="48">
         <v>2</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="82"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84" t="s">
+      <c r="D27" s="87"/>
+      <c r="E27" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
       <c r="H27" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="86" t="s">
+      <c r="J27" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="K27" s="87"/>
+      <c r="K27" s="91"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="70" t="s">
+      <c r="J28" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="71"/>
+      <c r="K28" s="75"/>
     </row>
     <row r="29" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="89" t="s">
+      <c r="B29" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="8"/>
       <c r="K30" s="20"/>
     </row>
@@ -3268,19 +3464,19 @@
       <c r="B31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
       <c r="F31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="65" t="s">
+      <c r="G31" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
       <c r="J31" s="9"/>
       <c r="K31" s="27"/>
     </row>
@@ -3288,19 +3484,19 @@
       <c r="B32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="64" t="s">
+      <c r="G32" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
       <c r="J32" s="23"/>
       <c r="K32" s="24"/>
     </row>
@@ -3310,108 +3506,108 @@
       <c r="A35" s="48">
         <v>3</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="78"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="82"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="81"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="85"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84" t="s">
+      <c r="D37" s="87"/>
+      <c r="E37" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="89"/>
       <c r="H37" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="86" t="s">
+      <c r="J37" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K37" s="87"/>
+      <c r="K37" s="91"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="93"/>
-      <c r="E38" s="94" t="s">
+      <c r="D38" s="97"/>
+      <c r="E38" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="95"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="99"/>
       <c r="H38" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="96"/>
-      <c r="K38" s="97"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="101"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="68" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="69"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="38" t="s">
         <v>50</v>
       </c>
       <c r="I39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="70"/>
-      <c r="K39" s="71"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
     </row>
     <row r="40" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="102"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="106"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3419,108 +3615,108 @@
       <c r="A43" s="48">
         <v>4</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="82"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="81"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="85"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="84" t="s">
+      <c r="D45" s="87"/>
+      <c r="E45" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="85"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="89"/>
       <c r="H45" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I45" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="86" t="s">
+      <c r="J45" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="K45" s="87"/>
+      <c r="K45" s="91"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="68" t="s">
+      <c r="D46" s="71"/>
+      <c r="E46" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="70" t="s">
+      <c r="J46" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="K46" s="71"/>
+      <c r="K46" s="75"/>
     </row>
     <row r="47" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="91"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="95"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="88" t="s">
+      <c r="C48" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
       <c r="J48" s="8"/>
       <c r="K48" s="20"/>
     </row>
@@ -3528,19 +3724,19 @@
       <c r="B49" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
       <c r="F49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
       <c r="J49" s="9"/>
       <c r="K49" s="27"/>
     </row>
@@ -3548,19 +3744,19 @@
       <c r="B50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="G50" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
       <c r="J50" s="23"/>
       <c r="K50" s="24"/>
     </row>
@@ -3570,88 +3766,88 @@
       <c r="A53" s="55">
         <v>5</v>
       </c>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="78"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="82"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="81"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="85"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="83"/>
-      <c r="E55" s="84" t="s">
+      <c r="D55" s="87"/>
+      <c r="E55" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="89"/>
       <c r="H55" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="86" t="s">
+      <c r="J55" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K55" s="87"/>
+      <c r="K55" s="91"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="37"/>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="68" t="s">
+      <c r="D56" s="71"/>
+      <c r="E56" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="38" t="s">
         <v>25</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="70"/>
-      <c r="K56" s="71"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="75"/>
     </row>
     <row r="57" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="100"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="102"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="106"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3659,154 +3855,154 @@
       <c r="A60" s="55">
         <v>6</v>
       </c>
-      <c r="B60" s="75" t="s">
+      <c r="B60" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="78"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="80"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="82"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="81"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="84"/>
+      <c r="I61" s="84"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="85"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="83"/>
-      <c r="E62" s="84" t="s">
+      <c r="D62" s="87"/>
+      <c r="E62" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="84"/>
-      <c r="G62" s="85"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="89"/>
       <c r="H62" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="86" t="s">
+      <c r="J62" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K62" s="87"/>
+      <c r="K62" s="91"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
-      <c r="C63" s="92" t="s">
+      <c r="C63" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="93"/>
-      <c r="E63" s="94" t="s">
+      <c r="D63" s="97"/>
+      <c r="E63" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="94"/>
-      <c r="G63" s="95"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="99"/>
       <c r="H63" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="96"/>
-      <c r="K63" s="97"/>
+      <c r="J63" s="100"/>
+      <c r="K63" s="101"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="92" t="s">
+      <c r="C64" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="93"/>
-      <c r="E64" s="94" t="s">
+      <c r="D64" s="97"/>
+      <c r="E64" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="94"/>
-      <c r="G64" s="95"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="99"/>
       <c r="H64" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J64" s="96" t="s">
+      <c r="J64" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K64" s="97"/>
+      <c r="K64" s="101"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" s="37"/>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68" t="s">
+      <c r="D65" s="71"/>
+      <c r="E65" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="73"/>
       <c r="H65" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I65" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J65" s="70" t="s">
+      <c r="J65" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="K65" s="71"/>
+      <c r="K65" s="75"/>
     </row>
     <row r="66" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="74"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="78"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="64" t="s">
+      <c r="G67" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="H67" s="64"/>
-      <c r="I67" s="64"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
       <c r="J67" s="23"/>
       <c r="K67" s="24"/>
     </row>
@@ -3816,132 +4012,132 @@
       <c r="A70" s="55">
         <v>7</v>
       </c>
-      <c r="B70" s="75" t="s">
+      <c r="B70" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
-      <c r="I70" s="76"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="78"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="82"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="81"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="84"/>
+      <c r="G71" s="84"/>
+      <c r="H71" s="84"/>
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="85"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="82" t="s">
+      <c r="C72" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="83"/>
-      <c r="E72" s="84" t="s">
+      <c r="D72" s="87"/>
+      <c r="E72" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="84"/>
-      <c r="G72" s="85"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="89"/>
       <c r="H72" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I72" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="86" t="s">
+      <c r="J72" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K72" s="87"/>
+      <c r="K72" s="91"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="34"/>
-      <c r="C73" s="92" t="s">
+      <c r="C73" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="93"/>
-      <c r="E73" s="94" t="s">
+      <c r="D73" s="97"/>
+      <c r="E73" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="95"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="99"/>
       <c r="H73" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I73" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="96"/>
-      <c r="K73" s="97"/>
+      <c r="J73" s="100"/>
+      <c r="K73" s="101"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="66" t="s">
+      <c r="C74" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="67"/>
-      <c r="E74" s="68" t="s">
+      <c r="D74" s="71"/>
+      <c r="E74" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="68"/>
-      <c r="G74" s="69"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="73"/>
       <c r="H74" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I74" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="70" t="s">
+      <c r="J74" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="K74" s="71"/>
+      <c r="K74" s="75"/>
     </row>
     <row r="75" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="73"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="74"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="78"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="64" t="s">
+      <c r="G76" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
       <c r="J76" s="23"/>
       <c r="K76" s="24"/>
     </row>
@@ -3951,152 +4147,152 @@
       <c r="A79" s="55">
         <v>8</v>
       </c>
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="78"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
+      <c r="I79" s="80"/>
+      <c r="J79" s="81"/>
+      <c r="K79" s="82"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="80"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="80"/>
-      <c r="F80" s="80"/>
-      <c r="G80" s="80"/>
-      <c r="H80" s="80"/>
-      <c r="I80" s="80"/>
-      <c r="J80" s="80"/>
-      <c r="K80" s="81"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="85"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="82" t="s">
+      <c r="C81" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="83"/>
-      <c r="E81" s="84" t="s">
+      <c r="D81" s="87"/>
+      <c r="E81" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="84"/>
-      <c r="G81" s="85"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="89"/>
       <c r="H81" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I81" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="86" t="s">
+      <c r="J81" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K81" s="87"/>
+      <c r="K81" s="91"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="D82" s="93"/>
-      <c r="E82" s="94" t="s">
+      <c r="C82" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="F82" s="94"/>
-      <c r="G82" s="95"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" s="98"/>
+      <c r="G82" s="99"/>
       <c r="H82" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I82" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J82" s="96"/>
-      <c r="K82" s="97"/>
+      <c r="J82" s="100"/>
+      <c r="K82" s="101"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" s="34"/>
-      <c r="C83" s="92" t="s">
+      <c r="C83" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="93"/>
-      <c r="E83" s="94" t="s">
+      <c r="D83" s="97"/>
+      <c r="E83" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="94"/>
-      <c r="G83" s="95"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="99"/>
       <c r="H83" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I83" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="96"/>
-      <c r="K83" s="97"/>
+      <c r="J83" s="100"/>
+      <c r="K83" s="101"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="103" t="s">
+      <c r="C84" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="104"/>
-      <c r="E84" s="105" t="s">
+      <c r="D84" s="108"/>
+      <c r="E84" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="105"/>
-      <c r="G84" s="106"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="110"/>
       <c r="H84" s="41" t="s">
         <v>1</v>
       </c>
       <c r="I84" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J84" s="107" t="s">
+      <c r="J84" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K84" s="108"/>
+      <c r="K84" s="112"/>
     </row>
     <row r="85" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="63"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="67"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C86" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
+      <c r="C86" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
       <c r="F86" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
+      <c r="G86" s="69"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
       <c r="J86" s="8"/>
       <c r="K86" s="20"/>
     </row>
@@ -4104,19 +4300,19 @@
       <c r="B87" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="64" t="s">
+      <c r="C87" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
       <c r="F87" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G87" s="64" t="s">
+      <c r="G87" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
       <c r="J87" s="23"/>
       <c r="K87" s="24"/>
     </row>
@@ -4126,128 +4322,128 @@
       <c r="A90" s="55">
         <v>9</v>
       </c>
-      <c r="B90" s="75" t="s">
+      <c r="B90" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="78"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="80"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="81"/>
+      <c r="K90" s="82"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="79" t="s">
+      <c r="B91" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="80"/>
-      <c r="H91" s="80"/>
-      <c r="I91" s="80"/>
-      <c r="J91" s="80"/>
-      <c r="K91" s="81"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="84"/>
+      <c r="F91" s="84"/>
+      <c r="G91" s="84"/>
+      <c r="H91" s="84"/>
+      <c r="I91" s="84"/>
+      <c r="J91" s="84"/>
+      <c r="K91" s="85"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="82" t="s">
+      <c r="C92" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="83"/>
-      <c r="E92" s="84" t="s">
+      <c r="D92" s="87"/>
+      <c r="E92" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="84"/>
-      <c r="G92" s="85"/>
+      <c r="F92" s="88"/>
+      <c r="G92" s="89"/>
       <c r="H92" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J92" s="86" t="s">
+      <c r="J92" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K92" s="87"/>
+      <c r="K92" s="91"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="D93" s="93"/>
-      <c r="E93" s="94" t="s">
+      <c r="C93" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="97"/>
+      <c r="E93" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" s="98"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F93" s="94"/>
-      <c r="G93" s="95"/>
-      <c r="H93" s="35" t="s">
-        <v>240</v>
-      </c>
       <c r="I93" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="96"/>
-      <c r="K93" s="97"/>
+      <c r="J93" s="100"/>
+      <c r="K93" s="101"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="37"/>
-      <c r="C94" s="66" t="s">
+      <c r="C94" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="67"/>
-      <c r="E94" s="68" t="s">
+      <c r="D94" s="71"/>
+      <c r="E94" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F94" s="68"/>
-      <c r="G94" s="69"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="38" t="s">
         <v>24</v>
       </c>
       <c r="I94" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="70"/>
-      <c r="K94" s="71"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="75"/>
     </row>
     <row r="95" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="61" t="s">
+      <c r="B95" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="62"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="62"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="63"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="67"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C96" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
+      <c r="C96" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="68"/>
+      <c r="E96" s="68"/>
       <c r="F96" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
+      <c r="G96" s="68"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
       <c r="J96" s="23"/>
       <c r="K96" s="24"/>
     </row>
@@ -4257,134 +4453,134 @@
       <c r="A99" s="48">
         <v>10</v>
       </c>
-      <c r="B99" s="75" t="s">
+      <c r="B99" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="76"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="77"/>
-      <c r="K99" s="78"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="H99" s="80"/>
+      <c r="I99" s="80"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="82"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="79" t="s">
+      <c r="B100" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="80"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="80"/>
-      <c r="H100" s="80"/>
-      <c r="I100" s="80"/>
-      <c r="J100" s="80"/>
-      <c r="K100" s="81"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84"/>
+      <c r="J100" s="84"/>
+      <c r="K100" s="85"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="82" t="s">
+      <c r="C101" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="83"/>
-      <c r="E101" s="84" t="s">
+      <c r="D101" s="87"/>
+      <c r="E101" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="84"/>
-      <c r="G101" s="85"/>
+      <c r="F101" s="88"/>
+      <c r="G101" s="89"/>
       <c r="H101" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I101" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="86" t="s">
+      <c r="J101" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K101" s="87"/>
+      <c r="K101" s="91"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="92" t="s">
+      <c r="C102" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="93"/>
-      <c r="E102" s="94" t="s">
+      <c r="D102" s="97"/>
+      <c r="E102" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="94"/>
-      <c r="G102" s="95"/>
+      <c r="F102" s="98"/>
+      <c r="G102" s="99"/>
       <c r="H102" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I102" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="96" t="s">
+      <c r="J102" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K102" s="97"/>
+      <c r="K102" s="101"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" s="37"/>
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="67"/>
-      <c r="E103" s="68" t="s">
+      <c r="D103" s="71"/>
+      <c r="E103" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F103" s="68"/>
-      <c r="G103" s="69"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="73"/>
       <c r="H103" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I103" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="70" t="s">
+      <c r="J103" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="K103" s="71"/>
+      <c r="K103" s="75"/>
     </row>
     <row r="104" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="72" t="s">
+      <c r="B104" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="73"/>
-      <c r="D104" s="73"/>
-      <c r="E104" s="73"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="73"/>
-      <c r="K104" s="74"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="78"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="64" t="s">
+      <c r="C105" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
       <c r="F105" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="64" t="s">
+      <c r="G105" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="68"/>
       <c r="J105" s="23"/>
       <c r="K105" s="24"/>
     </row>
@@ -4393,130 +4589,130 @@
       <c r="A108" s="48">
         <v>11</v>
       </c>
-      <c r="B108" s="75" t="s">
+      <c r="B108" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="77"/>
-      <c r="K108" s="78"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="80"/>
+      <c r="H108" s="80"/>
+      <c r="I108" s="80"/>
+      <c r="J108" s="81"/>
+      <c r="K108" s="82"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="79" t="s">
+      <c r="B109" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="C109" s="80"/>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
-      <c r="F109" s="80"/>
-      <c r="G109" s="80"/>
-      <c r="H109" s="80"/>
-      <c r="I109" s="80"/>
-      <c r="J109" s="80"/>
-      <c r="K109" s="81"/>
+      <c r="C109" s="84"/>
+      <c r="D109" s="84"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
+      <c r="G109" s="84"/>
+      <c r="H109" s="84"/>
+      <c r="I109" s="84"/>
+      <c r="J109" s="84"/>
+      <c r="K109" s="85"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="82" t="s">
+      <c r="C110" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D110" s="83"/>
-      <c r="E110" s="84" t="s">
+      <c r="D110" s="87"/>
+      <c r="E110" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="F110" s="84"/>
-      <c r="G110" s="85"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="89"/>
       <c r="H110" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I110" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J110" s="109" t="s">
+      <c r="J110" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="K110" s="110"/>
+      <c r="K110" s="114"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="92" t="s">
+      <c r="C111" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="93"/>
-      <c r="E111" s="94" t="s">
+      <c r="D111" s="97"/>
+      <c r="E111" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="94"/>
-      <c r="G111" s="95"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="99"/>
       <c r="H111" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I111" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J111" s="111" t="s">
+      <c r="J111" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="K111" s="112"/>
+      <c r="K111" s="116"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" s="37"/>
-      <c r="C112" s="66" t="s">
+      <c r="C112" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="67"/>
-      <c r="E112" s="68" t="s">
+      <c r="D112" s="71"/>
+      <c r="E112" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="F112" s="68"/>
-      <c r="G112" s="69"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="73"/>
       <c r="H112" s="38" t="s">
         <v>127</v>
       </c>
       <c r="I112" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J112" s="113" t="s">
+      <c r="J112" s="117" t="s">
         <v>195</v>
       </c>
-      <c r="K112" s="114"/>
+      <c r="K112" s="118"/>
     </row>
     <row r="113" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="72" t="s">
+      <c r="B113" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="F113" s="73"/>
-      <c r="G113" s="73"/>
-      <c r="H113" s="73"/>
-      <c r="I113" s="73"/>
-      <c r="J113" s="73"/>
-      <c r="K113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="78"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B114" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="88" t="s">
+      <c r="C114" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="88"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="88"/>
+      <c r="G114" s="92"/>
+      <c r="H114" s="92"/>
+      <c r="I114" s="92"/>
       <c r="J114" s="8"/>
       <c r="K114" s="20"/>
     </row>
@@ -4524,19 +4720,19 @@
       <c r="B115" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="65" t="s">
+      <c r="C115" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
+      <c r="D115" s="69"/>
+      <c r="E115" s="69"/>
       <c r="F115" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G115" s="65" t="s">
+      <c r="G115" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
+      <c r="H115" s="69"/>
+      <c r="I115" s="69"/>
       <c r="J115" s="10" t="s">
         <v>215</v>
       </c>
@@ -4548,19 +4744,19 @@
       <c r="B116" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C116" s="64" t="s">
+      <c r="C116" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
       <c r="F116" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G116" s="64" t="s">
+      <c r="G116" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="H116" s="64"/>
-      <c r="I116" s="64"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="68"/>
       <c r="J116" s="23"/>
       <c r="K116" s="24"/>
     </row>
@@ -4570,344 +4766,344 @@
       <c r="A119" s="55">
         <v>12</v>
       </c>
-      <c r="B119" s="75" t="s">
+      <c r="B119" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="77"/>
-      <c r="K119" s="78"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="80"/>
+      <c r="G119" s="80"/>
+      <c r="H119" s="80"/>
+      <c r="I119" s="80"/>
+      <c r="J119" s="81"/>
+      <c r="K119" s="82"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="79" t="s">
+      <c r="B120" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="80"/>
-      <c r="D120" s="80"/>
-      <c r="E120" s="80"/>
-      <c r="F120" s="80"/>
-      <c r="G120" s="80"/>
-      <c r="H120" s="80"/>
-      <c r="I120" s="80"/>
-      <c r="J120" s="80"/>
-      <c r="K120" s="81"/>
+      <c r="C120" s="84"/>
+      <c r="D120" s="84"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="84"/>
+      <c r="G120" s="84"/>
+      <c r="H120" s="84"/>
+      <c r="I120" s="84"/>
+      <c r="J120" s="84"/>
+      <c r="K120" s="85"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B121" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="82" t="s">
+      <c r="C121" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="83"/>
-      <c r="E121" s="84" t="s">
+      <c r="D121" s="87"/>
+      <c r="E121" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="84"/>
-      <c r="G121" s="85"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="89"/>
       <c r="H121" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I121" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J121" s="86" t="s">
+      <c r="J121" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K121" s="87"/>
+      <c r="K121" s="91"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B122" s="34"/>
-      <c r="C122" s="92" t="s">
+      <c r="C122" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D122" s="93"/>
-      <c r="E122" s="94" t="s">
+      <c r="D122" s="97"/>
+      <c r="E122" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="94"/>
-      <c r="G122" s="95"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="99"/>
       <c r="H122" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I122" s="36"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="97"/>
+      <c r="J122" s="100"/>
+      <c r="K122" s="101"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B123" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C123" s="92" t="s">
+      <c r="C123" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D123" s="93"/>
-      <c r="E123" s="94" t="s">
+      <c r="D123" s="97"/>
+      <c r="E123" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="F123" s="94"/>
-      <c r="G123" s="95"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="99"/>
       <c r="H123" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I123" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J123" s="96"/>
-      <c r="K123" s="97"/>
+      <c r="J123" s="100"/>
+      <c r="K123" s="101"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B124" s="34"/>
-      <c r="C124" s="92" t="s">
+      <c r="C124" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="93"/>
-      <c r="E124" s="94" t="s">
+      <c r="D124" s="97"/>
+      <c r="E124" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="F124" s="94"/>
-      <c r="G124" s="95"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="99"/>
       <c r="H124" s="35" t="s">
         <v>124</v>
       </c>
       <c r="I124" s="36"/>
-      <c r="J124" s="96"/>
-      <c r="K124" s="97"/>
+      <c r="J124" s="100"/>
+      <c r="K124" s="101"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="92" t="s">
+      <c r="C125" s="96" t="s">
         <v>218</v>
       </c>
-      <c r="D125" s="93"/>
-      <c r="E125" s="94" t="s">
+      <c r="D125" s="97"/>
+      <c r="E125" s="98" t="s">
         <v>219</v>
       </c>
-      <c r="F125" s="94"/>
-      <c r="G125" s="95"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="99"/>
       <c r="H125" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I125" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J125" s="96" t="s">
+      <c r="J125" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K125" s="97"/>
+      <c r="K125" s="101"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="92" t="s">
+      <c r="C126" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="93"/>
-      <c r="E126" s="94" t="s">
+      <c r="D126" s="97"/>
+      <c r="E126" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F126" s="94"/>
-      <c r="G126" s="95"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="99"/>
       <c r="H126" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I126" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J126" s="96" t="s">
+      <c r="J126" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K126" s="97"/>
+      <c r="K126" s="101"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="92" t="s">
+      <c r="C127" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="D127" s="93"/>
-      <c r="E127" s="94" t="s">
+      <c r="D127" s="97"/>
+      <c r="E127" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F127" s="94"/>
-      <c r="G127" s="95"/>
+      <c r="F127" s="98"/>
+      <c r="G127" s="99"/>
       <c r="H127" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I127" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J127" s="96" t="s">
+      <c r="J127" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K127" s="97"/>
+      <c r="K127" s="101"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="92" t="s">
+      <c r="C128" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="93"/>
-      <c r="E128" s="94" t="s">
+      <c r="D128" s="97"/>
+      <c r="E128" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="F128" s="94"/>
-      <c r="G128" s="95"/>
+      <c r="F128" s="98"/>
+      <c r="G128" s="99"/>
       <c r="H128" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I128" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J128" s="96" t="s">
+      <c r="J128" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K128" s="97"/>
+      <c r="K128" s="101"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
-      <c r="C129" s="92" t="s">
+      <c r="C129" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="D129" s="93"/>
-      <c r="E129" s="94" t="s">
+      <c r="D129" s="97"/>
+      <c r="E129" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F129" s="94"/>
-      <c r="G129" s="95"/>
+      <c r="F129" s="98"/>
+      <c r="G129" s="99"/>
       <c r="H129" s="35" t="s">
         <v>224</v>
       </c>
       <c r="I129" s="36"/>
-      <c r="J129" s="96"/>
-      <c r="K129" s="97"/>
+      <c r="J129" s="100"/>
+      <c r="K129" s="101"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
-      <c r="C130" s="92" t="s">
+      <c r="C130" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="D130" s="93"/>
-      <c r="E130" s="94" t="s">
+      <c r="D130" s="97"/>
+      <c r="E130" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="F130" s="94"/>
-      <c r="G130" s="95"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="99"/>
       <c r="H130" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I130" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J130" s="96"/>
-      <c r="K130" s="97"/>
+      <c r="J130" s="100"/>
+      <c r="K130" s="101"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
-      <c r="C131" s="92" t="s">
+      <c r="C131" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="D131" s="93"/>
-      <c r="E131" s="94" t="s">
+      <c r="D131" s="97"/>
+      <c r="E131" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F131" s="94"/>
-      <c r="G131" s="95"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="99"/>
       <c r="H131" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I131" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J131" s="96" t="s">
+      <c r="J131" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="K131" s="97"/>
+      <c r="K131" s="101"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B132" s="34"/>
-      <c r="C132" s="92" t="s">
+      <c r="C132" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="93"/>
-      <c r="E132" s="94" t="s">
+      <c r="D132" s="97"/>
+      <c r="E132" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="94"/>
-      <c r="G132" s="95"/>
+      <c r="F132" s="98"/>
+      <c r="G132" s="99"/>
       <c r="H132" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I132" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J132" s="96" t="s">
+      <c r="J132" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="K132" s="97"/>
+      <c r="K132" s="101"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B133" s="37"/>
-      <c r="C133" s="66" t="s">
+      <c r="C133" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D133" s="67"/>
-      <c r="E133" s="68" t="s">
+      <c r="D133" s="71"/>
+      <c r="E133" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F133" s="68"/>
-      <c r="G133" s="69"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="73"/>
       <c r="H133" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I133" s="39"/>
-      <c r="J133" s="115" t="s">
+      <c r="J133" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="K133" s="116"/>
+      <c r="K133" s="120"/>
     </row>
     <row r="134" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="72" t="s">
+      <c r="B134" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C134" s="73"/>
-      <c r="D134" s="73"/>
-      <c r="E134" s="73"/>
-      <c r="F134" s="73"/>
-      <c r="G134" s="73"/>
-      <c r="H134" s="73"/>
-      <c r="I134" s="73"/>
-      <c r="J134" s="73"/>
-      <c r="K134" s="74"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="77"/>
+      <c r="G134" s="77"/>
+      <c r="H134" s="77"/>
+      <c r="I134" s="77"/>
+      <c r="J134" s="77"/>
+      <c r="K134" s="78"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B135" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C135" s="65" t="s">
+      <c r="C135" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="D135" s="65"/>
-      <c r="E135" s="65"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
       <c r="F135" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G135" s="65" t="s">
+      <c r="G135" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="H135" s="65"/>
-      <c r="I135" s="65"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="69"/>
       <c r="J135" s="9"/>
       <c r="K135" s="27"/>
     </row>
@@ -4915,19 +5111,19 @@
       <c r="B136" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="65" t="s">
+      <c r="C136" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="D136" s="65"/>
-      <c r="E136" s="65"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="69"/>
       <c r="F136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G136" s="65" t="s">
+      <c r="G136" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H136" s="65"/>
-      <c r="I136" s="65"/>
+      <c r="H136" s="69"/>
+      <c r="I136" s="69"/>
       <c r="J136" s="9"/>
       <c r="K136" s="27"/>
     </row>
@@ -4935,19 +5131,19 @@
       <c r="B137" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="65" t="s">
+      <c r="C137" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="D137" s="65"/>
-      <c r="E137" s="65"/>
+      <c r="D137" s="69"/>
+      <c r="E137" s="69"/>
       <c r="F137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G137" s="65" t="s">
+      <c r="G137" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="H137" s="65"/>
-      <c r="I137" s="65"/>
+      <c r="H137" s="69"/>
+      <c r="I137" s="69"/>
       <c r="J137" s="9"/>
       <c r="K137" s="27"/>
     </row>
@@ -4955,19 +5151,19 @@
       <c r="B138" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="64" t="s">
+      <c r="C138" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="D138" s="64"/>
-      <c r="E138" s="64"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="68"/>
       <c r="F138" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G138" s="64" t="s">
+      <c r="G138" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="H138" s="64"/>
-      <c r="I138" s="64"/>
+      <c r="H138" s="68"/>
+      <c r="I138" s="68"/>
       <c r="J138" s="23"/>
       <c r="K138" s="24"/>
     </row>
@@ -4977,108 +5173,108 @@
       <c r="A141" s="48">
         <v>13</v>
       </c>
-      <c r="B141" s="75" t="s">
+      <c r="B141" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C141" s="76"/>
-      <c r="D141" s="76"/>
-      <c r="E141" s="76"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="76"/>
-      <c r="H141" s="76"/>
-      <c r="I141" s="76"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="78"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="80"/>
+      <c r="I141" s="80"/>
+      <c r="J141" s="81"/>
+      <c r="K141" s="82"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="79" t="s">
+      <c r="B142" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="C142" s="80"/>
-      <c r="D142" s="80"/>
-      <c r="E142" s="80"/>
-      <c r="F142" s="80"/>
-      <c r="G142" s="80"/>
-      <c r="H142" s="80"/>
-      <c r="I142" s="80"/>
-      <c r="J142" s="80"/>
-      <c r="K142" s="81"/>
+      <c r="C142" s="84"/>
+      <c r="D142" s="84"/>
+      <c r="E142" s="84"/>
+      <c r="F142" s="84"/>
+      <c r="G142" s="84"/>
+      <c r="H142" s="84"/>
+      <c r="I142" s="84"/>
+      <c r="J142" s="84"/>
+      <c r="K142" s="85"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="82" t="s">
+      <c r="C143" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D143" s="83"/>
-      <c r="E143" s="84" t="s">
+      <c r="D143" s="87"/>
+      <c r="E143" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="F143" s="84"/>
-      <c r="G143" s="85"/>
+      <c r="F143" s="88"/>
+      <c r="G143" s="89"/>
       <c r="H143" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I143" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J143" s="86" t="s">
+      <c r="J143" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K143" s="87"/>
+      <c r="K143" s="91"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="34"/>
-      <c r="C144" s="92" t="s">
+      <c r="C144" s="96" t="s">
         <v>128</v>
       </c>
-      <c r="D144" s="93"/>
-      <c r="E144" s="94" t="s">
+      <c r="D144" s="97"/>
+      <c r="E144" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="94"/>
-      <c r="G144" s="95"/>
+      <c r="F144" s="98"/>
+      <c r="G144" s="99"/>
       <c r="H144" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I144" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J144" s="96"/>
-      <c r="K144" s="97"/>
+      <c r="J144" s="100"/>
+      <c r="K144" s="101"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" s="37"/>
-      <c r="C145" s="66" t="s">
+      <c r="C145" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="67"/>
-      <c r="E145" s="68" t="s">
+      <c r="D145" s="71"/>
+      <c r="E145" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F145" s="68"/>
-      <c r="G145" s="69"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="73"/>
       <c r="H145" s="38" t="s">
         <v>50</v>
       </c>
       <c r="I145" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J145" s="70"/>
-      <c r="K145" s="71"/>
+      <c r="J145" s="74"/>
+      <c r="K145" s="75"/>
     </row>
     <row r="146" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="100"/>
-      <c r="C146" s="101"/>
-      <c r="D146" s="101"/>
-      <c r="E146" s="101"/>
-      <c r="F146" s="101"/>
-      <c r="G146" s="101"/>
-      <c r="H146" s="101"/>
-      <c r="I146" s="101"/>
-      <c r="J146" s="101"/>
-      <c r="K146" s="102"/>
+      <c r="B146" s="104"/>
+      <c r="C146" s="105"/>
+      <c r="D146" s="105"/>
+      <c r="E146" s="105"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="105"/>
+      <c r="I146" s="105"/>
+      <c r="J146" s="105"/>
+      <c r="K146" s="106"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5086,88 +5282,88 @@
       <c r="A149" s="48">
         <v>14</v>
       </c>
-      <c r="B149" s="75" t="s">
+      <c r="B149" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="C149" s="76"/>
-      <c r="D149" s="76"/>
-      <c r="E149" s="76"/>
-      <c r="F149" s="76"/>
-      <c r="G149" s="76"/>
-      <c r="H149" s="76"/>
-      <c r="I149" s="76"/>
-      <c r="J149" s="77"/>
-      <c r="K149" s="78"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="80"/>
+      <c r="F149" s="80"/>
+      <c r="G149" s="80"/>
+      <c r="H149" s="80"/>
+      <c r="I149" s="80"/>
+      <c r="J149" s="81"/>
+      <c r="K149" s="82"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="79" t="s">
+      <c r="B150" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="C150" s="80"/>
-      <c r="D150" s="80"/>
-      <c r="E150" s="80"/>
-      <c r="F150" s="80"/>
-      <c r="G150" s="80"/>
-      <c r="H150" s="80"/>
-      <c r="I150" s="80"/>
-      <c r="J150" s="80"/>
-      <c r="K150" s="81"/>
+      <c r="C150" s="84"/>
+      <c r="D150" s="84"/>
+      <c r="E150" s="84"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="84"/>
+      <c r="H150" s="84"/>
+      <c r="I150" s="84"/>
+      <c r="J150" s="84"/>
+      <c r="K150" s="85"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="82" t="s">
+      <c r="C151" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="83"/>
-      <c r="E151" s="84" t="s">
+      <c r="D151" s="87"/>
+      <c r="E151" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="F151" s="84"/>
-      <c r="G151" s="85"/>
+      <c r="F151" s="88"/>
+      <c r="G151" s="89"/>
       <c r="H151" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I151" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J151" s="86" t="s">
+      <c r="J151" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K151" s="87"/>
+      <c r="K151" s="91"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" s="37"/>
-      <c r="C152" s="66" t="s">
+      <c r="C152" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="D152" s="67"/>
-      <c r="E152" s="68" t="s">
+      <c r="D152" s="71"/>
+      <c r="E152" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="F152" s="68"/>
-      <c r="G152" s="69"/>
+      <c r="F152" s="72"/>
+      <c r="G152" s="73"/>
       <c r="H152" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I152" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J152" s="121"/>
-      <c r="K152" s="122"/>
+      <c r="J152" s="125"/>
+      <c r="K152" s="126"/>
     </row>
     <row r="153" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="100"/>
-      <c r="C153" s="101"/>
-      <c r="D153" s="101"/>
-      <c r="E153" s="101"/>
-      <c r="F153" s="101"/>
-      <c r="G153" s="101"/>
-      <c r="H153" s="101"/>
-      <c r="I153" s="101"/>
-      <c r="J153" s="101"/>
-      <c r="K153" s="102"/>
+      <c r="B153" s="104"/>
+      <c r="C153" s="105"/>
+      <c r="D153" s="105"/>
+      <c r="E153" s="105"/>
+      <c r="F153" s="105"/>
+      <c r="G153" s="105"/>
+      <c r="H153" s="105"/>
+      <c r="I153" s="105"/>
+      <c r="J153" s="105"/>
+      <c r="K153" s="106"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5175,258 +5371,258 @@
       <c r="A156" s="48">
         <v>15</v>
       </c>
-      <c r="B156" s="75" t="s">
+      <c r="B156" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="C156" s="76"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="76"/>
-      <c r="G156" s="76"/>
-      <c r="H156" s="76"/>
-      <c r="I156" s="76"/>
-      <c r="J156" s="77"/>
-      <c r="K156" s="78"/>
+      <c r="C156" s="80"/>
+      <c r="D156" s="80"/>
+      <c r="E156" s="80"/>
+      <c r="F156" s="80"/>
+      <c r="G156" s="80"/>
+      <c r="H156" s="80"/>
+      <c r="I156" s="80"/>
+      <c r="J156" s="81"/>
+      <c r="K156" s="82"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="79" t="s">
+      <c r="B157" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="C157" s="80"/>
-      <c r="D157" s="80"/>
-      <c r="E157" s="80"/>
-      <c r="F157" s="80"/>
-      <c r="G157" s="80"/>
-      <c r="H157" s="80"/>
-      <c r="I157" s="80"/>
-      <c r="J157" s="80"/>
-      <c r="K157" s="81"/>
+      <c r="C157" s="84"/>
+      <c r="D157" s="84"/>
+      <c r="E157" s="84"/>
+      <c r="F157" s="84"/>
+      <c r="G157" s="84"/>
+      <c r="H157" s="84"/>
+      <c r="I157" s="84"/>
+      <c r="J157" s="84"/>
+      <c r="K157" s="85"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B158" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="82" t="s">
+      <c r="C158" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="D158" s="83"/>
-      <c r="E158" s="84" t="s">
+      <c r="D158" s="87"/>
+      <c r="E158" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="F158" s="84"/>
-      <c r="G158" s="85"/>
+      <c r="F158" s="88"/>
+      <c r="G158" s="89"/>
       <c r="H158" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J158" s="86" t="s">
+      <c r="J158" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K158" s="87"/>
+      <c r="K158" s="91"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" s="34"/>
-      <c r="C159" s="92" t="s">
+      <c r="C159" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="D159" s="93"/>
-      <c r="E159" s="94" t="s">
+      <c r="D159" s="97"/>
+      <c r="E159" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="F159" s="94"/>
-      <c r="G159" s="95"/>
+      <c r="F159" s="98"/>
+      <c r="G159" s="99"/>
       <c r="H159" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I159" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J159" s="96"/>
-      <c r="K159" s="97"/>
+      <c r="J159" s="100"/>
+      <c r="K159" s="101"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="92" t="s">
+      <c r="C160" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D160" s="93"/>
-      <c r="E160" s="94" t="s">
+      <c r="D160" s="97"/>
+      <c r="E160" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="94"/>
-      <c r="G160" s="95"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="99"/>
       <c r="H160" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I160" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J160" s="96"/>
-      <c r="K160" s="97"/>
+      <c r="J160" s="100"/>
+      <c r="K160" s="101"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C161" s="92" t="s">
+      <c r="C161" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="93"/>
-      <c r="E161" s="94" t="s">
+      <c r="D161" s="97"/>
+      <c r="E161" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F161" s="94"/>
-      <c r="G161" s="95"/>
+      <c r="F161" s="98"/>
+      <c r="G161" s="99"/>
       <c r="H161" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I161" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J161" s="96" t="s">
+      <c r="J161" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K161" s="97"/>
+      <c r="K161" s="101"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B162" s="34"/>
-      <c r="C162" s="92" t="s">
+      <c r="C162" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="D162" s="93"/>
-      <c r="E162" s="94" t="s">
+      <c r="D162" s="97"/>
+      <c r="E162" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="F162" s="94"/>
-      <c r="G162" s="95"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="99"/>
       <c r="H162" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I162" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J162" s="96"/>
-      <c r="K162" s="97"/>
+      <c r="J162" s="100"/>
+      <c r="K162" s="101"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B163" s="34"/>
-      <c r="C163" s="92" t="s">
+      <c r="C163" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="93"/>
-      <c r="E163" s="94" t="s">
+      <c r="D163" s="97"/>
+      <c r="E163" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F163" s="94"/>
-      <c r="G163" s="95"/>
+      <c r="F163" s="98"/>
+      <c r="G163" s="99"/>
       <c r="H163" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I163" s="36"/>
-      <c r="J163" s="96"/>
-      <c r="K163" s="97"/>
+      <c r="J163" s="100"/>
+      <c r="K163" s="101"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B164" s="34"/>
-      <c r="C164" s="92" t="s">
+      <c r="C164" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D164" s="93"/>
-      <c r="E164" s="94" t="s">
+      <c r="D164" s="97"/>
+      <c r="E164" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="F164" s="94"/>
-      <c r="G164" s="95"/>
+      <c r="F164" s="98"/>
+      <c r="G164" s="99"/>
       <c r="H164" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I164" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J164" s="96"/>
-      <c r="K164" s="97"/>
+      <c r="J164" s="100"/>
+      <c r="K164" s="101"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B165" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C165" s="92" t="s">
+      <c r="C165" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="93"/>
-      <c r="E165" s="94" t="s">
+      <c r="D165" s="97"/>
+      <c r="E165" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="F165" s="94"/>
-      <c r="G165" s="95"/>
+      <c r="F165" s="98"/>
+      <c r="G165" s="99"/>
       <c r="H165" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I165" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J165" s="96" t="s">
+      <c r="J165" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K165" s="97"/>
+      <c r="K165" s="101"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B166" s="37"/>
-      <c r="C166" s="66" t="s">
+      <c r="C166" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D166" s="67"/>
-      <c r="E166" s="68" t="s">
+      <c r="D166" s="71"/>
+      <c r="E166" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F166" s="68"/>
-      <c r="G166" s="69"/>
+      <c r="F166" s="72"/>
+      <c r="G166" s="73"/>
       <c r="H166" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I166" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J166" s="70" t="s">
+      <c r="J166" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K166" s="71"/>
+      <c r="K166" s="75"/>
     </row>
     <row r="167" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="72" t="s">
+      <c r="B167" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C167" s="73"/>
-      <c r="D167" s="73"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="73"/>
-      <c r="G167" s="73"/>
-      <c r="H167" s="73"/>
-      <c r="I167" s="73"/>
-      <c r="J167" s="73"/>
-      <c r="K167" s="74"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="77"/>
+      <c r="E167" s="77"/>
+      <c r="F167" s="77"/>
+      <c r="G167" s="77"/>
+      <c r="H167" s="77"/>
+      <c r="I167" s="77"/>
+      <c r="J167" s="77"/>
+      <c r="K167" s="78"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B168" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="88" t="s">
+      <c r="C168" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="88"/>
-      <c r="E168" s="88"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
       <c r="F168" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G168" s="88" t="s">
+      <c r="G168" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="H168" s="88"/>
-      <c r="I168" s="88"/>
+      <c r="H168" s="92"/>
+      <c r="I168" s="92"/>
       <c r="J168" s="8"/>
       <c r="K168" s="20"/>
     </row>
@@ -5434,19 +5630,19 @@
       <c r="B169" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C169" s="64" t="s">
+      <c r="C169" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="64"/>
-      <c r="E169" s="64"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="68"/>
       <c r="F169" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G169" s="64" t="s">
+      <c r="G169" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H169" s="64"/>
-      <c r="I169" s="64"/>
+      <c r="H169" s="68"/>
+      <c r="I169" s="68"/>
       <c r="J169" s="23"/>
       <c r="K169" s="24"/>
     </row>
@@ -5456,132 +5652,132 @@
       <c r="A172" s="48">
         <v>16</v>
       </c>
-      <c r="B172" s="75" t="s">
+      <c r="B172" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="C172" s="76"/>
-      <c r="D172" s="76"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="76"/>
-      <c r="H172" s="76"/>
-      <c r="I172" s="76"/>
-      <c r="J172" s="77"/>
-      <c r="K172" s="78"/>
+      <c r="C172" s="80"/>
+      <c r="D172" s="80"/>
+      <c r="E172" s="80"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="80"/>
+      <c r="H172" s="80"/>
+      <c r="I172" s="80"/>
+      <c r="J172" s="81"/>
+      <c r="K172" s="82"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="C173" s="80"/>
-      <c r="D173" s="80"/>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="80"/>
-      <c r="H173" s="80"/>
-      <c r="I173" s="80"/>
-      <c r="J173" s="80"/>
-      <c r="K173" s="81"/>
+      <c r="B173" s="83" t="s">
+        <v>337</v>
+      </c>
+      <c r="C173" s="84"/>
+      <c r="D173" s="84"/>
+      <c r="E173" s="84"/>
+      <c r="F173" s="84"/>
+      <c r="G173" s="84"/>
+      <c r="H173" s="84"/>
+      <c r="I173" s="84"/>
+      <c r="J173" s="84"/>
+      <c r="K173" s="85"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B174" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C174" s="82" t="s">
+      <c r="C174" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D174" s="83"/>
-      <c r="E174" s="84" t="s">
+      <c r="D174" s="87"/>
+      <c r="E174" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F174" s="84"/>
-      <c r="G174" s="85"/>
+      <c r="F174" s="88"/>
+      <c r="G174" s="89"/>
       <c r="H174" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I174" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J174" s="86" t="s">
+      <c r="J174" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="K174" s="87"/>
+      <c r="K174" s="91"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" s="34"/>
-      <c r="C175" s="92" t="s">
+      <c r="C175" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="D175" s="93"/>
-      <c r="E175" s="94" t="s">
+      <c r="D175" s="97"/>
+      <c r="E175" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F175" s="94"/>
-      <c r="G175" s="95"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="99"/>
       <c r="H175" s="35" t="s">
         <v>127</v>
       </c>
       <c r="I175" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J175" s="96" t="s">
+      <c r="J175" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="K175" s="97"/>
+      <c r="K175" s="101"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B176" s="37"/>
-      <c r="C176" s="66" t="s">
+      <c r="C176" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="D176" s="67"/>
-      <c r="E176" s="68" t="s">
+      <c r="D176" s="71"/>
+      <c r="E176" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="F176" s="68"/>
-      <c r="G176" s="69"/>
+      <c r="F176" s="72"/>
+      <c r="G176" s="73"/>
       <c r="H176" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I176" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J176" s="70" t="s">
+      <c r="J176" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="K176" s="71"/>
+      <c r="K176" s="75"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="72" t="s">
+      <c r="B177" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C177" s="73"/>
-      <c r="D177" s="73"/>
-      <c r="E177" s="73"/>
-      <c r="F177" s="73"/>
-      <c r="G177" s="73"/>
-      <c r="H177" s="73"/>
-      <c r="I177" s="73"/>
-      <c r="J177" s="73"/>
-      <c r="K177" s="74"/>
+      <c r="C177" s="77"/>
+      <c r="D177" s="77"/>
+      <c r="E177" s="77"/>
+      <c r="F177" s="77"/>
+      <c r="G177" s="77"/>
+      <c r="H177" s="77"/>
+      <c r="I177" s="77"/>
+      <c r="J177" s="77"/>
+      <c r="K177" s="78"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C178" s="64" t="s">
+      <c r="C178" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D178" s="64"/>
-      <c r="E178" s="64"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68"/>
       <c r="F178" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G178" s="64" t="s">
+      <c r="G178" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="H178" s="64"/>
-      <c r="I178" s="64"/>
+      <c r="H178" s="68"/>
+      <c r="I178" s="68"/>
       <c r="J178" s="23"/>
       <c r="K178" s="24"/>
     </row>
@@ -5591,200 +5787,200 @@
       <c r="A181" s="48">
         <v>17</v>
       </c>
-      <c r="B181" s="75" t="s">
+      <c r="B181" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C181" s="76"/>
-      <c r="D181" s="76"/>
-      <c r="E181" s="76"/>
-      <c r="F181" s="76"/>
-      <c r="G181" s="76"/>
-      <c r="H181" s="76"/>
-      <c r="I181" s="76"/>
-      <c r="J181" s="77"/>
-      <c r="K181" s="78"/>
+      <c r="C181" s="80"/>
+      <c r="D181" s="80"/>
+      <c r="E181" s="80"/>
+      <c r="F181" s="80"/>
+      <c r="G181" s="80"/>
+      <c r="H181" s="80"/>
+      <c r="I181" s="80"/>
+      <c r="J181" s="81"/>
+      <c r="K181" s="82"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="79" t="s">
+      <c r="B182" s="83" t="s">
         <v>131</v>
       </c>
-      <c r="C182" s="80"/>
-      <c r="D182" s="80"/>
-      <c r="E182" s="80"/>
-      <c r="F182" s="80"/>
-      <c r="G182" s="80"/>
-      <c r="H182" s="80"/>
-      <c r="I182" s="80"/>
-      <c r="J182" s="80"/>
-      <c r="K182" s="81"/>
+      <c r="C182" s="84"/>
+      <c r="D182" s="84"/>
+      <c r="E182" s="84"/>
+      <c r="F182" s="84"/>
+      <c r="G182" s="84"/>
+      <c r="H182" s="84"/>
+      <c r="I182" s="84"/>
+      <c r="J182" s="84"/>
+      <c r="K182" s="85"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B183" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="82" t="s">
+      <c r="C183" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="D183" s="83"/>
-      <c r="E183" s="84" t="s">
+      <c r="D183" s="87"/>
+      <c r="E183" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="F183" s="84"/>
-      <c r="G183" s="85"/>
+      <c r="F183" s="88"/>
+      <c r="G183" s="89"/>
       <c r="H183" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I183" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J183" s="86" t="s">
+      <c r="J183" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K183" s="87"/>
+      <c r="K183" s="91"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B184" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C184" s="92" t="s">
+      <c r="C184" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D184" s="93"/>
-      <c r="E184" s="94" t="s">
+      <c r="D184" s="97"/>
+      <c r="E184" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="F184" s="94"/>
-      <c r="G184" s="95"/>
+      <c r="F184" s="98"/>
+      <c r="G184" s="99"/>
       <c r="H184" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I184" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J184" s="96" t="s">
+      <c r="J184" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K184" s="97"/>
+      <c r="K184" s="101"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C185" s="92" t="s">
+      <c r="C185" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="D185" s="93"/>
-      <c r="E185" s="94" t="s">
+      <c r="D185" s="97"/>
+      <c r="E185" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="F185" s="94"/>
-      <c r="G185" s="95"/>
+      <c r="F185" s="98"/>
+      <c r="G185" s="99"/>
       <c r="H185" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I185" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J185" s="96" t="s">
+      <c r="J185" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K185" s="97"/>
+      <c r="K185" s="101"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="34"/>
-      <c r="C186" s="92" t="s">
+      <c r="C186" s="96" t="s">
         <v>225</v>
       </c>
-      <c r="D186" s="93"/>
-      <c r="E186" s="94" t="s">
+      <c r="D186" s="97"/>
+      <c r="E186" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="F186" s="94"/>
-      <c r="G186" s="95"/>
+      <c r="F186" s="98"/>
+      <c r="G186" s="99"/>
       <c r="H186" s="35" t="s">
         <v>221</v>
       </c>
       <c r="I186" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J186" s="96"/>
-      <c r="K186" s="97"/>
+      <c r="J186" s="100"/>
+      <c r="K186" s="101"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" s="34"/>
-      <c r="C187" s="92" t="s">
+      <c r="C187" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D187" s="93"/>
-      <c r="E187" s="94" t="s">
+      <c r="D187" s="97"/>
+      <c r="E187" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="F187" s="94"/>
-      <c r="G187" s="95"/>
+      <c r="F187" s="98"/>
+      <c r="G187" s="99"/>
       <c r="H187" s="35" t="s">
         <v>232</v>
       </c>
       <c r="I187" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J187" s="96" t="s">
+      <c r="J187" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="K187" s="97"/>
+      <c r="K187" s="101"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" s="37"/>
-      <c r="C188" s="117" t="s">
+      <c r="C188" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="D188" s="118"/>
-      <c r="E188" s="68" t="s">
+      <c r="D188" s="122"/>
+      <c r="E188" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F188" s="68"/>
-      <c r="G188" s="69"/>
+      <c r="F188" s="72"/>
+      <c r="G188" s="73"/>
       <c r="H188" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I188" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J188" s="70" t="s">
+      <c r="J188" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="K188" s="71"/>
+      <c r="K188" s="75"/>
     </row>
     <row r="189" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="72" t="s">
+      <c r="B189" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C189" s="73"/>
-      <c r="D189" s="73"/>
-      <c r="E189" s="73"/>
-      <c r="F189" s="73"/>
-      <c r="G189" s="73"/>
-      <c r="H189" s="73"/>
-      <c r="I189" s="73"/>
-      <c r="J189" s="73"/>
-      <c r="K189" s="74"/>
+      <c r="C189" s="77"/>
+      <c r="D189" s="77"/>
+      <c r="E189" s="77"/>
+      <c r="F189" s="77"/>
+      <c r="G189" s="77"/>
+      <c r="H189" s="77"/>
+      <c r="I189" s="77"/>
+      <c r="J189" s="77"/>
+      <c r="K189" s="78"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B190" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="65" t="s">
+      <c r="C190" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D190" s="65"/>
-      <c r="E190" s="65"/>
+      <c r="D190" s="69"/>
+      <c r="E190" s="69"/>
       <c r="F190" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G190" s="65" t="s">
+      <c r="G190" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H190" s="65"/>
-      <c r="I190" s="65"/>
+      <c r="H190" s="69"/>
+      <c r="I190" s="69"/>
       <c r="J190" s="8"/>
       <c r="K190" s="20"/>
     </row>
@@ -5792,19 +5988,19 @@
       <c r="B191" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C191" s="64" t="s">
+      <c r="C191" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
+      <c r="D191" s="68"/>
+      <c r="E191" s="68"/>
       <c r="F191" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G191" s="64" t="s">
+      <c r="G191" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="H191" s="64"/>
-      <c r="I191" s="64"/>
+      <c r="H191" s="68"/>
+      <c r="I191" s="68"/>
       <c r="J191" s="23"/>
       <c r="K191" s="24"/>
     </row>
@@ -5814,170 +6010,170 @@
       <c r="A194" s="48">
         <v>18</v>
       </c>
-      <c r="B194" s="75" t="s">
+      <c r="B194" s="79" t="s">
         <v>138</v>
       </c>
-      <c r="C194" s="76"/>
-      <c r="D194" s="76"/>
-      <c r="E194" s="76"/>
-      <c r="F194" s="76"/>
-      <c r="G194" s="76"/>
-      <c r="H194" s="76"/>
-      <c r="I194" s="76"/>
-      <c r="J194" s="77"/>
-      <c r="K194" s="78"/>
+      <c r="C194" s="80"/>
+      <c r="D194" s="80"/>
+      <c r="E194" s="80"/>
+      <c r="F194" s="80"/>
+      <c r="G194" s="80"/>
+      <c r="H194" s="80"/>
+      <c r="I194" s="80"/>
+      <c r="J194" s="81"/>
+      <c r="K194" s="82"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="79" t="s">
+      <c r="B195" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C195" s="80"/>
-      <c r="D195" s="80"/>
-      <c r="E195" s="80"/>
-      <c r="F195" s="80"/>
-      <c r="G195" s="80"/>
-      <c r="H195" s="80"/>
-      <c r="I195" s="80"/>
-      <c r="J195" s="80"/>
-      <c r="K195" s="81"/>
+      <c r="C195" s="84"/>
+      <c r="D195" s="84"/>
+      <c r="E195" s="84"/>
+      <c r="F195" s="84"/>
+      <c r="G195" s="84"/>
+      <c r="H195" s="84"/>
+      <c r="I195" s="84"/>
+      <c r="J195" s="84"/>
+      <c r="K195" s="85"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B196" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C196" s="82" t="s">
+      <c r="C196" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="D196" s="83"/>
-      <c r="E196" s="84" t="s">
+      <c r="D196" s="87"/>
+      <c r="E196" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="F196" s="84"/>
-      <c r="G196" s="85"/>
+      <c r="F196" s="88"/>
+      <c r="G196" s="89"/>
       <c r="H196" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I196" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J196" s="109" t="s">
+      <c r="J196" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="K196" s="110"/>
+      <c r="K196" s="114"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B197" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C197" s="92" t="s">
+      <c r="C197" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="D197" s="93"/>
-      <c r="E197" s="94" t="s">
+      <c r="D197" s="97"/>
+      <c r="E197" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="F197" s="94"/>
-      <c r="G197" s="95"/>
+      <c r="F197" s="98"/>
+      <c r="G197" s="99"/>
       <c r="H197" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I197" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J197" s="111" t="s">
+      <c r="J197" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="K197" s="112"/>
+      <c r="K197" s="116"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B198" s="34"/>
-      <c r="C198" s="92" t="s">
+      <c r="C198" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D198" s="93"/>
-      <c r="E198" s="94" t="s">
+      <c r="D198" s="97"/>
+      <c r="E198" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="F198" s="94"/>
-      <c r="G198" s="95"/>
+      <c r="F198" s="98"/>
+      <c r="G198" s="99"/>
       <c r="H198" s="35" t="s">
         <v>231</v>
       </c>
       <c r="I198" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J198" s="96"/>
-      <c r="K198" s="97"/>
+      <c r="J198" s="100"/>
+      <c r="K198" s="101"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B199" s="34"/>
-      <c r="C199" s="92" t="s">
+      <c r="C199" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="D199" s="93"/>
-      <c r="E199" s="94" t="s">
+      <c r="D199" s="97"/>
+      <c r="E199" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="F199" s="94"/>
-      <c r="G199" s="95"/>
+      <c r="F199" s="98"/>
+      <c r="G199" s="99"/>
       <c r="H199" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I199" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J199" s="96"/>
-      <c r="K199" s="97"/>
+      <c r="J199" s="100"/>
+      <c r="K199" s="101"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B200" s="37"/>
-      <c r="C200" s="119" t="s">
+      <c r="C200" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="D200" s="120"/>
-      <c r="E200" s="94" t="s">
+      <c r="D200" s="124"/>
+      <c r="E200" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F200" s="94"/>
-      <c r="G200" s="95"/>
+      <c r="F200" s="98"/>
+      <c r="G200" s="99"/>
       <c r="H200" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I200" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J200" s="96" t="s">
+      <c r="J200" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="K200" s="97"/>
+      <c r="K200" s="101"/>
     </row>
     <row r="201" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="72" t="s">
+      <c r="B201" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C201" s="73"/>
-      <c r="D201" s="73"/>
-      <c r="E201" s="73"/>
-      <c r="F201" s="73"/>
-      <c r="G201" s="73"/>
-      <c r="H201" s="73"/>
-      <c r="I201" s="73"/>
-      <c r="J201" s="73"/>
-      <c r="K201" s="74"/>
+      <c r="C201" s="77"/>
+      <c r="D201" s="77"/>
+      <c r="E201" s="77"/>
+      <c r="F201" s="77"/>
+      <c r="G201" s="77"/>
+      <c r="H201" s="77"/>
+      <c r="I201" s="77"/>
+      <c r="J201" s="77"/>
+      <c r="K201" s="78"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C202" s="88" t="s">
+      <c r="C202" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="D202" s="88"/>
-      <c r="E202" s="88"/>
+      <c r="D202" s="92"/>
+      <c r="E202" s="92"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="88"/>
-      <c r="H202" s="88"/>
-      <c r="I202" s="88"/>
+      <c r="G202" s="92"/>
+      <c r="H202" s="92"/>
+      <c r="I202" s="92"/>
       <c r="J202" s="8"/>
       <c r="K202" s="20"/>
     </row>
@@ -5985,19 +6181,19 @@
       <c r="B203" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C203" s="65" t="s">
+      <c r="C203" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D203" s="65"/>
-      <c r="E203" s="65"/>
+      <c r="D203" s="69"/>
+      <c r="E203" s="69"/>
       <c r="F203" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G203" s="65" t="s">
+      <c r="G203" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="H203" s="65"/>
-      <c r="I203" s="65"/>
+      <c r="H203" s="69"/>
+      <c r="I203" s="69"/>
       <c r="J203" s="9"/>
       <c r="K203" s="27"/>
     </row>
@@ -6005,19 +6201,19 @@
       <c r="B204" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C204" s="64" t="s">
+      <c r="C204" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
+      <c r="D204" s="68"/>
+      <c r="E204" s="68"/>
       <c r="F204" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G204" s="64" t="s">
+      <c r="G204" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="H204" s="64"/>
-      <c r="I204" s="64"/>
+      <c r="H204" s="68"/>
+      <c r="I204" s="68"/>
       <c r="J204" s="23"/>
       <c r="K204" s="24"/>
     </row>
@@ -6027,88 +6223,88 @@
       <c r="A207" s="55">
         <v>19</v>
       </c>
-      <c r="B207" s="75" t="s">
+      <c r="B207" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="C207" s="76"/>
-      <c r="D207" s="76"/>
-      <c r="E207" s="76"/>
-      <c r="F207" s="76"/>
-      <c r="G207" s="76"/>
-      <c r="H207" s="76"/>
-      <c r="I207" s="76"/>
-      <c r="J207" s="77"/>
-      <c r="K207" s="78"/>
+      <c r="C207" s="80"/>
+      <c r="D207" s="80"/>
+      <c r="E207" s="80"/>
+      <c r="F207" s="80"/>
+      <c r="G207" s="80"/>
+      <c r="H207" s="80"/>
+      <c r="I207" s="80"/>
+      <c r="J207" s="81"/>
+      <c r="K207" s="82"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="79" t="s">
+      <c r="B208" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="C208" s="80"/>
-      <c r="D208" s="80"/>
-      <c r="E208" s="80"/>
-      <c r="F208" s="80"/>
-      <c r="G208" s="80"/>
-      <c r="H208" s="80"/>
-      <c r="I208" s="80"/>
-      <c r="J208" s="80"/>
-      <c r="K208" s="81"/>
+      <c r="C208" s="84"/>
+      <c r="D208" s="84"/>
+      <c r="E208" s="84"/>
+      <c r="F208" s="84"/>
+      <c r="G208" s="84"/>
+      <c r="H208" s="84"/>
+      <c r="I208" s="84"/>
+      <c r="J208" s="84"/>
+      <c r="K208" s="85"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B209" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="82" t="s">
+      <c r="C209" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="D209" s="83"/>
-      <c r="E209" s="84" t="s">
+      <c r="D209" s="87"/>
+      <c r="E209" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="F209" s="84"/>
-      <c r="G209" s="85"/>
+      <c r="F209" s="88"/>
+      <c r="G209" s="89"/>
       <c r="H209" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I209" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J209" s="86" t="s">
+      <c r="J209" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K209" s="87"/>
+      <c r="K209" s="91"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B210" s="37"/>
-      <c r="C210" s="66" t="s">
+      <c r="C210" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D210" s="67"/>
-      <c r="E210" s="68" t="s">
+      <c r="D210" s="71"/>
+      <c r="E210" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="F210" s="68"/>
-      <c r="G210" s="69"/>
+      <c r="F210" s="72"/>
+      <c r="G210" s="73"/>
       <c r="H210" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I210" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J210" s="70"/>
-      <c r="K210" s="71"/>
+      <c r="J210" s="74"/>
+      <c r="K210" s="75"/>
     </row>
     <row r="211" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="100"/>
-      <c r="C211" s="101"/>
-      <c r="D211" s="101"/>
-      <c r="E211" s="101"/>
-      <c r="F211" s="101"/>
-      <c r="G211" s="101"/>
-      <c r="H211" s="101"/>
-      <c r="I211" s="101"/>
-      <c r="J211" s="101"/>
-      <c r="K211" s="102"/>
+      <c r="B211" s="104"/>
+      <c r="C211" s="105"/>
+      <c r="D211" s="105"/>
+      <c r="E211" s="105"/>
+      <c r="F211" s="105"/>
+      <c r="G211" s="105"/>
+      <c r="H211" s="105"/>
+      <c r="I211" s="105"/>
+      <c r="J211" s="105"/>
+      <c r="K211" s="106"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6116,220 +6312,220 @@
       <c r="A214" s="55">
         <v>20</v>
       </c>
-      <c r="B214" s="75" t="s">
+      <c r="B214" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C214" s="76"/>
-      <c r="D214" s="76"/>
-      <c r="E214" s="76"/>
-      <c r="F214" s="76"/>
-      <c r="G214" s="76"/>
-      <c r="H214" s="76"/>
-      <c r="I214" s="76"/>
-      <c r="J214" s="77"/>
-      <c r="K214" s="78"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="80"/>
+      <c r="F214" s="80"/>
+      <c r="G214" s="80"/>
+      <c r="H214" s="80"/>
+      <c r="I214" s="80"/>
+      <c r="J214" s="81"/>
+      <c r="K214" s="82"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="79" t="s">
+      <c r="B215" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C215" s="80"/>
-      <c r="D215" s="80"/>
-      <c r="E215" s="80"/>
-      <c r="F215" s="80"/>
-      <c r="G215" s="80"/>
-      <c r="H215" s="80"/>
-      <c r="I215" s="80"/>
-      <c r="J215" s="80"/>
-      <c r="K215" s="81"/>
+      <c r="C215" s="84"/>
+      <c r="D215" s="84"/>
+      <c r="E215" s="84"/>
+      <c r="F215" s="84"/>
+      <c r="G215" s="84"/>
+      <c r="H215" s="84"/>
+      <c r="I215" s="84"/>
+      <c r="J215" s="84"/>
+      <c r="K215" s="85"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B216" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C216" s="82" t="s">
+      <c r="C216" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="D216" s="83"/>
-      <c r="E216" s="84" t="s">
+      <c r="D216" s="87"/>
+      <c r="E216" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="F216" s="84"/>
-      <c r="G216" s="85"/>
+      <c r="F216" s="88"/>
+      <c r="G216" s="89"/>
       <c r="H216" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I216" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J216" s="86" t="s">
+      <c r="J216" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K216" s="87"/>
+      <c r="K216" s="91"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B217" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C217" s="92" t="s">
+      <c r="C217" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D217" s="93"/>
-      <c r="E217" s="94" t="s">
+      <c r="D217" s="97"/>
+      <c r="E217" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="F217" s="94"/>
-      <c r="G217" s="95"/>
+      <c r="F217" s="98"/>
+      <c r="G217" s="99"/>
       <c r="H217" s="35" t="s">
         <v>152</v>
       </c>
       <c r="I217" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J217" s="96"/>
-      <c r="K217" s="97"/>
+      <c r="J217" s="100"/>
+      <c r="K217" s="101"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B218" s="34"/>
-      <c r="C218" s="92" t="s">
+      <c r="C218" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="D218" s="97"/>
+      <c r="E218" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="D218" s="93"/>
-      <c r="E218" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="F218" s="94"/>
-      <c r="G218" s="95"/>
+      <c r="F218" s="98"/>
+      <c r="G218" s="99"/>
       <c r="H218" s="35" t="s">
         <v>221</v>
       </c>
       <c r="I218" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="J218" s="96"/>
-      <c r="K218" s="97"/>
+      <c r="J218" s="100"/>
+      <c r="K218" s="101"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C219" s="92" t="s">
+      <c r="C219" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="D219" s="93"/>
-      <c r="E219" s="94" t="s">
+      <c r="D219" s="97"/>
+      <c r="E219" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="F219" s="94"/>
-      <c r="G219" s="95"/>
+      <c r="F219" s="98"/>
+      <c r="G219" s="99"/>
       <c r="H219" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I219" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J219" s="96" t="s">
+      <c r="J219" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K219" s="97"/>
+      <c r="K219" s="101"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B220" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C220" s="92" t="s">
+      <c r="C220" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="D220" s="93"/>
-      <c r="E220" s="94" t="s">
+      <c r="D220" s="97"/>
+      <c r="E220" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="F220" s="94"/>
-      <c r="G220" s="95"/>
+      <c r="F220" s="98"/>
+      <c r="G220" s="99"/>
       <c r="H220" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I220" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J220" s="96" t="s">
+      <c r="J220" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K220" s="97"/>
+      <c r="K220" s="101"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B221" s="34"/>
-      <c r="C221" s="92" t="s">
+      <c r="C221" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="D221" s="93"/>
-      <c r="E221" s="94" t="s">
+      <c r="D221" s="97"/>
+      <c r="E221" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="F221" s="94"/>
-      <c r="G221" s="95"/>
+      <c r="F221" s="98"/>
+      <c r="G221" s="99"/>
       <c r="H221" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I221" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J221" s="96"/>
-      <c r="K221" s="97"/>
+      <c r="J221" s="100"/>
+      <c r="K221" s="101"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B222" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C222" s="66" t="s">
+      <c r="C222" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="D222" s="67"/>
-      <c r="E222" s="68" t="s">
+      <c r="D222" s="71"/>
+      <c r="E222" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="F222" s="68"/>
-      <c r="G222" s="69"/>
+      <c r="F222" s="72"/>
+      <c r="G222" s="73"/>
       <c r="H222" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I222" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J222" s="70" t="s">
+      <c r="J222" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="K222" s="71"/>
+      <c r="K222" s="75"/>
     </row>
     <row r="223" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="72" t="s">
+      <c r="B223" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C223" s="73"/>
-      <c r="D223" s="73"/>
-      <c r="E223" s="73"/>
-      <c r="F223" s="73"/>
-      <c r="G223" s="73"/>
-      <c r="H223" s="73"/>
-      <c r="I223" s="73"/>
-      <c r="J223" s="73"/>
-      <c r="K223" s="74"/>
+      <c r="C223" s="77"/>
+      <c r="D223" s="77"/>
+      <c r="E223" s="77"/>
+      <c r="F223" s="77"/>
+      <c r="G223" s="77"/>
+      <c r="H223" s="77"/>
+      <c r="I223" s="77"/>
+      <c r="J223" s="77"/>
+      <c r="K223" s="78"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B224" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C224" s="65" t="s">
+      <c r="C224" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="D224" s="65"/>
-      <c r="E224" s="65"/>
+      <c r="D224" s="69"/>
+      <c r="E224" s="69"/>
       <c r="F224" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="65"/>
-      <c r="H224" s="65"/>
-      <c r="I224" s="65"/>
+      <c r="G224" s="69"/>
+      <c r="H224" s="69"/>
+      <c r="I224" s="69"/>
       <c r="J224" s="8"/>
       <c r="K224" s="20"/>
     </row>
@@ -6337,11 +6533,11 @@
       <c r="B225" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C225" s="65" t="s">
+      <c r="C225" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D225" s="65"/>
-      <c r="E225" s="65"/>
+      <c r="D225" s="69"/>
+      <c r="E225" s="69"/>
       <c r="F225" s="5" t="s">
         <v>180</v>
       </c>
@@ -6355,19 +6551,19 @@
       <c r="B226" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C226" s="65" t="s">
+      <c r="C226" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="D226" s="65"/>
-      <c r="E226" s="65"/>
+      <c r="D226" s="69"/>
+      <c r="E226" s="69"/>
       <c r="F226" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G226" s="65" t="s">
+      <c r="G226" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="H226" s="65"/>
-      <c r="I226" s="65"/>
+      <c r="H226" s="69"/>
+      <c r="I226" s="69"/>
       <c r="J226" s="9"/>
       <c r="K226" s="27"/>
     </row>
@@ -6375,19 +6571,19 @@
       <c r="B227" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C227" s="65" t="s">
+      <c r="C227" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="D227" s="65"/>
-      <c r="E227" s="65"/>
+      <c r="D227" s="69"/>
+      <c r="E227" s="69"/>
       <c r="F227" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G227" s="65" t="s">
+      <c r="G227" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="H227" s="65"/>
-      <c r="I227" s="65"/>
+      <c r="H227" s="69"/>
+      <c r="I227" s="69"/>
       <c r="J227" s="9"/>
       <c r="K227" s="27"/>
     </row>
@@ -6395,19 +6591,19 @@
       <c r="B228" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C228" s="64" t="s">
+      <c r="C228" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="D228" s="64"/>
-      <c r="E228" s="64"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="68"/>
       <c r="F228" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G228" s="64" t="s">
+      <c r="G228" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="H228" s="64"/>
-      <c r="I228" s="64"/>
+      <c r="H228" s="68"/>
+      <c r="I228" s="68"/>
       <c r="J228" s="23"/>
       <c r="K228" s="24"/>
     </row>
@@ -6417,88 +6613,88 @@
       <c r="A231" s="55">
         <v>21</v>
       </c>
-      <c r="B231" s="75" t="s">
+      <c r="B231" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="C231" s="76"/>
-      <c r="D231" s="76"/>
-      <c r="E231" s="76"/>
-      <c r="F231" s="76"/>
-      <c r="G231" s="76"/>
-      <c r="H231" s="76"/>
-      <c r="I231" s="76"/>
-      <c r="J231" s="77"/>
-      <c r="K231" s="78"/>
+      <c r="C231" s="80"/>
+      <c r="D231" s="80"/>
+      <c r="E231" s="80"/>
+      <c r="F231" s="80"/>
+      <c r="G231" s="80"/>
+      <c r="H231" s="80"/>
+      <c r="I231" s="80"/>
+      <c r="J231" s="81"/>
+      <c r="K231" s="82"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="79" t="s">
+      <c r="B232" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="C232" s="80"/>
-      <c r="D232" s="80"/>
-      <c r="E232" s="80"/>
-      <c r="F232" s="80"/>
-      <c r="G232" s="80"/>
-      <c r="H232" s="80"/>
-      <c r="I232" s="80"/>
-      <c r="J232" s="80"/>
-      <c r="K232" s="81"/>
+      <c r="C232" s="84"/>
+      <c r="D232" s="84"/>
+      <c r="E232" s="84"/>
+      <c r="F232" s="84"/>
+      <c r="G232" s="84"/>
+      <c r="H232" s="84"/>
+      <c r="I232" s="84"/>
+      <c r="J232" s="84"/>
+      <c r="K232" s="85"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B233" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C233" s="82" t="s">
+      <c r="C233" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="D233" s="83"/>
-      <c r="E233" s="84" t="s">
+      <c r="D233" s="87"/>
+      <c r="E233" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="F233" s="84"/>
-      <c r="G233" s="85"/>
+      <c r="F233" s="88"/>
+      <c r="G233" s="89"/>
       <c r="H233" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I233" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J233" s="86" t="s">
+      <c r="J233" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K233" s="87"/>
+      <c r="K233" s="91"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B234" s="37"/>
-      <c r="C234" s="66" t="s">
+      <c r="C234" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="D234" s="67"/>
-      <c r="E234" s="68" t="s">
+      <c r="D234" s="71"/>
+      <c r="E234" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="F234" s="68"/>
-      <c r="G234" s="69"/>
+      <c r="F234" s="72"/>
+      <c r="G234" s="73"/>
       <c r="H234" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I234" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J234" s="70"/>
-      <c r="K234" s="71"/>
+      <c r="J234" s="74"/>
+      <c r="K234" s="75"/>
     </row>
     <row r="235" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="100"/>
-      <c r="C235" s="101"/>
-      <c r="D235" s="101"/>
-      <c r="E235" s="101"/>
-      <c r="F235" s="101"/>
-      <c r="G235" s="101"/>
-      <c r="H235" s="101"/>
-      <c r="I235" s="101"/>
-      <c r="J235" s="101"/>
-      <c r="K235" s="102"/>
+      <c r="B235" s="104"/>
+      <c r="C235" s="105"/>
+      <c r="D235" s="105"/>
+      <c r="E235" s="105"/>
+      <c r="F235" s="105"/>
+      <c r="G235" s="105"/>
+      <c r="H235" s="105"/>
+      <c r="I235" s="105"/>
+      <c r="J235" s="105"/>
+      <c r="K235" s="106"/>
     </row>
     <row r="236" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6506,80 +6702,80 @@
       <c r="A238" s="48">
         <v>22</v>
       </c>
-      <c r="B238" s="75" t="s">
+      <c r="B238" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="C238" s="76"/>
-      <c r="D238" s="76"/>
-      <c r="E238" s="76"/>
-      <c r="F238" s="76"/>
-      <c r="G238" s="76"/>
-      <c r="H238" s="76"/>
-      <c r="I238" s="76"/>
-      <c r="J238" s="77"/>
-      <c r="K238" s="78"/>
+      <c r="C238" s="80"/>
+      <c r="D238" s="80"/>
+      <c r="E238" s="80"/>
+      <c r="F238" s="80"/>
+      <c r="G238" s="80"/>
+      <c r="H238" s="80"/>
+      <c r="I238" s="80"/>
+      <c r="J238" s="81"/>
+      <c r="K238" s="82"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="79" t="s">
+      <c r="B239" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="C239" s="80"/>
-      <c r="D239" s="80"/>
-      <c r="E239" s="80"/>
-      <c r="F239" s="80"/>
-      <c r="G239" s="80"/>
-      <c r="H239" s="80"/>
-      <c r="I239" s="80"/>
-      <c r="J239" s="80"/>
-      <c r="K239" s="81"/>
+      <c r="C239" s="84"/>
+      <c r="D239" s="84"/>
+      <c r="E239" s="84"/>
+      <c r="F239" s="84"/>
+      <c r="G239" s="84"/>
+      <c r="H239" s="84"/>
+      <c r="I239" s="84"/>
+      <c r="J239" s="84"/>
+      <c r="K239" s="85"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B240" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C240" s="82" t="s">
+      <c r="C240" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="D240" s="83"/>
-      <c r="E240" s="84" t="s">
+      <c r="D240" s="87"/>
+      <c r="E240" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="F240" s="84"/>
-      <c r="G240" s="85"/>
+      <c r="F240" s="88"/>
+      <c r="G240" s="89"/>
       <c r="H240" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I240" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J240" s="86" t="s">
+      <c r="J240" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K240" s="87"/>
+      <c r="K240" s="91"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B241" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C241" s="92" t="s">
+      <c r="C241" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="D241" s="93"/>
-      <c r="E241" s="94" t="s">
+      <c r="D241" s="97"/>
+      <c r="E241" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="F241" s="94"/>
-      <c r="G241" s="95"/>
+      <c r="F241" s="98"/>
+      <c r="G241" s="99"/>
       <c r="H241" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I241" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J241" s="96" t="s">
+      <c r="J241" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="K241" s="97"/>
+      <c r="K241" s="101"/>
       <c r="O241" t="s">
         <v>222</v>
       </c>
@@ -6588,55 +6784,55 @@
       <c r="B242" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="66" t="s">
+      <c r="C242" s="70" t="s">
         <v>229</v>
       </c>
-      <c r="D242" s="67"/>
-      <c r="E242" s="68" t="s">
+      <c r="D242" s="71"/>
+      <c r="E242" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="F242" s="68"/>
-      <c r="G242" s="69"/>
+      <c r="F242" s="72"/>
+      <c r="G242" s="73"/>
       <c r="H242" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I242" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J242" s="70" t="s">
+      <c r="J242" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="K242" s="71"/>
+      <c r="K242" s="75"/>
     </row>
     <row r="243" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="72" t="s">
+      <c r="B243" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C243" s="73"/>
-      <c r="D243" s="73"/>
-      <c r="E243" s="73"/>
-      <c r="F243" s="73"/>
-      <c r="G243" s="73"/>
-      <c r="H243" s="73"/>
-      <c r="I243" s="73"/>
-      <c r="J243" s="73"/>
-      <c r="K243" s="74"/>
+      <c r="C243" s="77"/>
+      <c r="D243" s="77"/>
+      <c r="E243" s="77"/>
+      <c r="F243" s="77"/>
+      <c r="G243" s="77"/>
+      <c r="H243" s="77"/>
+      <c r="I243" s="77"/>
+      <c r="J243" s="77"/>
+      <c r="K243" s="78"/>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B244" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C244" s="65" t="s">
+      <c r="C244" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="D244" s="65"/>
-      <c r="E244" s="65"/>
+      <c r="D244" s="69"/>
+      <c r="E244" s="69"/>
       <c r="F244" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G244" s="65"/>
-      <c r="H244" s="65"/>
-      <c r="I244" s="65"/>
+      <c r="G244" s="69"/>
+      <c r="H244" s="69"/>
+      <c r="I244" s="69"/>
       <c r="J244" s="9"/>
       <c r="K244" s="27"/>
     </row>
@@ -6644,19 +6840,19 @@
       <c r="B245" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C245" s="65" t="s">
+      <c r="C245" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="D245" s="65"/>
-      <c r="E245" s="65"/>
+      <c r="D245" s="69"/>
+      <c r="E245" s="69"/>
       <c r="F245" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G245" s="65" t="s">
+      <c r="G245" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="H245" s="65"/>
-      <c r="I245" s="65"/>
+      <c r="H245" s="69"/>
+      <c r="I245" s="69"/>
       <c r="J245" s="9"/>
       <c r="K245" s="27"/>
     </row>
@@ -6664,19 +6860,19 @@
       <c r="B246" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C246" s="64" t="s">
+      <c r="C246" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="D246" s="64"/>
-      <c r="E246" s="64"/>
+      <c r="D246" s="68"/>
+      <c r="E246" s="68"/>
       <c r="F246" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G246" s="64" t="s">
+      <c r="G246" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="H246" s="64"/>
-      <c r="I246" s="64"/>
+      <c r="H246" s="68"/>
+      <c r="I246" s="68"/>
       <c r="J246" s="23"/>
       <c r="K246" s="24"/>
     </row>
@@ -6686,88 +6882,88 @@
       <c r="A249" s="48">
         <v>23</v>
       </c>
-      <c r="B249" s="75" t="s">
+      <c r="B249" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="C249" s="76"/>
-      <c r="D249" s="76"/>
-      <c r="E249" s="76"/>
-      <c r="F249" s="76"/>
-      <c r="G249" s="76"/>
-      <c r="H249" s="76"/>
-      <c r="I249" s="76"/>
-      <c r="J249" s="77"/>
-      <c r="K249" s="78"/>
+      <c r="C249" s="80"/>
+      <c r="D249" s="80"/>
+      <c r="E249" s="80"/>
+      <c r="F249" s="80"/>
+      <c r="G249" s="80"/>
+      <c r="H249" s="80"/>
+      <c r="I249" s="80"/>
+      <c r="J249" s="81"/>
+      <c r="K249" s="82"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B250" s="79" t="s">
+      <c r="B250" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="C250" s="80"/>
-      <c r="D250" s="80"/>
-      <c r="E250" s="80"/>
-      <c r="F250" s="80"/>
-      <c r="G250" s="80"/>
-      <c r="H250" s="80"/>
-      <c r="I250" s="80"/>
-      <c r="J250" s="80"/>
-      <c r="K250" s="81"/>
+      <c r="C250" s="84"/>
+      <c r="D250" s="84"/>
+      <c r="E250" s="84"/>
+      <c r="F250" s="84"/>
+      <c r="G250" s="84"/>
+      <c r="H250" s="84"/>
+      <c r="I250" s="84"/>
+      <c r="J250" s="84"/>
+      <c r="K250" s="85"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B251" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="82" t="s">
+      <c r="C251" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="D251" s="83"/>
-      <c r="E251" s="84" t="s">
+      <c r="D251" s="87"/>
+      <c r="E251" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="F251" s="84"/>
-      <c r="G251" s="85"/>
+      <c r="F251" s="88"/>
+      <c r="G251" s="89"/>
       <c r="H251" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I251" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J251" s="86" t="s">
+      <c r="J251" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K251" s="87"/>
+      <c r="K251" s="91"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B252" s="37"/>
-      <c r="C252" s="66" t="s">
+      <c r="C252" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="D252" s="67"/>
-      <c r="E252" s="68" t="s">
+      <c r="D252" s="71"/>
+      <c r="E252" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="F252" s="68"/>
-      <c r="G252" s="69"/>
+      <c r="F252" s="72"/>
+      <c r="G252" s="73"/>
       <c r="H252" s="38" t="s">
         <v>24</v>
       </c>
       <c r="I252" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J252" s="70"/>
-      <c r="K252" s="71"/>
+      <c r="J252" s="74"/>
+      <c r="K252" s="75"/>
     </row>
     <row r="253" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="100"/>
-      <c r="C253" s="101"/>
-      <c r="D253" s="101"/>
-      <c r="E253" s="101"/>
-      <c r="F253" s="101"/>
-      <c r="G253" s="101"/>
-      <c r="H253" s="101"/>
-      <c r="I253" s="101"/>
-      <c r="J253" s="101"/>
-      <c r="K253" s="102"/>
+      <c r="B253" s="104"/>
+      <c r="C253" s="105"/>
+      <c r="D253" s="105"/>
+      <c r="E253" s="105"/>
+      <c r="F253" s="105"/>
+      <c r="G253" s="105"/>
+      <c r="H253" s="105"/>
+      <c r="I253" s="105"/>
+      <c r="J253" s="105"/>
+      <c r="K253" s="106"/>
     </row>
     <row r="254" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="255" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6775,256 +6971,256 @@
       <c r="A256" s="48">
         <v>24</v>
       </c>
-      <c r="B256" s="75" t="s">
+      <c r="B256" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="C256" s="76"/>
-      <c r="D256" s="76"/>
-      <c r="E256" s="76"/>
-      <c r="F256" s="76"/>
-      <c r="G256" s="76"/>
-      <c r="H256" s="76"/>
-      <c r="I256" s="76"/>
-      <c r="J256" s="77"/>
-      <c r="K256" s="78"/>
+      <c r="C256" s="80"/>
+      <c r="D256" s="80"/>
+      <c r="E256" s="80"/>
+      <c r="F256" s="80"/>
+      <c r="G256" s="80"/>
+      <c r="H256" s="80"/>
+      <c r="I256" s="80"/>
+      <c r="J256" s="81"/>
+      <c r="K256" s="82"/>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="79" t="s">
+      <c r="B257" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="C257" s="80"/>
-      <c r="D257" s="80"/>
-      <c r="E257" s="80"/>
-      <c r="F257" s="80"/>
-      <c r="G257" s="80"/>
-      <c r="H257" s="80"/>
-      <c r="I257" s="80"/>
-      <c r="J257" s="80"/>
-      <c r="K257" s="81"/>
+      <c r="C257" s="84"/>
+      <c r="D257" s="84"/>
+      <c r="E257" s="84"/>
+      <c r="F257" s="84"/>
+      <c r="G257" s="84"/>
+      <c r="H257" s="84"/>
+      <c r="I257" s="84"/>
+      <c r="J257" s="84"/>
+      <c r="K257" s="85"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C258" s="82" t="s">
+      <c r="C258" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="D258" s="83"/>
-      <c r="E258" s="84" t="s">
+      <c r="D258" s="87"/>
+      <c r="E258" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="F258" s="84"/>
-      <c r="G258" s="85"/>
+      <c r="F258" s="88"/>
+      <c r="G258" s="89"/>
       <c r="H258" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I258" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J258" s="86" t="s">
+      <c r="J258" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="K258" s="87"/>
+      <c r="K258" s="91"/>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C259" s="92" t="s">
+      <c r="C259" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="D259" s="93"/>
-      <c r="E259" s="94" t="s">
+      <c r="D259" s="97"/>
+      <c r="E259" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="F259" s="94"/>
-      <c r="G259" s="95"/>
+      <c r="F259" s="98"/>
+      <c r="G259" s="99"/>
       <c r="H259" s="35" t="s">
         <v>184</v>
       </c>
       <c r="I259" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J259" s="96"/>
-      <c r="K259" s="97"/>
+      <c r="J259" s="100"/>
+      <c r="K259" s="101"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="34"/>
-      <c r="C260" s="92" t="s">
+      <c r="C260" s="96" t="s">
         <v>192</v>
       </c>
-      <c r="D260" s="93"/>
-      <c r="E260" s="94" t="s">
+      <c r="D260" s="97"/>
+      <c r="E260" s="98" t="s">
         <v>193</v>
       </c>
-      <c r="F260" s="94"/>
-      <c r="G260" s="95"/>
+      <c r="F260" s="98"/>
+      <c r="G260" s="99"/>
       <c r="H260" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I260" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J260" s="96" t="s">
+      <c r="J260" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="K260" s="97"/>
+      <c r="K260" s="101"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" s="34"/>
-      <c r="C261" s="92" t="s">
+      <c r="C261" s="96" t="s">
         <v>191</v>
       </c>
-      <c r="D261" s="93"/>
-      <c r="E261" s="94" t="s">
+      <c r="D261" s="97"/>
+      <c r="E261" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="F261" s="94"/>
-      <c r="G261" s="95"/>
+      <c r="F261" s="98"/>
+      <c r="G261" s="99"/>
       <c r="H261" s="35" t="s">
         <v>188</v>
       </c>
       <c r="I261" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J261" s="96"/>
-      <c r="K261" s="97"/>
+      <c r="J261" s="100"/>
+      <c r="K261" s="101"/>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" s="34"/>
-      <c r="C262" s="92" t="s">
+      <c r="C262" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="D262" s="93"/>
-      <c r="E262" s="94" t="s">
+      <c r="D262" s="97"/>
+      <c r="E262" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="F262" s="94"/>
-      <c r="G262" s="95"/>
+      <c r="F262" s="98"/>
+      <c r="G262" s="99"/>
       <c r="H262" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I262" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J262" s="96" t="s">
+      <c r="J262" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="K262" s="97"/>
+      <c r="K262" s="101"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" s="34"/>
-      <c r="C263" s="92" t="s">
+      <c r="C263" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="D263" s="93"/>
-      <c r="E263" s="94" t="s">
+      <c r="D263" s="97"/>
+      <c r="E263" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="F263" s="94"/>
-      <c r="G263" s="95"/>
+      <c r="F263" s="98"/>
+      <c r="G263" s="99"/>
       <c r="H263" s="35" t="s">
         <v>187</v>
       </c>
       <c r="I263" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J263" s="96"/>
-      <c r="K263" s="97"/>
+      <c r="J263" s="100"/>
+      <c r="K263" s="101"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="34"/>
-      <c r="C264" s="92" t="s">
+      <c r="C264" s="96" t="s">
         <v>204</v>
       </c>
-      <c r="D264" s="93"/>
-      <c r="E264" s="94" t="s">
+      <c r="D264" s="97"/>
+      <c r="E264" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F264" s="94"/>
-      <c r="G264" s="95"/>
+      <c r="F264" s="98"/>
+      <c r="G264" s="99"/>
       <c r="H264" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I264" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J264" s="96" t="s">
+      <c r="J264" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="K264" s="97"/>
+      <c r="K264" s="101"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="34"/>
-      <c r="C265" s="92" t="s">
+      <c r="C265" s="96" t="s">
         <v>200</v>
       </c>
-      <c r="D265" s="93"/>
-      <c r="E265" s="94" t="s">
+      <c r="D265" s="97"/>
+      <c r="E265" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F265" s="94"/>
-      <c r="G265" s="95"/>
+      <c r="F265" s="98"/>
+      <c r="G265" s="99"/>
       <c r="H265" s="35" t="s">
         <v>202</v>
       </c>
       <c r="I265" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J265" s="96"/>
-      <c r="K265" s="97"/>
+      <c r="J265" s="100"/>
+      <c r="K265" s="101"/>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="37"/>
-      <c r="C266" s="66" t="s">
+      <c r="C266" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="D266" s="67"/>
-      <c r="E266" s="68" t="s">
+      <c r="D266" s="71"/>
+      <c r="E266" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="F266" s="68"/>
-      <c r="G266" s="69"/>
+      <c r="F266" s="72"/>
+      <c r="G266" s="73"/>
       <c r="H266" s="38" t="s">
         <v>232</v>
       </c>
       <c r="I266" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J266" s="70" t="s">
+      <c r="J266" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="K266" s="71"/>
+      <c r="K266" s="75"/>
     </row>
     <row r="267" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="72" t="s">
+      <c r="B267" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C267" s="73"/>
-      <c r="D267" s="73"/>
-      <c r="E267" s="73"/>
-      <c r="F267" s="73"/>
-      <c r="G267" s="73"/>
-      <c r="H267" s="73"/>
-      <c r="I267" s="73"/>
-      <c r="J267" s="73"/>
-      <c r="K267" s="74"/>
+      <c r="C267" s="77"/>
+      <c r="D267" s="77"/>
+      <c r="E267" s="77"/>
+      <c r="F267" s="77"/>
+      <c r="G267" s="77"/>
+      <c r="H267" s="77"/>
+      <c r="I267" s="77"/>
+      <c r="J267" s="77"/>
+      <c r="K267" s="78"/>
     </row>
     <row r="268" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C268" s="64" t="s">
+      <c r="C268" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="D268" s="64"/>
-      <c r="E268" s="64"/>
+      <c r="D268" s="68"/>
+      <c r="E268" s="68"/>
       <c r="F268" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G268" s="64"/>
-      <c r="H268" s="64"/>
-      <c r="I268" s="64"/>
+      <c r="G268" s="68"/>
+      <c r="H268" s="68"/>
+      <c r="I268" s="68"/>
       <c r="J268" s="23"/>
       <c r="K268" s="24"/>
     </row>
@@ -7511,8 +7707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFF0B08-A089-4295-A84F-AC3E6F929B03}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7529,14 +7725,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="98" t="s">
-        <v>244</v>
-      </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="B1" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
       <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7549,1308 +7745,1308 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="132"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="133" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="135"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="136" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="137"/>
-      <c r="G5" s="138"/>
+      <c r="B5" s="140" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="142"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="B6" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
       <c r="G6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94" t="s">
+      <c r="C7" s="97"/>
+      <c r="D7" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="60" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94" t="s">
+      <c r="C8" s="97"/>
+      <c r="D8" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94" t="s">
+      <c r="C9" s="97"/>
+      <c r="D9" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="140" t="s">
+      <c r="C10" s="147"/>
+      <c r="D10" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="145"/>
       <c r="G10" s="60" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="140" t="s">
+      <c r="C11" s="147"/>
+      <c r="D11" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="145"/>
       <c r="G11" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="95"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="140" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
       <c r="G13" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="140" t="s">
+      <c r="C14" s="147"/>
+      <c r="D14" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
       <c r="G14" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="140" t="s">
+      <c r="C15" s="147"/>
+      <c r="D15" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="140"/>
-      <c r="F15" s="141"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="145"/>
       <c r="G15" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="140" t="s">
+      <c r="C16" s="147"/>
+      <c r="D16" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="140"/>
-      <c r="F16" s="141"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="145"/>
       <c r="G16" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="126"/>
+      <c r="B17" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="127" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="129"/>
+      <c r="B18" s="131" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="134" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="136"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="137" t="s">
         <v>250</v>
       </c>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="132"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="133" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="136" t="s">
-        <v>309</v>
-      </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="138"/>
+      <c r="B23" s="140" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84" t="s">
+      <c r="B24" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94" t="s">
+      <c r="B25" s="127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="95"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="94" t="s">
+      <c r="C26" s="97"/>
+      <c r="D26" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="95"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="123" t="s">
+      <c r="B27" s="127" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94" t="s">
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="60" t="s">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="130"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="131" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="126"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="127" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="136"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="137" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="132"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="133" t="s">
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="139"/>
+    </row>
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="140" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="142"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="87"/>
+      <c r="D35" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="135"/>
-    </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="136" t="s">
-        <v>312</v>
-      </c>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="138"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="139" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="127" t="s">
+        <v>259</v>
+      </c>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94" t="s">
+      <c r="E36" s="98"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="131" t="s">
         <v>261</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="60" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="126"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="129"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="133"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="130" t="s">
+      <c r="B41" s="134" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="136"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="137" t="s">
         <v>263</v>
       </c>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="131"/>
-      <c r="G41" s="132"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="133" t="s">
-        <v>264</v>
-      </c>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="135"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="139"/>
     </row>
     <row r="43" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="136" t="s">
-        <v>311</v>
-      </c>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="138"/>
+      <c r="B43" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="142"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84" t="s">
+      <c r="B44" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="87"/>
+      <c r="D44" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
       <c r="G44" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="93"/>
-      <c r="D45" s="94" t="s">
+      <c r="C45" s="97"/>
+      <c r="D45" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="94"/>
-      <c r="F45" s="95"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="99"/>
       <c r="G45" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="93"/>
-      <c r="D46" s="94" t="s">
+      <c r="C46" s="97"/>
+      <c r="D46" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="95"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="99"/>
       <c r="G46" s="60" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="123" t="s">
+      <c r="B47" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="94" t="s">
+      <c r="C47" s="97"/>
+      <c r="D47" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="94"/>
-      <c r="F47" s="95"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="99"/>
       <c r="G47" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="142" t="s">
+      <c r="B48" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="140" t="s">
-        <v>268</v>
-      </c>
-      <c r="E48" s="140"/>
-      <c r="F48" s="141"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" s="144"/>
+      <c r="F48" s="145"/>
       <c r="G48" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="142" t="s">
+      <c r="B49" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="140" t="s">
-        <v>269</v>
-      </c>
-      <c r="E49" s="140"/>
-      <c r="F49" s="141"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="144" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" s="144"/>
+      <c r="F49" s="145"/>
       <c r="G49" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="123" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="94" t="s">
+      <c r="B50" s="127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="97"/>
+      <c r="D50" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="60" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="147"/>
+      <c r="D51" s="144" t="s">
         <v>270</v>
       </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="60" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="143"/>
-      <c r="D51" s="140" t="s">
-        <v>271</v>
-      </c>
-      <c r="E51" s="140"/>
-      <c r="F51" s="141"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="145"/>
       <c r="G51" s="60" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="142" t="s">
-        <v>266</v>
-      </c>
-      <c r="C52" s="143"/>
-      <c r="D52" s="140" t="s">
-        <v>272</v>
-      </c>
-      <c r="E52" s="140"/>
-      <c r="F52" s="141"/>
+      <c r="B52" s="146" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="147"/>
+      <c r="D52" s="144" t="s">
+        <v>271</v>
+      </c>
+      <c r="E52" s="144"/>
+      <c r="F52" s="145"/>
       <c r="G52" s="60" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="142" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" s="143"/>
-      <c r="D53" s="140" t="s">
-        <v>273</v>
-      </c>
-      <c r="E53" s="140"/>
-      <c r="F53" s="141"/>
+      <c r="B53" s="146" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="147"/>
+      <c r="D53" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="144"/>
+      <c r="F53" s="145"/>
       <c r="G53" s="60" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="130"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="131" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="126"/>
-    </row>
-    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="127" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="129"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="133"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="136"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="132"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="133" t="s">
-        <v>278</v>
-      </c>
-      <c r="C59" s="134"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="135"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="139"/>
     </row>
     <row r="60" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="136" t="s">
-        <v>313</v>
-      </c>
-      <c r="C60" s="137"/>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="138"/>
+      <c r="B60" s="140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C60" s="141"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="142"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="84" t="s">
+      <c r="B61" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="87"/>
+      <c r="D61" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="84"/>
-      <c r="F61" s="85"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="89"/>
       <c r="G61" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="94" t="s">
+      <c r="C62" s="97"/>
+      <c r="D62" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="94"/>
-      <c r="F62" s="95"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="99"/>
       <c r="G62" s="60" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="123" t="s">
+      <c r="B63" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="93"/>
-      <c r="D63" s="94" t="s">
+      <c r="C63" s="97"/>
+      <c r="D63" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="94"/>
-      <c r="F63" s="95"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="99"/>
       <c r="G63" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="142" t="s">
+      <c r="B64" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="140" t="s">
-        <v>268</v>
-      </c>
-      <c r="E64" s="140"/>
-      <c r="F64" s="141"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" s="144"/>
+      <c r="F64" s="145"/>
       <c r="G64" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="142" t="s">
+      <c r="B65" s="146" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="143"/>
-      <c r="D65" s="140" t="s">
-        <v>279</v>
-      </c>
-      <c r="E65" s="140"/>
-      <c r="F65" s="141"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="144" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" s="144"/>
+      <c r="F65" s="145"/>
       <c r="G65" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="126"/>
+      <c r="B66" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="130"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="129"/>
+      <c r="B67" s="131" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" s="132"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="133"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="130" t="s">
+      <c r="B70" s="134" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="135"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="135"/>
+      <c r="G70" s="136"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="C70" s="131"/>
-      <c r="D70" s="131"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="131"/>
-      <c r="G70" s="132"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="133" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="134"/>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
-      <c r="F71" s="134"/>
-      <c r="G71" s="135"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="138"/>
+      <c r="F71" s="138"/>
+      <c r="G71" s="139"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="136" t="s">
-        <v>314</v>
-      </c>
-      <c r="C72" s="137"/>
-      <c r="D72" s="137"/>
-      <c r="E72" s="137"/>
-      <c r="F72" s="137"/>
-      <c r="G72" s="138"/>
+      <c r="B72" s="140" t="s">
+        <v>313</v>
+      </c>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="142"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="139" t="s">
-        <v>248</v>
-      </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="84" t="s">
+      <c r="B73" s="143" t="s">
+        <v>247</v>
+      </c>
+      <c r="C73" s="87"/>
+      <c r="D73" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="E73" s="84"/>
-      <c r="F73" s="85"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="89"/>
       <c r="G73" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="123" t="s">
+      <c r="B74" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="93"/>
-      <c r="D74" s="94" t="s">
-        <v>283</v>
-      </c>
-      <c r="E74" s="94"/>
-      <c r="F74" s="95"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="E74" s="98"/>
+      <c r="F74" s="99"/>
       <c r="G74" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="123" t="s">
+      <c r="B75" s="127" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="93"/>
-      <c r="D75" s="94" t="s">
+      <c r="C75" s="97"/>
+      <c r="D75" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="94"/>
-      <c r="F75" s="95"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="99"/>
       <c r="G75" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="123" t="s">
+      <c r="B76" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="93"/>
-      <c r="D76" s="94" t="s">
+      <c r="C76" s="97"/>
+      <c r="D76" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="94"/>
-      <c r="F76" s="95"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="99"/>
       <c r="G76" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="142" t="s">
+      <c r="B77" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="143"/>
-      <c r="D77" s="94" t="s">
+      <c r="C77" s="147"/>
+      <c r="D77" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="94"/>
-      <c r="F77" s="95"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="99"/>
       <c r="G77" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="142" t="s">
+      <c r="B78" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="143"/>
-      <c r="D78" s="140" t="s">
+      <c r="C78" s="147"/>
+      <c r="D78" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="140"/>
-      <c r="F78" s="141"/>
+      <c r="E78" s="144"/>
+      <c r="F78" s="145"/>
       <c r="G78" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="123" t="s">
+      <c r="B79" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="93"/>
-      <c r="D79" s="140" t="s">
+      <c r="C79" s="97"/>
+      <c r="D79" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="140"/>
-      <c r="F79" s="141"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="145"/>
       <c r="G79" s="60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="142" t="s">
+      <c r="B80" s="146" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="140" t="s">
+      <c r="C80" s="147"/>
+      <c r="D80" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="E80" s="140"/>
-      <c r="F80" s="141"/>
+      <c r="E80" s="144"/>
+      <c r="F80" s="145"/>
       <c r="G80" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="142" t="s">
+      <c r="B81" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="143"/>
-      <c r="D81" s="140" t="s">
+      <c r="C81" s="147"/>
+      <c r="D81" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="140"/>
-      <c r="F81" s="141"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="145"/>
       <c r="G81" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="126"/>
+      <c r="B82" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" s="129"/>
+      <c r="D82" s="129"/>
+      <c r="E82" s="129"/>
+      <c r="F82" s="129"/>
+      <c r="G82" s="130"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="127" t="s">
-        <v>284</v>
-      </c>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="128"/>
-      <c r="G83" s="129"/>
+      <c r="B83" s="131" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="132"/>
+      <c r="D83" s="132"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="132"/>
+      <c r="G83" s="133"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="130" t="s">
+      <c r="B86" s="134" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" s="135"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="135"/>
+      <c r="F86" s="135"/>
+      <c r="G86" s="136"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="137" t="s">
         <v>285</v>
       </c>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="132"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="133" t="s">
+      <c r="C87" s="138"/>
+      <c r="D87" s="138"/>
+      <c r="E87" s="138"/>
+      <c r="F87" s="138"/>
+      <c r="G87" s="139"/>
+    </row>
+    <row r="88" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="140" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
+      <c r="G88" s="142"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C87" s="134"/>
-      <c r="D87" s="134"/>
-      <c r="E87" s="134"/>
-      <c r="F87" s="134"/>
-      <c r="G87" s="135"/>
-    </row>
-    <row r="88" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="136" t="s">
-        <v>315</v>
-      </c>
-      <c r="C88" s="137"/>
-      <c r="D88" s="137"/>
-      <c r="E88" s="137"/>
-      <c r="F88" s="137"/>
-      <c r="G88" s="138"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="139" t="s">
-        <v>287</v>
-      </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84" t="s">
+      <c r="C89" s="87"/>
+      <c r="D89" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="84"/>
-      <c r="F89" s="85"/>
+      <c r="E89" s="88"/>
+      <c r="F89" s="89"/>
       <c r="G89" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="123" t="s">
+      <c r="B90" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="93"/>
-      <c r="D90" s="94" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" s="94"/>
-      <c r="F90" s="95"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" s="98"/>
+      <c r="F90" s="99"/>
       <c r="G90" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="123" t="s">
+      <c r="B91" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="93"/>
-      <c r="D91" s="94" t="s">
+      <c r="C91" s="97"/>
+      <c r="D91" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" s="98"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="97"/>
+      <c r="D92" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="E91" s="94"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="60" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="C92" s="93"/>
-      <c r="D92" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="E92" s="94"/>
-      <c r="F92" s="95"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="99"/>
       <c r="G92" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="142" t="s">
+      <c r="B93" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="C93" s="143"/>
-      <c r="D93" s="94" t="s">
+      <c r="C93" s="147"/>
+      <c r="D93" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="94"/>
-      <c r="F93" s="95"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="99"/>
       <c r="G93" s="60" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="142" t="s">
+      <c r="B94" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="C94" s="143"/>
-      <c r="D94" s="140" t="s">
+      <c r="C94" s="147"/>
+      <c r="D94" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="140"/>
-      <c r="F94" s="141"/>
+      <c r="E94" s="144"/>
+      <c r="F94" s="145"/>
       <c r="G94" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="123" t="s">
+      <c r="B95" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="93"/>
-      <c r="D95" s="140" t="s">
+      <c r="C95" s="97"/>
+      <c r="D95" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="140"/>
-      <c r="F95" s="141"/>
+      <c r="E95" s="144"/>
+      <c r="F95" s="145"/>
       <c r="G95" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C96" s="125"/>
-      <c r="D96" s="125"/>
-      <c r="E96" s="125"/>
-      <c r="F96" s="125"/>
-      <c r="G96" s="126"/>
+      <c r="B96" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" s="129"/>
+      <c r="D96" s="129"/>
+      <c r="E96" s="129"/>
+      <c r="F96" s="129"/>
+      <c r="G96" s="130"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="127" t="s">
-        <v>292</v>
-      </c>
-      <c r="C97" s="128"/>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="129"/>
+      <c r="B97" s="131" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" s="132"/>
+      <c r="D97" s="132"/>
+      <c r="E97" s="132"/>
+      <c r="F97" s="132"/>
+      <c r="G97" s="133"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="130" t="s">
+      <c r="B100" s="134" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="135"/>
+      <c r="D100" s="135"/>
+      <c r="E100" s="135"/>
+      <c r="F100" s="135"/>
+      <c r="G100" s="136"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="131"/>
-      <c r="F100" s="131"/>
-      <c r="G100" s="132"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="133" t="s">
-        <v>294</v>
-      </c>
-      <c r="C101" s="134"/>
-      <c r="D101" s="134"/>
-      <c r="E101" s="134"/>
-      <c r="F101" s="134"/>
-      <c r="G101" s="135"/>
+      <c r="C101" s="138"/>
+      <c r="D101" s="138"/>
+      <c r="E101" s="138"/>
+      <c r="F101" s="138"/>
+      <c r="G101" s="139"/>
     </row>
     <row r="102" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="136" t="s">
-        <v>316</v>
-      </c>
-      <c r="C102" s="137"/>
-      <c r="D102" s="137"/>
-      <c r="E102" s="137"/>
-      <c r="F102" s="137"/>
-      <c r="G102" s="138"/>
+      <c r="B102" s="140" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="141"/>
+      <c r="D102" s="141"/>
+      <c r="E102" s="141"/>
+      <c r="F102" s="141"/>
+      <c r="G102" s="142"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="139" t="s">
-        <v>287</v>
-      </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="84" t="s">
+      <c r="B103" s="143" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="87"/>
+      <c r="D103" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="E103" s="84"/>
-      <c r="F103" s="85"/>
+      <c r="E103" s="88"/>
+      <c r="F103" s="89"/>
       <c r="G103" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="123" t="s">
+      <c r="B104" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="93"/>
-      <c r="D104" s="94" t="s">
+      <c r="C104" s="97"/>
+      <c r="D104" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="E104" s="98"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="60" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="127" t="s">
+        <v>144</v>
+      </c>
+      <c r="C105" s="97"/>
+      <c r="D105" s="98" t="s">
         <v>289</v>
       </c>
-      <c r="E104" s="94"/>
-      <c r="F104" s="95"/>
-      <c r="G104" s="60" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="C105" s="93"/>
-      <c r="D105" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="E105" s="94"/>
-      <c r="F105" s="95"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="99"/>
       <c r="G105" s="60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="123" t="s">
+      <c r="B106" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="93"/>
-      <c r="D106" s="140" t="s">
+      <c r="C106" s="97"/>
+      <c r="D106" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="E106" s="140"/>
-      <c r="F106" s="141"/>
+      <c r="E106" s="144"/>
+      <c r="F106" s="145"/>
       <c r="G106" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C107" s="125"/>
-      <c r="D107" s="125"/>
-      <c r="E107" s="125"/>
-      <c r="F107" s="125"/>
-      <c r="G107" s="126"/>
+      <c r="B107" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="129"/>
+      <c r="D107" s="129"/>
+      <c r="E107" s="129"/>
+      <c r="F107" s="129"/>
+      <c r="G107" s="130"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="127" t="s">
-        <v>292</v>
-      </c>
-      <c r="C108" s="128"/>
-      <c r="D108" s="128"/>
-      <c r="E108" s="128"/>
-      <c r="F108" s="128"/>
-      <c r="G108" s="129"/>
+      <c r="B108" s="131" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" s="132"/>
+      <c r="D108" s="132"/>
+      <c r="E108" s="132"/>
+      <c r="F108" s="132"/>
+      <c r="G108" s="133"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="130" t="s">
+      <c r="B111" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" s="135"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="135"/>
+      <c r="F111" s="135"/>
+      <c r="G111" s="136"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="C111" s="131"/>
-      <c r="D111" s="131"/>
-      <c r="E111" s="131"/>
-      <c r="F111" s="131"/>
-      <c r="G111" s="132"/>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="133" t="s">
+      <c r="C112" s="138"/>
+      <c r="D112" s="138"/>
+      <c r="E112" s="138"/>
+      <c r="F112" s="138"/>
+      <c r="G112" s="139"/>
+    </row>
+    <row r="113" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="140" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="141"/>
+      <c r="D113" s="141"/>
+      <c r="E113" s="141"/>
+      <c r="F113" s="141"/>
+      <c r="G113" s="142"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="143" t="s">
         <v>296</v>
       </c>
-      <c r="C112" s="134"/>
-      <c r="D112" s="134"/>
-      <c r="E112" s="134"/>
-      <c r="F112" s="134"/>
-      <c r="G112" s="135"/>
-    </row>
-    <row r="113" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="136" t="s">
-        <v>317</v>
-      </c>
-      <c r="C113" s="137"/>
-      <c r="D113" s="137"/>
-      <c r="E113" s="137"/>
-      <c r="F113" s="137"/>
-      <c r="G113" s="138"/>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="139" t="s">
+      <c r="C114" s="87"/>
+      <c r="D114" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="84" t="s">
+      <c r="E114" s="88"/>
+      <c r="F114" s="89"/>
+      <c r="G114" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="E114" s="84"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="59" t="s">
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="127" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="123" t="s">
+      <c r="C115" s="97"/>
+      <c r="D115" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="C115" s="93"/>
-      <c r="D115" s="94" t="s">
+      <c r="E115" s="98"/>
+      <c r="F115" s="99"/>
+      <c r="G115" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="E115" s="94"/>
-      <c r="F115" s="95"/>
-      <c r="G115" s="60" t="s">
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C116" s="129"/>
+      <c r="D116" s="129"/>
+      <c r="E116" s="129"/>
+      <c r="F116" s="129"/>
+      <c r="G116" s="130"/>
+    </row>
+    <row r="117" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="131" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C116" s="125"/>
-      <c r="D116" s="125"/>
-      <c r="E116" s="125"/>
-      <c r="F116" s="125"/>
-      <c r="G116" s="126"/>
-    </row>
-    <row r="117" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="127" t="s">
-        <v>303</v>
-      </c>
-      <c r="C117" s="128"/>
-      <c r="D117" s="128"/>
-      <c r="E117" s="128"/>
-      <c r="F117" s="128"/>
-      <c r="G117" s="129"/>
+      <c r="C117" s="132"/>
+      <c r="D117" s="132"/>
+      <c r="E117" s="132"/>
+      <c r="F117" s="132"/>
+      <c r="G117" s="133"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="119" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="130" t="s">
+      <c r="B120" s="134" t="s">
+        <v>303</v>
+      </c>
+      <c r="C120" s="135"/>
+      <c r="D120" s="135"/>
+      <c r="E120" s="135"/>
+      <c r="F120" s="135"/>
+      <c r="G120" s="136"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="137" t="s">
         <v>304</v>
       </c>
-      <c r="C120" s="131"/>
-      <c r="D120" s="131"/>
-      <c r="E120" s="131"/>
-      <c r="F120" s="131"/>
-      <c r="G120" s="132"/>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="133" t="s">
+      <c r="C121" s="138"/>
+      <c r="D121" s="138"/>
+      <c r="E121" s="138"/>
+      <c r="F121" s="138"/>
+      <c r="G121" s="139"/>
+    </row>
+    <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="140" t="s">
+        <v>317</v>
+      </c>
+      <c r="C122" s="141"/>
+      <c r="D122" s="141"/>
+      <c r="E122" s="141"/>
+      <c r="F122" s="141"/>
+      <c r="G122" s="142"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123" s="87"/>
+      <c r="D123" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="C121" s="134"/>
-      <c r="D121" s="134"/>
-      <c r="E121" s="134"/>
-      <c r="F121" s="134"/>
-      <c r="G121" s="135"/>
-    </row>
-    <row r="122" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="136" t="s">
-        <v>318</v>
-      </c>
-      <c r="C122" s="137"/>
-      <c r="D122" s="137"/>
-      <c r="E122" s="137"/>
-      <c r="F122" s="137"/>
-      <c r="G122" s="138"/>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="139" t="s">
-        <v>128</v>
-      </c>
-      <c r="C123" s="83"/>
-      <c r="D123" s="84" t="s">
-        <v>306</v>
-      </c>
-      <c r="E123" s="84"/>
-      <c r="F123" s="85"/>
+      <c r="E123" s="88"/>
+      <c r="F123" s="89"/>
       <c r="G123" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="123" t="s">
+      <c r="B124" s="127" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124" s="97"/>
+      <c r="D124" s="98" t="s">
         <v>300</v>
       </c>
-      <c r="C124" s="93"/>
-      <c r="D124" s="94" t="s">
-        <v>301</v>
-      </c>
-      <c r="E124" s="94"/>
-      <c r="F124" s="95"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="99"/>
       <c r="G124" s="60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C125" s="129"/>
+      <c r="D125" s="129"/>
+      <c r="E125" s="129"/>
+      <c r="F125" s="129"/>
+      <c r="G125" s="130"/>
+    </row>
+    <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="131" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="C125" s="125"/>
-      <c r="D125" s="125"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="125"/>
-      <c r="G125" s="126"/>
-    </row>
-    <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="127" t="s">
-        <v>308</v>
-      </c>
-      <c r="C126" s="128"/>
-      <c r="D126" s="128"/>
-      <c r="E126" s="128"/>
-      <c r="F126" s="128"/>
-      <c r="G126" s="129"/>
+      <c r="C126" s="132"/>
+      <c r="D126" s="132"/>
+      <c r="E126" s="132"/>
+      <c r="F126" s="132"/>
+      <c r="G126" s="133"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -9022,4 +9218,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E0E0E8-F671-4E51-A713-EC19D0B585DD}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="47"/>
+      <c r="B1" s="102" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48"/>
+      <c r="B3" s="134" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="136"/>
+    </row>
+    <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48"/>
+      <c r="B4" s="140" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="142"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="143" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="127" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="160" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="153" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="154"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="156"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="159"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="130"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="131" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="134" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="140" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="149" t="s">
+        <v>328</v>
+      </c>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="151"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="153" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="156"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="159"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="129"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="130"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="133"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="136"/>
+    </row>
+    <row r="24" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="149" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151" t="s">
+        <v>335</v>
+      </c>
+      <c r="E25" s="151"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="64" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="153" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="156"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="157" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="159"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="128" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="130"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="131" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mammoth-description.xlsx
+++ b/mammoth-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA04E463-F6E3-4421-A63B-B4F6A4611D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4320A005-D65C-463F-9311-5D8EED58FA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="341">
   <si>
     <t>Descripción de tablas</t>
   </si>
@@ -1052,6 +1052,15 @@
   </si>
   <si>
     <t>Stock de los productos</t>
+  </si>
+  <si>
+    <t>invoice_type (p_id_order)</t>
+  </si>
+  <si>
+    <t>Objetivo: obtener el tipo de factura a emitir en base al tipo de usuario de la orden asociada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order / user </t>
   </si>
 </sst>
 </file>
@@ -2382,17 +2391,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2402,15 +2410,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2439,16 +2438,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2459,23 +2448,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2488,52 +2473,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2548,16 +2545,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2579,7 +2585,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2899,7 +2908,7 @@
   </sheetPr>
   <dimension ref="A1:Q269"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A169" workbookViewId="0">
       <selection activeCell="O179" sqref="O179"/>
     </sheetView>
   </sheetViews>
@@ -2920,18 +2929,18 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
       <c r="L1" s="47"/>
       <c r="M1" s="57"/>
     </row>
@@ -2989,56 +2998,56 @@
       <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88" t="s">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
       <c r="H8" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="J8" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="91"/>
+      <c r="K8" s="87"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3048,23 +3057,23 @@
       <c r="B9" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98" t="s">
+      <c r="D9" s="89"/>
+      <c r="E9" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="35" t="s">
         <v>63</v>
       </c>
       <c r="I9" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -3072,105 +3081,105 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="34"/>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I10" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="100"/>
-      <c r="K10" s="101"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98" t="s">
+      <c r="D11" s="89"/>
+      <c r="E11" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="99"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="98" t="s">
+      <c r="D12" s="89"/>
+      <c r="E12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="101"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="98"/>
-      <c r="G13" s="99"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98" t="s">
+      <c r="D14" s="89"/>
+      <c r="E14" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="99"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
       <c r="H14" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I14" s="36"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
       <c r="M14" s="46"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
@@ -3179,46 +3188,46 @@
       <c r="B15" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98" t="s">
+      <c r="D15" s="89"/>
+      <c r="E15" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="99"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
       <c r="H15" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="35" t="s">
         <v>216</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="101"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
@@ -3227,105 +3236,105 @@
       <c r="B17" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98" t="s">
+      <c r="D17" s="89"/>
+      <c r="E17" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I17" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="100" t="s">
+      <c r="J17" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="101"/>
+      <c r="K17" s="93"/>
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="34"/>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98" t="s">
+      <c r="D18" s="89"/>
+      <c r="E18" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
       <c r="H18" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72" t="s">
+      <c r="D19" s="70"/>
+      <c r="E19" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="75"/>
+      <c r="K19" s="74"/>
     </row>
     <row r="20" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="78"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
       <c r="F21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="8"/>
       <c r="K21" s="20"/>
     </row>
@@ -3355,108 +3364,108 @@
       <c r="A25" s="48">
         <v>2</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="82"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="78"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88" t="s">
+      <c r="D27" s="83"/>
+      <c r="E27" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="90" t="s">
+      <c r="J27" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K27" s="91"/>
+      <c r="K27" s="87"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="70" t="s">
+      <c r="C28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
       <c r="H28" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J28" s="74" t="s">
+      <c r="J28" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="75"/>
+      <c r="K28" s="74"/>
     </row>
     <row r="29" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="124"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
       <c r="J30" s="8"/>
       <c r="K30" s="20"/>
     </row>
@@ -3464,19 +3473,19 @@
       <c r="B31" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="9"/>
       <c r="K31" s="27"/>
     </row>
@@ -3506,108 +3515,108 @@
       <c r="A35" s="48">
         <v>3</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="82"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="85"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="88" t="s">
+      <c r="D37" s="83"/>
+      <c r="E37" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="89"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
       <c r="H37" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="90" t="s">
+      <c r="J37" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K37" s="91"/>
+      <c r="K37" s="87"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="98" t="s">
+      <c r="D38" s="89"/>
+      <c r="E38" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="98"/>
-      <c r="G38" s="99"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
       <c r="H38" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I38" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="100"/>
-      <c r="K38" s="101"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="93"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
-      <c r="C39" s="70" t="s">
+      <c r="C39" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="72" t="s">
+      <c r="D39" s="70"/>
+      <c r="E39" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="38" t="s">
         <v>50</v>
       </c>
       <c r="I39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="74"/>
     </row>
     <row r="40" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="106"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="98"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3615,108 +3624,108 @@
       <c r="A43" s="48">
         <v>4</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="82"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="78"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="84"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="85"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="87"/>
-      <c r="E45" s="88" t="s">
+      <c r="D45" s="83"/>
+      <c r="E45" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="88"/>
-      <c r="G45" s="89"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="85"/>
       <c r="H45" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I45" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="90" t="s">
+      <c r="J45" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K45" s="91"/>
+      <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="70" t="s">
+      <c r="C46" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72" t="s">
+      <c r="D46" s="70"/>
+      <c r="E46" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="74" t="s">
+      <c r="J46" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="K46" s="75"/>
+      <c r="K46" s="74"/>
     </row>
     <row r="47" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="95"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="124"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
       <c r="J48" s="8"/>
       <c r="K48" s="20"/>
     </row>
@@ -3724,19 +3733,19 @@
       <c r="B49" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
       <c r="J49" s="9"/>
       <c r="K49" s="27"/>
     </row>
@@ -3766,88 +3775,88 @@
       <c r="A53" s="55">
         <v>5</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="82"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="78"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="85"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="81"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="87"/>
-      <c r="E55" s="88" t="s">
+      <c r="D55" s="83"/>
+      <c r="E55" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="88"/>
-      <c r="G55" s="89"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I55" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="90" t="s">
+      <c r="J55" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K55" s="91"/>
+      <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="37"/>
-      <c r="C56" s="70" t="s">
+      <c r="C56" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="72" t="s">
+      <c r="D56" s="70"/>
+      <c r="E56" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
       <c r="H56" s="38" t="s">
         <v>25</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J56" s="74"/>
-      <c r="K56" s="75"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="74"/>
     </row>
     <row r="57" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="104"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="106"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="98"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3855,136 +3864,136 @@
       <c r="A60" s="55">
         <v>6</v>
       </c>
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="82"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="78"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
-      <c r="K61" s="85"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="80"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="81"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="86" t="s">
+      <c r="C62" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="87"/>
-      <c r="E62" s="88" t="s">
+      <c r="D62" s="83"/>
+      <c r="E62" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="88"/>
-      <c r="G62" s="89"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I62" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="90" t="s">
+      <c r="J62" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K62" s="91"/>
+      <c r="K62" s="87"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="34"/>
-      <c r="C63" s="96" t="s">
+      <c r="C63" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="97"/>
-      <c r="E63" s="98" t="s">
+      <c r="D63" s="89"/>
+      <c r="E63" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="98"/>
-      <c r="G63" s="99"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="35" t="s">
         <v>237</v>
       </c>
       <c r="I63" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J63" s="100"/>
-      <c r="K63" s="101"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="93"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="96" t="s">
+      <c r="C64" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="97"/>
-      <c r="E64" s="98" t="s">
+      <c r="D64" s="89"/>
+      <c r="E64" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="F64" s="98"/>
-      <c r="G64" s="99"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I64" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J64" s="100" t="s">
+      <c r="J64" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K64" s="101"/>
+      <c r="K64" s="93"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" s="37"/>
-      <c r="C65" s="70" t="s">
+      <c r="C65" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D65" s="71"/>
-      <c r="E65" s="72" t="s">
+      <c r="D65" s="70"/>
+      <c r="E65" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="72"/>
-      <c r="G65" s="73"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="72"/>
       <c r="H65" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I65" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J65" s="74" t="s">
+      <c r="J65" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="K65" s="75"/>
+      <c r="K65" s="74"/>
     </row>
     <row r="66" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="78"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="67"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="21" t="s">
@@ -4012,114 +4021,114 @@
       <c r="A70" s="55">
         <v>7</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="81"/>
-      <c r="K70" s="82"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="78"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="83" t="s">
+      <c r="B71" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="85"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="81"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="86" t="s">
+      <c r="C72" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="88" t="s">
+      <c r="D72" s="83"/>
+      <c r="E72" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="88"/>
-      <c r="G72" s="89"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="85"/>
       <c r="H72" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I72" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="90" t="s">
+      <c r="J72" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K72" s="91"/>
+      <c r="K72" s="87"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="34"/>
-      <c r="C73" s="96" t="s">
+      <c r="C73" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="97"/>
-      <c r="E73" s="98" t="s">
+      <c r="D73" s="89"/>
+      <c r="E73" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="98"/>
-      <c r="G73" s="99"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="91"/>
       <c r="H73" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I73" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="100"/>
-      <c r="K73" s="101"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="93"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C74" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="71"/>
-      <c r="E74" s="72" t="s">
+      <c r="D74" s="70"/>
+      <c r="E74" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="72"/>
-      <c r="G74" s="73"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
       <c r="H74" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I74" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="74" t="s">
+      <c r="J74" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="K74" s="75"/>
+      <c r="K74" s="74"/>
     </row>
     <row r="75" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="76" t="s">
+      <c r="B75" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="78"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="67"/>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="21" t="s">
@@ -4147,152 +4156,152 @@
       <c r="A79" s="55">
         <v>8</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="81"/>
-      <c r="K79" s="82"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
+      <c r="I79" s="76"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="78"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="83" t="s">
+      <c r="B80" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="85"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
+      <c r="I80" s="80"/>
+      <c r="J80" s="80"/>
+      <c r="K80" s="81"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="87"/>
-      <c r="E81" s="88" t="s">
+      <c r="D81" s="83"/>
+      <c r="E81" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="F81" s="88"/>
-      <c r="G81" s="89"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="85"/>
       <c r="H81" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I81" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J81" s="90" t="s">
+      <c r="J81" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K81" s="91"/>
+      <c r="K81" s="87"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C82" s="96" t="s">
+      <c r="C82" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="97"/>
-      <c r="E82" s="98" t="s">
+      <c r="D82" s="89"/>
+      <c r="E82" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="F82" s="98"/>
-      <c r="G82" s="99"/>
+      <c r="F82" s="90"/>
+      <c r="G82" s="91"/>
       <c r="H82" s="35" t="s">
         <v>234</v>
       </c>
       <c r="I82" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J82" s="100"/>
-      <c r="K82" s="101"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="93"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" s="34"/>
-      <c r="C83" s="96" t="s">
+      <c r="C83" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="97"/>
-      <c r="E83" s="98" t="s">
+      <c r="D83" s="89"/>
+      <c r="E83" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="98"/>
-      <c r="G83" s="99"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="91"/>
       <c r="H83" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I83" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="100"/>
-      <c r="K83" s="101"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="93"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="107" t="s">
+      <c r="C84" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="D84" s="108"/>
-      <c r="E84" s="109" t="s">
+      <c r="D84" s="117"/>
+      <c r="E84" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="109"/>
-      <c r="G84" s="110"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="119"/>
       <c r="H84" s="41" t="s">
         <v>1</v>
       </c>
       <c r="I84" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="J84" s="111" t="s">
+      <c r="J84" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="K84" s="112"/>
+      <c r="K84" s="121"/>
     </row>
     <row r="85" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="65" t="s">
+      <c r="B85" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="67"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="114"/>
+      <c r="G85" s="114"/>
+      <c r="H85" s="114"/>
+      <c r="I85" s="114"/>
+      <c r="J85" s="114"/>
+      <c r="K85" s="115"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C86" s="69" t="s">
+      <c r="C86" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
       <c r="F86" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G86" s="69"/>
-      <c r="H86" s="69"/>
-      <c r="I86" s="69"/>
+      <c r="G86" s="94"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94"/>
       <c r="J86" s="8"/>
       <c r="K86" s="20"/>
     </row>
@@ -4322,112 +4331,112 @@
       <c r="A90" s="55">
         <v>9</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="80"/>
-      <c r="G90" s="80"/>
-      <c r="H90" s="80"/>
-      <c r="I90" s="80"/>
-      <c r="J90" s="81"/>
-      <c r="K90" s="82"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="78"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="83" t="s">
+      <c r="B91" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C91" s="84"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="84"/>
-      <c r="G91" s="84"/>
-      <c r="H91" s="84"/>
-      <c r="I91" s="84"/>
-      <c r="J91" s="84"/>
-      <c r="K91" s="85"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="80"/>
+      <c r="I91" s="80"/>
+      <c r="J91" s="80"/>
+      <c r="K91" s="81"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="86" t="s">
+      <c r="C92" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D92" s="87"/>
-      <c r="E92" s="88" t="s">
+      <c r="D92" s="83"/>
+      <c r="E92" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="88"/>
-      <c r="G92" s="89"/>
+      <c r="F92" s="84"/>
+      <c r="G92" s="85"/>
       <c r="H92" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J92" s="90" t="s">
+      <c r="J92" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K92" s="91"/>
+      <c r="K92" s="87"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="96" t="s">
+      <c r="C93" s="88" t="s">
         <v>236</v>
       </c>
-      <c r="D93" s="97"/>
-      <c r="E93" s="98" t="s">
+      <c r="D93" s="89"/>
+      <c r="E93" s="90" t="s">
         <v>238</v>
       </c>
-      <c r="F93" s="98"/>
-      <c r="G93" s="99"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="91"/>
       <c r="H93" s="35" t="s">
         <v>239</v>
       </c>
       <c r="I93" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J93" s="100"/>
-      <c r="K93" s="101"/>
+      <c r="J93" s="92"/>
+      <c r="K93" s="93"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" s="37"/>
-      <c r="C94" s="70" t="s">
+      <c r="C94" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D94" s="71"/>
-      <c r="E94" s="72" t="s">
+      <c r="D94" s="70"/>
+      <c r="E94" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F94" s="72"/>
-      <c r="G94" s="73"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="72"/>
       <c r="H94" s="38" t="s">
         <v>24</v>
       </c>
       <c r="I94" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="74"/>
-      <c r="K94" s="75"/>
+      <c r="J94" s="73"/>
+      <c r="K94" s="74"/>
     </row>
     <row r="95" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="65" t="s">
+      <c r="B95" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="67"/>
+      <c r="C95" s="114"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
+      <c r="H95" s="114"/>
+      <c r="I95" s="114"/>
+      <c r="J95" s="114"/>
+      <c r="K95" s="115"/>
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="21" t="s">
@@ -4453,116 +4462,116 @@
       <c r="A99" s="48">
         <v>10</v>
       </c>
-      <c r="B99" s="79" t="s">
+      <c r="B99" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C99" s="80"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="80"/>
-      <c r="I99" s="80"/>
-      <c r="J99" s="81"/>
-      <c r="K99" s="82"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="78"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="83" t="s">
+      <c r="B100" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C100" s="84"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
-      <c r="G100" s="84"/>
-      <c r="H100" s="84"/>
-      <c r="I100" s="84"/>
-      <c r="J100" s="84"/>
-      <c r="K100" s="85"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="80"/>
+      <c r="H100" s="80"/>
+      <c r="I100" s="80"/>
+      <c r="J100" s="80"/>
+      <c r="K100" s="81"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="86" t="s">
+      <c r="C101" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="87"/>
-      <c r="E101" s="88" t="s">
+      <c r="D101" s="83"/>
+      <c r="E101" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="88"/>
-      <c r="G101" s="89"/>
+      <c r="F101" s="84"/>
+      <c r="G101" s="85"/>
       <c r="H101" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I101" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J101" s="90" t="s">
+      <c r="J101" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K101" s="91"/>
+      <c r="K101" s="87"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="96" t="s">
+      <c r="C102" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="97"/>
-      <c r="E102" s="98" t="s">
+      <c r="D102" s="89"/>
+      <c r="E102" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F102" s="98"/>
-      <c r="G102" s="99"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="91"/>
       <c r="H102" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I102" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="100" t="s">
+      <c r="J102" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K102" s="101"/>
+      <c r="K102" s="93"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" s="37"/>
-      <c r="C103" s="70" t="s">
+      <c r="C103" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D103" s="71"/>
-      <c r="E103" s="72" t="s">
+      <c r="D103" s="70"/>
+      <c r="E103" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F103" s="72"/>
-      <c r="G103" s="73"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="72"/>
       <c r="H103" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I103" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J103" s="74" t="s">
+      <c r="J103" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="K103" s="75"/>
+      <c r="K103" s="74"/>
     </row>
     <row r="104" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="76" t="s">
+      <c r="B104" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="78"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="67"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="21" t="s">
@@ -4589,130 +4598,130 @@
       <c r="A108" s="48">
         <v>11</v>
       </c>
-      <c r="B108" s="79" t="s">
+      <c r="B108" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C108" s="80"/>
-      <c r="D108" s="80"/>
-      <c r="E108" s="80"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="80"/>
-      <c r="H108" s="80"/>
-      <c r="I108" s="80"/>
-      <c r="J108" s="81"/>
-      <c r="K108" s="82"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="78"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="83" t="s">
+      <c r="B109" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C109" s="84"/>
-      <c r="D109" s="84"/>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
-      <c r="G109" s="84"/>
-      <c r="H109" s="84"/>
-      <c r="I109" s="84"/>
-      <c r="J109" s="84"/>
-      <c r="K109" s="85"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
+      <c r="I109" s="80"/>
+      <c r="J109" s="80"/>
+      <c r="K109" s="81"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="86" t="s">
+      <c r="C110" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D110" s="87"/>
-      <c r="E110" s="88" t="s">
+      <c r="D110" s="83"/>
+      <c r="E110" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="F110" s="88"/>
-      <c r="G110" s="89"/>
+      <c r="F110" s="84"/>
+      <c r="G110" s="85"/>
       <c r="H110" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I110" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J110" s="113" t="s">
+      <c r="J110" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="K110" s="114"/>
+      <c r="K110" s="104"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="96" t="s">
+      <c r="C111" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="97"/>
-      <c r="E111" s="98" t="s">
+      <c r="D111" s="89"/>
+      <c r="E111" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="F111" s="98"/>
-      <c r="G111" s="99"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="91"/>
       <c r="H111" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I111" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J111" s="115" t="s">
+      <c r="J111" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="K111" s="116"/>
+      <c r="K111" s="106"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" s="37"/>
-      <c r="C112" s="70" t="s">
+      <c r="C112" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="D112" s="71"/>
-      <c r="E112" s="72" t="s">
+      <c r="D112" s="70"/>
+      <c r="E112" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F112" s="72"/>
-      <c r="G112" s="73"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="72"/>
       <c r="H112" s="38" t="s">
         <v>127</v>
       </c>
       <c r="I112" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J112" s="117" t="s">
+      <c r="J112" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="K112" s="118"/>
+      <c r="K112" s="112"/>
     </row>
     <row r="113" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="76" t="s">
+      <c r="B113" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="78"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="67"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B114" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C114" s="92" t="s">
+      <c r="C114" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="92"/>
-      <c r="E114" s="92"/>
+      <c r="D114" s="95"/>
+      <c r="E114" s="95"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="92"/>
-      <c r="H114" s="92"/>
-      <c r="I114" s="92"/>
+      <c r="G114" s="95"/>
+      <c r="H114" s="95"/>
+      <c r="I114" s="95"/>
       <c r="J114" s="8"/>
       <c r="K114" s="20"/>
     </row>
@@ -4720,19 +4729,19 @@
       <c r="B115" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="69" t="s">
+      <c r="C115" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="94"/>
       <c r="F115" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G115" s="69" t="s">
+      <c r="G115" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="H115" s="69"/>
-      <c r="I115" s="69"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="94"/>
       <c r="J115" s="10" t="s">
         <v>215</v>
       </c>
@@ -4766,344 +4775,344 @@
       <c r="A119" s="55">
         <v>12</v>
       </c>
-      <c r="B119" s="79" t="s">
+      <c r="B119" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C119" s="80"/>
-      <c r="D119" s="80"/>
-      <c r="E119" s="80"/>
-      <c r="F119" s="80"/>
-      <c r="G119" s="80"/>
-      <c r="H119" s="80"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="81"/>
-      <c r="K119" s="82"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="77"/>
+      <c r="K119" s="78"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="83" t="s">
+      <c r="B120" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="84"/>
-      <c r="D120" s="84"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="84"/>
-      <c r="H120" s="84"/>
-      <c r="I120" s="84"/>
-      <c r="J120" s="84"/>
-      <c r="K120" s="85"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="80"/>
+      <c r="G120" s="80"/>
+      <c r="H120" s="80"/>
+      <c r="I120" s="80"/>
+      <c r="J120" s="80"/>
+      <c r="K120" s="81"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B121" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="86" t="s">
+      <c r="C121" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="87"/>
-      <c r="E121" s="88" t="s">
+      <c r="D121" s="83"/>
+      <c r="E121" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="F121" s="88"/>
-      <c r="G121" s="89"/>
+      <c r="F121" s="84"/>
+      <c r="G121" s="85"/>
       <c r="H121" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I121" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J121" s="90" t="s">
+      <c r="J121" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K121" s="91"/>
+      <c r="K121" s="87"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B122" s="34"/>
-      <c r="C122" s="96" t="s">
+      <c r="C122" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="D122" s="97"/>
-      <c r="E122" s="98" t="s">
+      <c r="D122" s="89"/>
+      <c r="E122" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F122" s="98"/>
-      <c r="G122" s="99"/>
+      <c r="F122" s="90"/>
+      <c r="G122" s="91"/>
       <c r="H122" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I122" s="36"/>
-      <c r="J122" s="100"/>
-      <c r="K122" s="101"/>
+      <c r="J122" s="92"/>
+      <c r="K122" s="93"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B123" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C123" s="96" t="s">
+      <c r="C123" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D123" s="97"/>
-      <c r="E123" s="98" t="s">
+      <c r="D123" s="89"/>
+      <c r="E123" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="F123" s="98"/>
-      <c r="G123" s="99"/>
+      <c r="F123" s="90"/>
+      <c r="G123" s="91"/>
       <c r="H123" s="35" t="s">
         <v>240</v>
       </c>
       <c r="I123" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J123" s="100"/>
-      <c r="K123" s="101"/>
+      <c r="J123" s="92"/>
+      <c r="K123" s="93"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B124" s="34"/>
-      <c r="C124" s="96" t="s">
+      <c r="C124" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="D124" s="97"/>
-      <c r="E124" s="98" t="s">
+      <c r="D124" s="89"/>
+      <c r="E124" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="F124" s="98"/>
-      <c r="G124" s="99"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="91"/>
       <c r="H124" s="35" t="s">
         <v>124</v>
       </c>
       <c r="I124" s="36"/>
-      <c r="J124" s="100"/>
-      <c r="K124" s="101"/>
+      <c r="J124" s="92"/>
+      <c r="K124" s="93"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="96" t="s">
+      <c r="C125" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="D125" s="97"/>
-      <c r="E125" s="98" t="s">
+      <c r="D125" s="89"/>
+      <c r="E125" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="F125" s="98"/>
-      <c r="G125" s="99"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="91"/>
       <c r="H125" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I125" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J125" s="100" t="s">
+      <c r="J125" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K125" s="101"/>
+      <c r="K125" s="93"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="96" t="s">
+      <c r="C126" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D126" s="97"/>
-      <c r="E126" s="98" t="s">
+      <c r="D126" s="89"/>
+      <c r="E126" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="F126" s="98"/>
-      <c r="G126" s="99"/>
+      <c r="F126" s="90"/>
+      <c r="G126" s="91"/>
       <c r="H126" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I126" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J126" s="100" t="s">
+      <c r="J126" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K126" s="101"/>
+      <c r="K126" s="93"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="96" t="s">
+      <c r="C127" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="D127" s="97"/>
-      <c r="E127" s="98" t="s">
+      <c r="D127" s="89"/>
+      <c r="E127" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="F127" s="98"/>
-      <c r="G127" s="99"/>
+      <c r="F127" s="90"/>
+      <c r="G127" s="91"/>
       <c r="H127" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I127" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J127" s="100" t="s">
+      <c r="J127" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K127" s="101"/>
+      <c r="K127" s="93"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="96" t="s">
+      <c r="C128" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="97"/>
-      <c r="E128" s="98" t="s">
+      <c r="D128" s="89"/>
+      <c r="E128" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="F128" s="98"/>
-      <c r="G128" s="99"/>
+      <c r="F128" s="90"/>
+      <c r="G128" s="91"/>
       <c r="H128" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I128" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J128" s="100" t="s">
+      <c r="J128" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K128" s="101"/>
+      <c r="K128" s="93"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
-      <c r="C129" s="96" t="s">
+      <c r="C129" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="D129" s="97"/>
-      <c r="E129" s="98" t="s">
+      <c r="D129" s="89"/>
+      <c r="E129" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="F129" s="98"/>
-      <c r="G129" s="99"/>
+      <c r="F129" s="90"/>
+      <c r="G129" s="91"/>
       <c r="H129" s="35" t="s">
         <v>224</v>
       </c>
       <c r="I129" s="36"/>
-      <c r="J129" s="100"/>
-      <c r="K129" s="101"/>
+      <c r="J129" s="92"/>
+      <c r="K129" s="93"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
-      <c r="C130" s="96" t="s">
+      <c r="C130" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="D130" s="97"/>
-      <c r="E130" s="98" t="s">
+      <c r="D130" s="89"/>
+      <c r="E130" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F130" s="98"/>
-      <c r="G130" s="99"/>
+      <c r="F130" s="90"/>
+      <c r="G130" s="91"/>
       <c r="H130" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I130" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J130" s="100"/>
-      <c r="K130" s="101"/>
+      <c r="J130" s="92"/>
+      <c r="K130" s="93"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
-      <c r="C131" s="96" t="s">
+      <c r="C131" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="D131" s="97"/>
-      <c r="E131" s="98" t="s">
+      <c r="D131" s="89"/>
+      <c r="E131" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F131" s="98"/>
-      <c r="G131" s="99"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="91"/>
       <c r="H131" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I131" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J131" s="100" t="s">
+      <c r="J131" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="K131" s="101"/>
+      <c r="K131" s="93"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B132" s="34"/>
-      <c r="C132" s="96" t="s">
+      <c r="C132" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D132" s="97"/>
-      <c r="E132" s="98" t="s">
+      <c r="D132" s="89"/>
+      <c r="E132" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="F132" s="98"/>
-      <c r="G132" s="99"/>
+      <c r="F132" s="90"/>
+      <c r="G132" s="91"/>
       <c r="H132" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I132" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J132" s="100" t="s">
+      <c r="J132" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="K132" s="101"/>
+      <c r="K132" s="93"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B133" s="37"/>
-      <c r="C133" s="70" t="s">
+      <c r="C133" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D133" s="71"/>
-      <c r="E133" s="72" t="s">
+      <c r="D133" s="70"/>
+      <c r="E133" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F133" s="72"/>
-      <c r="G133" s="73"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="72"/>
       <c r="H133" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I133" s="39"/>
-      <c r="J133" s="119" t="s">
+      <c r="J133" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="K133" s="120"/>
+      <c r="K133" s="110"/>
     </row>
     <row r="134" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="76" t="s">
+      <c r="B134" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="77"/>
-      <c r="G134" s="77"/>
-      <c r="H134" s="77"/>
-      <c r="I134" s="77"/>
-      <c r="J134" s="77"/>
-      <c r="K134" s="78"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="66"/>
+      <c r="E134" s="66"/>
+      <c r="F134" s="66"/>
+      <c r="G134" s="66"/>
+      <c r="H134" s="66"/>
+      <c r="I134" s="66"/>
+      <c r="J134" s="66"/>
+      <c r="K134" s="67"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B135" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C135" s="69" t="s">
+      <c r="C135" s="94" t="s">
         <v>218</v>
       </c>
-      <c r="D135" s="69"/>
-      <c r="E135" s="69"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="94"/>
       <c r="F135" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G135" s="69" t="s">
+      <c r="G135" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="H135" s="69"/>
-      <c r="I135" s="69"/>
+      <c r="H135" s="94"/>
+      <c r="I135" s="94"/>
       <c r="J135" s="9"/>
       <c r="K135" s="27"/>
     </row>
@@ -5111,19 +5120,19 @@
       <c r="B136" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C136" s="69" t="s">
+      <c r="C136" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D136" s="69"/>
-      <c r="E136" s="69"/>
+      <c r="D136" s="94"/>
+      <c r="E136" s="94"/>
       <c r="F136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G136" s="69" t="s">
+      <c r="G136" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="H136" s="69"/>
-      <c r="I136" s="69"/>
+      <c r="H136" s="94"/>
+      <c r="I136" s="94"/>
       <c r="J136" s="9"/>
       <c r="K136" s="27"/>
     </row>
@@ -5131,19 +5140,19 @@
       <c r="B137" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C137" s="69" t="s">
+      <c r="C137" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D137" s="69"/>
-      <c r="E137" s="69"/>
+      <c r="D137" s="94"/>
+      <c r="E137" s="94"/>
       <c r="F137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G137" s="69" t="s">
+      <c r="G137" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="H137" s="69"/>
-      <c r="I137" s="69"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="94"/>
       <c r="J137" s="9"/>
       <c r="K137" s="27"/>
     </row>
@@ -5173,108 +5182,108 @@
       <c r="A141" s="48">
         <v>13</v>
       </c>
-      <c r="B141" s="79" t="s">
+      <c r="B141" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="C141" s="80"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="80"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="80"/>
-      <c r="H141" s="80"/>
-      <c r="I141" s="80"/>
-      <c r="J141" s="81"/>
-      <c r="K141" s="82"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="78"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B142" s="83" t="s">
+      <c r="B142" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C142" s="84"/>
-      <c r="D142" s="84"/>
-      <c r="E142" s="84"/>
-      <c r="F142" s="84"/>
-      <c r="G142" s="84"/>
-      <c r="H142" s="84"/>
-      <c r="I142" s="84"/>
-      <c r="J142" s="84"/>
-      <c r="K142" s="85"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+      <c r="H142" s="80"/>
+      <c r="I142" s="80"/>
+      <c r="J142" s="80"/>
+      <c r="K142" s="81"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="86" t="s">
+      <c r="C143" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="D143" s="87"/>
-      <c r="E143" s="88" t="s">
+      <c r="D143" s="83"/>
+      <c r="E143" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F143" s="88"/>
-      <c r="G143" s="89"/>
+      <c r="F143" s="84"/>
+      <c r="G143" s="85"/>
       <c r="H143" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I143" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J143" s="90" t="s">
+      <c r="J143" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K143" s="91"/>
+      <c r="K143" s="87"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" s="34"/>
-      <c r="C144" s="96" t="s">
+      <c r="C144" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="D144" s="97"/>
-      <c r="E144" s="98" t="s">
+      <c r="D144" s="89"/>
+      <c r="E144" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F144" s="98"/>
-      <c r="G144" s="99"/>
+      <c r="F144" s="90"/>
+      <c r="G144" s="91"/>
       <c r="H144" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I144" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J144" s="100"/>
-      <c r="K144" s="101"/>
+      <c r="J144" s="92"/>
+      <c r="K144" s="93"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" s="37"/>
-      <c r="C145" s="70" t="s">
+      <c r="C145" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="71"/>
-      <c r="E145" s="72" t="s">
+      <c r="D145" s="70"/>
+      <c r="E145" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="F145" s="72"/>
-      <c r="G145" s="73"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="72"/>
       <c r="H145" s="38" t="s">
         <v>50</v>
       </c>
       <c r="I145" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J145" s="74"/>
-      <c r="K145" s="75"/>
+      <c r="J145" s="73"/>
+      <c r="K145" s="74"/>
     </row>
     <row r="146" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="104"/>
-      <c r="C146" s="105"/>
-      <c r="D146" s="105"/>
-      <c r="E146" s="105"/>
-      <c r="F146" s="105"/>
-      <c r="G146" s="105"/>
-      <c r="H146" s="105"/>
-      <c r="I146" s="105"/>
-      <c r="J146" s="105"/>
-      <c r="K146" s="106"/>
+      <c r="B146" s="96"/>
+      <c r="C146" s="97"/>
+      <c r="D146" s="97"/>
+      <c r="E146" s="97"/>
+      <c r="F146" s="97"/>
+      <c r="G146" s="97"/>
+      <c r="H146" s="97"/>
+      <c r="I146" s="97"/>
+      <c r="J146" s="97"/>
+      <c r="K146" s="98"/>
     </row>
     <row r="147" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5282,88 +5291,88 @@
       <c r="A149" s="48">
         <v>14</v>
       </c>
-      <c r="B149" s="79" t="s">
+      <c r="B149" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="C149" s="80"/>
-      <c r="D149" s="80"/>
-      <c r="E149" s="80"/>
-      <c r="F149" s="80"/>
-      <c r="G149" s="80"/>
-      <c r="H149" s="80"/>
-      <c r="I149" s="80"/>
-      <c r="J149" s="81"/>
-      <c r="K149" s="82"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="76"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="76"/>
+      <c r="H149" s="76"/>
+      <c r="I149" s="76"/>
+      <c r="J149" s="77"/>
+      <c r="K149" s="78"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="83" t="s">
+      <c r="B150" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="C150" s="84"/>
-      <c r="D150" s="84"/>
-      <c r="E150" s="84"/>
-      <c r="F150" s="84"/>
-      <c r="G150" s="84"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
-      <c r="K150" s="85"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
+      <c r="K150" s="81"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C151" s="86" t="s">
+      <c r="C151" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="D151" s="87"/>
-      <c r="E151" s="88" t="s">
+      <c r="D151" s="83"/>
+      <c r="E151" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="F151" s="88"/>
-      <c r="G151" s="89"/>
+      <c r="F151" s="84"/>
+      <c r="G151" s="85"/>
       <c r="H151" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I151" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J151" s="90" t="s">
+      <c r="J151" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K151" s="91"/>
+      <c r="K151" s="87"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" s="37"/>
-      <c r="C152" s="70" t="s">
+      <c r="C152" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D152" s="71"/>
-      <c r="E152" s="72" t="s">
+      <c r="D152" s="70"/>
+      <c r="E152" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="F152" s="72"/>
-      <c r="G152" s="73"/>
+      <c r="F152" s="71"/>
+      <c r="G152" s="72"/>
       <c r="H152" s="35" t="s">
         <v>24</v>
       </c>
       <c r="I152" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J152" s="125"/>
-      <c r="K152" s="126"/>
+      <c r="J152" s="99"/>
+      <c r="K152" s="100"/>
     </row>
     <row r="153" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="104"/>
-      <c r="C153" s="105"/>
-      <c r="D153" s="105"/>
-      <c r="E153" s="105"/>
-      <c r="F153" s="105"/>
-      <c r="G153" s="105"/>
-      <c r="H153" s="105"/>
-      <c r="I153" s="105"/>
-      <c r="J153" s="105"/>
-      <c r="K153" s="106"/>
+      <c r="B153" s="96"/>
+      <c r="C153" s="97"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="97"/>
+      <c r="J153" s="97"/>
+      <c r="K153" s="98"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5371,258 +5380,258 @@
       <c r="A156" s="48">
         <v>15</v>
       </c>
-      <c r="B156" s="79" t="s">
+      <c r="B156" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="C156" s="80"/>
-      <c r="D156" s="80"/>
-      <c r="E156" s="80"/>
-      <c r="F156" s="80"/>
-      <c r="G156" s="80"/>
-      <c r="H156" s="80"/>
-      <c r="I156" s="80"/>
-      <c r="J156" s="81"/>
-      <c r="K156" s="82"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="76"/>
+      <c r="E156" s="76"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="76"/>
+      <c r="H156" s="76"/>
+      <c r="I156" s="76"/>
+      <c r="J156" s="77"/>
+      <c r="K156" s="78"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="83" t="s">
+      <c r="B157" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="C157" s="84"/>
-      <c r="D157" s="84"/>
-      <c r="E157" s="84"/>
-      <c r="F157" s="84"/>
-      <c r="G157" s="84"/>
-      <c r="H157" s="84"/>
-      <c r="I157" s="84"/>
-      <c r="J157" s="84"/>
-      <c r="K157" s="85"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80"/>
+      <c r="E157" s="80"/>
+      <c r="F157" s="80"/>
+      <c r="G157" s="80"/>
+      <c r="H157" s="80"/>
+      <c r="I157" s="80"/>
+      <c r="J157" s="80"/>
+      <c r="K157" s="81"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B158" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C158" s="86" t="s">
+      <c r="C158" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="D158" s="87"/>
-      <c r="E158" s="88" t="s">
+      <c r="D158" s="83"/>
+      <c r="E158" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F158" s="88"/>
-      <c r="G158" s="89"/>
+      <c r="F158" s="84"/>
+      <c r="G158" s="85"/>
       <c r="H158" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I158" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J158" s="90" t="s">
+      <c r="J158" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K158" s="91"/>
+      <c r="K158" s="87"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" s="34"/>
-      <c r="C159" s="96" t="s">
+      <c r="C159" s="88" t="s">
         <v>172</v>
       </c>
-      <c r="D159" s="97"/>
-      <c r="E159" s="98" t="s">
+      <c r="D159" s="89"/>
+      <c r="E159" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="F159" s="98"/>
-      <c r="G159" s="99"/>
+      <c r="F159" s="90"/>
+      <c r="G159" s="91"/>
       <c r="H159" s="35" t="s">
         <v>66</v>
       </c>
       <c r="I159" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J159" s="100"/>
-      <c r="K159" s="101"/>
+      <c r="J159" s="92"/>
+      <c r="K159" s="93"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C160" s="96" t="s">
+      <c r="C160" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="D160" s="97"/>
-      <c r="E160" s="98" t="s">
+      <c r="D160" s="89"/>
+      <c r="E160" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="98"/>
-      <c r="G160" s="99"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="91"/>
       <c r="H160" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I160" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J160" s="100"/>
-      <c r="K160" s="101"/>
+      <c r="J160" s="92"/>
+      <c r="K160" s="93"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C161" s="96" t="s">
+      <c r="C161" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D161" s="97"/>
-      <c r="E161" s="98" t="s">
+      <c r="D161" s="89"/>
+      <c r="E161" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F161" s="98"/>
-      <c r="G161" s="99"/>
+      <c r="F161" s="90"/>
+      <c r="G161" s="91"/>
       <c r="H161" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I161" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J161" s="100" t="s">
+      <c r="J161" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K161" s="101"/>
+      <c r="K161" s="93"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B162" s="34"/>
-      <c r="C162" s="96" t="s">
+      <c r="C162" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="D162" s="97"/>
-      <c r="E162" s="98" t="s">
+      <c r="D162" s="89"/>
+      <c r="E162" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="F162" s="98"/>
-      <c r="G162" s="99"/>
+      <c r="F162" s="90"/>
+      <c r="G162" s="91"/>
       <c r="H162" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I162" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J162" s="100"/>
-      <c r="K162" s="101"/>
+      <c r="J162" s="92"/>
+      <c r="K162" s="93"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B163" s="34"/>
-      <c r="C163" s="96" t="s">
+      <c r="C163" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="97"/>
-      <c r="E163" s="98" t="s">
+      <c r="D163" s="89"/>
+      <c r="E163" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="F163" s="98"/>
-      <c r="G163" s="99"/>
+      <c r="F163" s="90"/>
+      <c r="G163" s="91"/>
       <c r="H163" s="35" t="s">
         <v>26</v>
       </c>
       <c r="I163" s="36"/>
-      <c r="J163" s="100"/>
-      <c r="K163" s="101"/>
+      <c r="J163" s="92"/>
+      <c r="K163" s="93"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B164" s="34"/>
-      <c r="C164" s="96" t="s">
+      <c r="C164" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D164" s="97"/>
-      <c r="E164" s="98" t="s">
+      <c r="D164" s="89"/>
+      <c r="E164" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F164" s="98"/>
-      <c r="G164" s="99"/>
+      <c r="F164" s="90"/>
+      <c r="G164" s="91"/>
       <c r="H164" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I164" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J164" s="100"/>
-      <c r="K164" s="101"/>
+      <c r="J164" s="92"/>
+      <c r="K164" s="93"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B165" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C165" s="96" t="s">
+      <c r="C165" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="97"/>
-      <c r="E165" s="98" t="s">
+      <c r="D165" s="89"/>
+      <c r="E165" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="F165" s="98"/>
-      <c r="G165" s="99"/>
+      <c r="F165" s="90"/>
+      <c r="G165" s="91"/>
       <c r="H165" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I165" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J165" s="100" t="s">
+      <c r="J165" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K165" s="101"/>
+      <c r="K165" s="93"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B166" s="37"/>
-      <c r="C166" s="70" t="s">
+      <c r="C166" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D166" s="71"/>
-      <c r="E166" s="72" t="s">
+      <c r="D166" s="70"/>
+      <c r="E166" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F166" s="72"/>
-      <c r="G166" s="73"/>
+      <c r="F166" s="71"/>
+      <c r="G166" s="72"/>
       <c r="H166" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I166" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J166" s="74" t="s">
+      <c r="J166" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="K166" s="75"/>
+      <c r="K166" s="74"/>
     </row>
     <row r="167" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="76" t="s">
+      <c r="B167" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C167" s="77"/>
-      <c r="D167" s="77"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="77"/>
-      <c r="G167" s="77"/>
-      <c r="H167" s="77"/>
-      <c r="I167" s="77"/>
-      <c r="J167" s="77"/>
-      <c r="K167" s="78"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="66"/>
+      <c r="G167" s="66"/>
+      <c r="H167" s="66"/>
+      <c r="I167" s="66"/>
+      <c r="J167" s="66"/>
+      <c r="K167" s="67"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B168" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="92" t="s">
+      <c r="C168" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D168" s="92"/>
-      <c r="E168" s="92"/>
+      <c r="D168" s="95"/>
+      <c r="E168" s="95"/>
       <c r="F168" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G168" s="92" t="s">
+      <c r="G168" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="H168" s="92"/>
-      <c r="I168" s="92"/>
+      <c r="H168" s="95"/>
+      <c r="I168" s="95"/>
       <c r="J168" s="8"/>
       <c r="K168" s="20"/>
     </row>
@@ -5652,114 +5661,114 @@
       <c r="A172" s="48">
         <v>16</v>
       </c>
-      <c r="B172" s="79" t="s">
+      <c r="B172" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C172" s="80"/>
-      <c r="D172" s="80"/>
-      <c r="E172" s="80"/>
-      <c r="F172" s="80"/>
-      <c r="G172" s="80"/>
-      <c r="H172" s="80"/>
-      <c r="I172" s="80"/>
-      <c r="J172" s="81"/>
-      <c r="K172" s="82"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="76"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="76"/>
+      <c r="H172" s="76"/>
+      <c r="I172" s="76"/>
+      <c r="J172" s="77"/>
+      <c r="K172" s="78"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="83" t="s">
+      <c r="B173" s="79" t="s">
         <v>337</v>
       </c>
-      <c r="C173" s="84"/>
-      <c r="D173" s="84"/>
-      <c r="E173" s="84"/>
-      <c r="F173" s="84"/>
-      <c r="G173" s="84"/>
-      <c r="H173" s="84"/>
-      <c r="I173" s="84"/>
-      <c r="J173" s="84"/>
-      <c r="K173" s="85"/>
+      <c r="C173" s="80"/>
+      <c r="D173" s="80"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="80"/>
+      <c r="H173" s="80"/>
+      <c r="I173" s="80"/>
+      <c r="J173" s="80"/>
+      <c r="K173" s="81"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B174" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C174" s="86" t="s">
+      <c r="C174" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D174" s="87"/>
-      <c r="E174" s="88" t="s">
+      <c r="D174" s="83"/>
+      <c r="E174" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="F174" s="88"/>
-      <c r="G174" s="89"/>
+      <c r="F174" s="84"/>
+      <c r="G174" s="85"/>
       <c r="H174" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I174" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="J174" s="90" t="s">
+      <c r="J174" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="K174" s="91"/>
+      <c r="K174" s="87"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B175" s="34"/>
-      <c r="C175" s="96" t="s">
+      <c r="C175" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="D175" s="97"/>
-      <c r="E175" s="98" t="s">
+      <c r="D175" s="89"/>
+      <c r="E175" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="F175" s="98"/>
-      <c r="G175" s="99"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="91"/>
       <c r="H175" s="35" t="s">
         <v>127</v>
       </c>
       <c r="I175" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="J175" s="100" t="s">
+      <c r="J175" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="K175" s="101"/>
+      <c r="K175" s="93"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B176" s="37"/>
-      <c r="C176" s="70" t="s">
+      <c r="C176" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="D176" s="71"/>
-      <c r="E176" s="72" t="s">
+      <c r="D176" s="70"/>
+      <c r="E176" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="F176" s="72"/>
-      <c r="G176" s="73"/>
+      <c r="F176" s="71"/>
+      <c r="G176" s="72"/>
       <c r="H176" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I176" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="J176" s="74" t="s">
+      <c r="J176" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="K176" s="75"/>
+      <c r="K176" s="74"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="76" t="s">
+      <c r="B177" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C177" s="77"/>
-      <c r="D177" s="77"/>
-      <c r="E177" s="77"/>
-      <c r="F177" s="77"/>
-      <c r="G177" s="77"/>
-      <c r="H177" s="77"/>
-      <c r="I177" s="77"/>
-      <c r="J177" s="77"/>
-      <c r="K177" s="78"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="66"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="66"/>
+      <c r="J177" s="66"/>
+      <c r="K177" s="67"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="21" t="s">
@@ -5787,200 +5796,200 @@
       <c r="A181" s="48">
         <v>17</v>
       </c>
-      <c r="B181" s="79" t="s">
+      <c r="B181" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="C181" s="80"/>
-      <c r="D181" s="80"/>
-      <c r="E181" s="80"/>
-      <c r="F181" s="80"/>
-      <c r="G181" s="80"/>
-      <c r="H181" s="80"/>
-      <c r="I181" s="80"/>
-      <c r="J181" s="81"/>
-      <c r="K181" s="82"/>
+      <c r="C181" s="76"/>
+      <c r="D181" s="76"/>
+      <c r="E181" s="76"/>
+      <c r="F181" s="76"/>
+      <c r="G181" s="76"/>
+      <c r="H181" s="76"/>
+      <c r="I181" s="76"/>
+      <c r="J181" s="77"/>
+      <c r="K181" s="78"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="83" t="s">
+      <c r="B182" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="C182" s="84"/>
-      <c r="D182" s="84"/>
-      <c r="E182" s="84"/>
-      <c r="F182" s="84"/>
-      <c r="G182" s="84"/>
-      <c r="H182" s="84"/>
-      <c r="I182" s="84"/>
-      <c r="J182" s="84"/>
-      <c r="K182" s="85"/>
+      <c r="C182" s="80"/>
+      <c r="D182" s="80"/>
+      <c r="E182" s="80"/>
+      <c r="F182" s="80"/>
+      <c r="G182" s="80"/>
+      <c r="H182" s="80"/>
+      <c r="I182" s="80"/>
+      <c r="J182" s="80"/>
+      <c r="K182" s="81"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B183" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C183" s="86" t="s">
+      <c r="C183" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D183" s="87"/>
-      <c r="E183" s="88" t="s">
+      <c r="D183" s="83"/>
+      <c r="E183" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F183" s="88"/>
-      <c r="G183" s="89"/>
+      <c r="F183" s="84"/>
+      <c r="G183" s="85"/>
       <c r="H183" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I183" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J183" s="90" t="s">
+      <c r="J183" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K183" s="91"/>
+      <c r="K183" s="87"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B184" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C184" s="96" t="s">
+      <c r="C184" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="D184" s="97"/>
-      <c r="E184" s="98" t="s">
+      <c r="D184" s="89"/>
+      <c r="E184" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F184" s="98"/>
-      <c r="G184" s="99"/>
+      <c r="F184" s="90"/>
+      <c r="G184" s="91"/>
       <c r="H184" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I184" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J184" s="100" t="s">
+      <c r="J184" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K184" s="101"/>
+      <c r="K184" s="93"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C185" s="96" t="s">
+      <c r="C185" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="D185" s="97"/>
-      <c r="E185" s="98" t="s">
+      <c r="D185" s="89"/>
+      <c r="E185" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="F185" s="98"/>
-      <c r="G185" s="99"/>
+      <c r="F185" s="90"/>
+      <c r="G185" s="91"/>
       <c r="H185" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I185" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J185" s="100" t="s">
+      <c r="J185" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K185" s="101"/>
+      <c r="K185" s="93"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="34"/>
-      <c r="C186" s="96" t="s">
+      <c r="C186" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="D186" s="97"/>
-      <c r="E186" s="98" t="s">
+      <c r="D186" s="89"/>
+      <c r="E186" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="F186" s="98"/>
-      <c r="G186" s="99"/>
+      <c r="F186" s="90"/>
+      <c r="G186" s="91"/>
       <c r="H186" s="35" t="s">
         <v>221</v>
       </c>
       <c r="I186" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J186" s="100"/>
-      <c r="K186" s="101"/>
+      <c r="J186" s="92"/>
+      <c r="K186" s="93"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" s="34"/>
-      <c r="C187" s="96" t="s">
+      <c r="C187" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D187" s="97"/>
-      <c r="E187" s="98" t="s">
+      <c r="D187" s="89"/>
+      <c r="E187" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="F187" s="98"/>
-      <c r="G187" s="99"/>
+      <c r="F187" s="90"/>
+      <c r="G187" s="91"/>
       <c r="H187" s="35" t="s">
         <v>232</v>
       </c>
       <c r="I187" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J187" s="100" t="s">
+      <c r="J187" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="K187" s="101"/>
+      <c r="K187" s="93"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" s="37"/>
-      <c r="C188" s="121" t="s">
+      <c r="C188" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D188" s="122"/>
-      <c r="E188" s="72" t="s">
+      <c r="D188" s="108"/>
+      <c r="E188" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F188" s="72"/>
-      <c r="G188" s="73"/>
+      <c r="F188" s="71"/>
+      <c r="G188" s="72"/>
       <c r="H188" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I188" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J188" s="74" t="s">
+      <c r="J188" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="K188" s="75"/>
+      <c r="K188" s="74"/>
     </row>
     <row r="189" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="76" t="s">
+      <c r="B189" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C189" s="77"/>
-      <c r="D189" s="77"/>
-      <c r="E189" s="77"/>
-      <c r="F189" s="77"/>
-      <c r="G189" s="77"/>
-      <c r="H189" s="77"/>
-      <c r="I189" s="77"/>
-      <c r="J189" s="77"/>
-      <c r="K189" s="78"/>
+      <c r="C189" s="66"/>
+      <c r="D189" s="66"/>
+      <c r="E189" s="66"/>
+      <c r="F189" s="66"/>
+      <c r="G189" s="66"/>
+      <c r="H189" s="66"/>
+      <c r="I189" s="66"/>
+      <c r="J189" s="66"/>
+      <c r="K189" s="67"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B190" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C190" s="69" t="s">
+      <c r="C190" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="D190" s="69"/>
-      <c r="E190" s="69"/>
+      <c r="D190" s="94"/>
+      <c r="E190" s="94"/>
       <c r="F190" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G190" s="69" t="s">
+      <c r="G190" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="H190" s="69"/>
-      <c r="I190" s="69"/>
+      <c r="H190" s="94"/>
+      <c r="I190" s="94"/>
       <c r="J190" s="8"/>
       <c r="K190" s="20"/>
     </row>
@@ -6010,170 +6019,170 @@
       <c r="A194" s="48">
         <v>18</v>
       </c>
-      <c r="B194" s="79" t="s">
+      <c r="B194" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="C194" s="80"/>
-      <c r="D194" s="80"/>
-      <c r="E194" s="80"/>
-      <c r="F194" s="80"/>
-      <c r="G194" s="80"/>
-      <c r="H194" s="80"/>
-      <c r="I194" s="80"/>
-      <c r="J194" s="81"/>
-      <c r="K194" s="82"/>
+      <c r="C194" s="76"/>
+      <c r="D194" s="76"/>
+      <c r="E194" s="76"/>
+      <c r="F194" s="76"/>
+      <c r="G194" s="76"/>
+      <c r="H194" s="76"/>
+      <c r="I194" s="76"/>
+      <c r="J194" s="77"/>
+      <c r="K194" s="78"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="83" t="s">
+      <c r="B195" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="C195" s="84"/>
-      <c r="D195" s="84"/>
-      <c r="E195" s="84"/>
-      <c r="F195" s="84"/>
-      <c r="G195" s="84"/>
-      <c r="H195" s="84"/>
-      <c r="I195" s="84"/>
-      <c r="J195" s="84"/>
-      <c r="K195" s="85"/>
+      <c r="C195" s="80"/>
+      <c r="D195" s="80"/>
+      <c r="E195" s="80"/>
+      <c r="F195" s="80"/>
+      <c r="G195" s="80"/>
+      <c r="H195" s="80"/>
+      <c r="I195" s="80"/>
+      <c r="J195" s="80"/>
+      <c r="K195" s="81"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B196" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C196" s="86" t="s">
+      <c r="C196" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D196" s="87"/>
-      <c r="E196" s="88" t="s">
+      <c r="D196" s="83"/>
+      <c r="E196" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="F196" s="88"/>
-      <c r="G196" s="89"/>
+      <c r="F196" s="84"/>
+      <c r="G196" s="85"/>
       <c r="H196" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I196" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J196" s="113" t="s">
+      <c r="J196" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="K196" s="114"/>
+      <c r="K196" s="104"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B197" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C197" s="96" t="s">
+      <c r="C197" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="D197" s="97"/>
-      <c r="E197" s="98" t="s">
+      <c r="D197" s="89"/>
+      <c r="E197" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="F197" s="98"/>
-      <c r="G197" s="99"/>
+      <c r="F197" s="90"/>
+      <c r="G197" s="91"/>
       <c r="H197" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I197" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J197" s="115" t="s">
+      <c r="J197" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="K197" s="116"/>
+      <c r="K197" s="106"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B198" s="34"/>
-      <c r="C198" s="96" t="s">
+      <c r="C198" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D198" s="97"/>
-      <c r="E198" s="98" t="s">
+      <c r="D198" s="89"/>
+      <c r="E198" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="F198" s="98"/>
-      <c r="G198" s="99"/>
+      <c r="F198" s="90"/>
+      <c r="G198" s="91"/>
       <c r="H198" s="35" t="s">
         <v>231</v>
       </c>
       <c r="I198" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J198" s="100"/>
-      <c r="K198" s="101"/>
+      <c r="J198" s="92"/>
+      <c r="K198" s="93"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B199" s="34"/>
-      <c r="C199" s="96" t="s">
+      <c r="C199" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="D199" s="97"/>
-      <c r="E199" s="98" t="s">
+      <c r="D199" s="89"/>
+      <c r="E199" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="F199" s="98"/>
-      <c r="G199" s="99"/>
+      <c r="F199" s="90"/>
+      <c r="G199" s="91"/>
       <c r="H199" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I199" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J199" s="100"/>
-      <c r="K199" s="101"/>
+      <c r="J199" s="92"/>
+      <c r="K199" s="93"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B200" s="37"/>
-      <c r="C200" s="123" t="s">
+      <c r="C200" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="D200" s="124"/>
-      <c r="E200" s="98" t="s">
+      <c r="D200" s="102"/>
+      <c r="E200" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F200" s="98"/>
-      <c r="G200" s="99"/>
+      <c r="F200" s="90"/>
+      <c r="G200" s="91"/>
       <c r="H200" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I200" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="J200" s="100" t="s">
+      <c r="J200" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="K200" s="101"/>
+      <c r="K200" s="93"/>
     </row>
     <row r="201" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="76" t="s">
+      <c r="B201" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C201" s="77"/>
-      <c r="D201" s="77"/>
-      <c r="E201" s="77"/>
-      <c r="F201" s="77"/>
-      <c r="G201" s="77"/>
-      <c r="H201" s="77"/>
-      <c r="I201" s="77"/>
-      <c r="J201" s="77"/>
-      <c r="K201" s="78"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="66"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="66"/>
+      <c r="H201" s="66"/>
+      <c r="I201" s="66"/>
+      <c r="J201" s="66"/>
+      <c r="K201" s="67"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B202" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C202" s="92" t="s">
+      <c r="C202" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="D202" s="92"/>
-      <c r="E202" s="92"/>
+      <c r="D202" s="95"/>
+      <c r="E202" s="95"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="92"/>
-      <c r="H202" s="92"/>
-      <c r="I202" s="92"/>
+      <c r="G202" s="95"/>
+      <c r="H202" s="95"/>
+      <c r="I202" s="95"/>
       <c r="J202" s="8"/>
       <c r="K202" s="20"/>
     </row>
@@ -6181,19 +6190,19 @@
       <c r="B203" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C203" s="69" t="s">
+      <c r="C203" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="D203" s="69"/>
-      <c r="E203" s="69"/>
+      <c r="D203" s="94"/>
+      <c r="E203" s="94"/>
       <c r="F203" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G203" s="69" t="s">
+      <c r="G203" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="H203" s="69"/>
-      <c r="I203" s="69"/>
+      <c r="H203" s="94"/>
+      <c r="I203" s="94"/>
       <c r="J203" s="9"/>
       <c r="K203" s="27"/>
     </row>
@@ -6223,88 +6232,88 @@
       <c r="A207" s="55">
         <v>19</v>
       </c>
-      <c r="B207" s="79" t="s">
+      <c r="B207" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C207" s="80"/>
-      <c r="D207" s="80"/>
-      <c r="E207" s="80"/>
-      <c r="F207" s="80"/>
-      <c r="G207" s="80"/>
-      <c r="H207" s="80"/>
-      <c r="I207" s="80"/>
-      <c r="J207" s="81"/>
-      <c r="K207" s="82"/>
+      <c r="C207" s="76"/>
+      <c r="D207" s="76"/>
+      <c r="E207" s="76"/>
+      <c r="F207" s="76"/>
+      <c r="G207" s="76"/>
+      <c r="H207" s="76"/>
+      <c r="I207" s="76"/>
+      <c r="J207" s="77"/>
+      <c r="K207" s="78"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="83" t="s">
+      <c r="B208" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="C208" s="84"/>
-      <c r="D208" s="84"/>
-      <c r="E208" s="84"/>
-      <c r="F208" s="84"/>
-      <c r="G208" s="84"/>
-      <c r="H208" s="84"/>
-      <c r="I208" s="84"/>
-      <c r="J208" s="84"/>
-      <c r="K208" s="85"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="80"/>
+      <c r="E208" s="80"/>
+      <c r="F208" s="80"/>
+      <c r="G208" s="80"/>
+      <c r="H208" s="80"/>
+      <c r="I208" s="80"/>
+      <c r="J208" s="80"/>
+      <c r="K208" s="81"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B209" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="86" t="s">
+      <c r="C209" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="D209" s="87"/>
-      <c r="E209" s="88" t="s">
+      <c r="D209" s="83"/>
+      <c r="E209" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F209" s="88"/>
-      <c r="G209" s="89"/>
+      <c r="F209" s="84"/>
+      <c r="G209" s="85"/>
       <c r="H209" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I209" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J209" s="90" t="s">
+      <c r="J209" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K209" s="91"/>
+      <c r="K209" s="87"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B210" s="37"/>
-      <c r="C210" s="70" t="s">
+      <c r="C210" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="D210" s="71"/>
-      <c r="E210" s="72" t="s">
+      <c r="D210" s="70"/>
+      <c r="E210" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="F210" s="72"/>
-      <c r="G210" s="73"/>
+      <c r="F210" s="71"/>
+      <c r="G210" s="72"/>
       <c r="H210" s="38" t="s">
         <v>233</v>
       </c>
       <c r="I210" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J210" s="74"/>
-      <c r="K210" s="75"/>
+      <c r="J210" s="73"/>
+      <c r="K210" s="74"/>
     </row>
     <row r="211" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="104"/>
-      <c r="C211" s="105"/>
-      <c r="D211" s="105"/>
-      <c r="E211" s="105"/>
-      <c r="F211" s="105"/>
-      <c r="G211" s="105"/>
-      <c r="H211" s="105"/>
-      <c r="I211" s="105"/>
-      <c r="J211" s="105"/>
-      <c r="K211" s="106"/>
+      <c r="B211" s="96"/>
+      <c r="C211" s="97"/>
+      <c r="D211" s="97"/>
+      <c r="E211" s="97"/>
+      <c r="F211" s="97"/>
+      <c r="G211" s="97"/>
+      <c r="H211" s="97"/>
+      <c r="I211" s="97"/>
+      <c r="J211" s="97"/>
+      <c r="K211" s="98"/>
     </row>
     <row r="212" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="213" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6312,220 +6321,220 @@
       <c r="A214" s="55">
         <v>20</v>
       </c>
-      <c r="B214" s="79" t="s">
+      <c r="B214" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="C214" s="80"/>
-      <c r="D214" s="80"/>
-      <c r="E214" s="80"/>
-      <c r="F214" s="80"/>
-      <c r="G214" s="80"/>
-      <c r="H214" s="80"/>
-      <c r="I214" s="80"/>
-      <c r="J214" s="81"/>
-      <c r="K214" s="82"/>
+      <c r="C214" s="76"/>
+      <c r="D214" s="76"/>
+      <c r="E214" s="76"/>
+      <c r="F214" s="76"/>
+      <c r="G214" s="76"/>
+      <c r="H214" s="76"/>
+      <c r="I214" s="76"/>
+      <c r="J214" s="77"/>
+      <c r="K214" s="78"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="83" t="s">
+      <c r="B215" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C215" s="84"/>
-      <c r="D215" s="84"/>
-      <c r="E215" s="84"/>
-      <c r="F215" s="84"/>
-      <c r="G215" s="84"/>
-      <c r="H215" s="84"/>
-      <c r="I215" s="84"/>
-      <c r="J215" s="84"/>
-      <c r="K215" s="85"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="80"/>
+      <c r="E215" s="80"/>
+      <c r="F215" s="80"/>
+      <c r="G215" s="80"/>
+      <c r="H215" s="80"/>
+      <c r="I215" s="80"/>
+      <c r="J215" s="80"/>
+      <c r="K215" s="81"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B216" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C216" s="86" t="s">
+      <c r="C216" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="D216" s="87"/>
-      <c r="E216" s="88" t="s">
+      <c r="D216" s="83"/>
+      <c r="E216" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="F216" s="88"/>
-      <c r="G216" s="89"/>
+      <c r="F216" s="84"/>
+      <c r="G216" s="85"/>
       <c r="H216" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I216" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J216" s="90" t="s">
+      <c r="J216" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K216" s="91"/>
+      <c r="K216" s="87"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B217" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C217" s="96" t="s">
+      <c r="C217" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="D217" s="97"/>
-      <c r="E217" s="98" t="s">
+      <c r="D217" s="89"/>
+      <c r="E217" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="F217" s="98"/>
-      <c r="G217" s="99"/>
+      <c r="F217" s="90"/>
+      <c r="G217" s="91"/>
       <c r="H217" s="35" t="s">
         <v>152</v>
       </c>
       <c r="I217" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J217" s="100"/>
-      <c r="K217" s="101"/>
+      <c r="J217" s="92"/>
+      <c r="K217" s="93"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B218" s="34"/>
-      <c r="C218" s="96" t="s">
+      <c r="C218" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="D218" s="97"/>
-      <c r="E218" s="98" t="s">
+      <c r="D218" s="89"/>
+      <c r="E218" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="F218" s="98"/>
-      <c r="G218" s="99"/>
+      <c r="F218" s="90"/>
+      <c r="G218" s="91"/>
       <c r="H218" s="35" t="s">
         <v>221</v>
       </c>
       <c r="I218" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="J218" s="100"/>
-      <c r="K218" s="101"/>
+      <c r="J218" s="92"/>
+      <c r="K218" s="93"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B219" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C219" s="96" t="s">
+      <c r="C219" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="D219" s="97"/>
-      <c r="E219" s="98" t="s">
+      <c r="D219" s="89"/>
+      <c r="E219" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="F219" s="98"/>
-      <c r="G219" s="99"/>
+      <c r="F219" s="90"/>
+      <c r="G219" s="91"/>
       <c r="H219" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I219" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J219" s="100" t="s">
+      <c r="J219" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K219" s="101"/>
+      <c r="K219" s="93"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B220" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C220" s="96" t="s">
+      <c r="C220" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="D220" s="97"/>
-      <c r="E220" s="98" t="s">
+      <c r="D220" s="89"/>
+      <c r="E220" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="F220" s="98"/>
-      <c r="G220" s="99"/>
+      <c r="F220" s="90"/>
+      <c r="G220" s="91"/>
       <c r="H220" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I220" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J220" s="100" t="s">
+      <c r="J220" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K220" s="101"/>
+      <c r="K220" s="93"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B221" s="34"/>
-      <c r="C221" s="96" t="s">
+      <c r="C221" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="D221" s="97"/>
-      <c r="E221" s="98" t="s">
+      <c r="D221" s="89"/>
+      <c r="E221" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="F221" s="98"/>
-      <c r="G221" s="99"/>
+      <c r="F221" s="90"/>
+      <c r="G221" s="91"/>
       <c r="H221" s="35" t="s">
         <v>125</v>
       </c>
       <c r="I221" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J221" s="100"/>
-      <c r="K221" s="101"/>
+      <c r="J221" s="92"/>
+      <c r="K221" s="93"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B222" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C222" s="70" t="s">
+      <c r="C222" s="69" t="s">
         <v>226</v>
       </c>
-      <c r="D222" s="71"/>
-      <c r="E222" s="72" t="s">
+      <c r="D222" s="70"/>
+      <c r="E222" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F222" s="72"/>
-      <c r="G222" s="73"/>
+      <c r="F222" s="71"/>
+      <c r="G222" s="72"/>
       <c r="H222" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I222" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J222" s="74" t="s">
+      <c r="J222" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="K222" s="75"/>
+      <c r="K222" s="74"/>
     </row>
     <row r="223" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="76" t="s">
+      <c r="B223" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C223" s="77"/>
-      <c r="D223" s="77"/>
-      <c r="E223" s="77"/>
-      <c r="F223" s="77"/>
-      <c r="G223" s="77"/>
-      <c r="H223" s="77"/>
-      <c r="I223" s="77"/>
-      <c r="J223" s="77"/>
-      <c r="K223" s="78"/>
+      <c r="C223" s="66"/>
+      <c r="D223" s="66"/>
+      <c r="E223" s="66"/>
+      <c r="F223" s="66"/>
+      <c r="G223" s="66"/>
+      <c r="H223" s="66"/>
+      <c r="I223" s="66"/>
+      <c r="J223" s="66"/>
+      <c r="K223" s="67"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B224" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C224" s="69" t="s">
+      <c r="C224" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="D224" s="69"/>
-      <c r="E224" s="69"/>
+      <c r="D224" s="94"/>
+      <c r="E224" s="94"/>
       <c r="F224" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G224" s="69"/>
-      <c r="H224" s="69"/>
-      <c r="I224" s="69"/>
+      <c r="G224" s="94"/>
+      <c r="H224" s="94"/>
+      <c r="I224" s="94"/>
       <c r="J224" s="8"/>
       <c r="K224" s="20"/>
     </row>
@@ -6533,11 +6542,11 @@
       <c r="B225" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C225" s="69" t="s">
+      <c r="C225" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="D225" s="69"/>
-      <c r="E225" s="69"/>
+      <c r="D225" s="94"/>
+      <c r="E225" s="94"/>
       <c r="F225" s="5" t="s">
         <v>180</v>
       </c>
@@ -6551,19 +6560,19 @@
       <c r="B226" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C226" s="69" t="s">
+      <c r="C226" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="D226" s="69"/>
-      <c r="E226" s="69"/>
+      <c r="D226" s="94"/>
+      <c r="E226" s="94"/>
       <c r="F226" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G226" s="69" t="s">
+      <c r="G226" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="H226" s="69"/>
-      <c r="I226" s="69"/>
+      <c r="H226" s="94"/>
+      <c r="I226" s="94"/>
       <c r="J226" s="9"/>
       <c r="K226" s="27"/>
     </row>
@@ -6571,19 +6580,19 @@
       <c r="B227" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C227" s="69" t="s">
+      <c r="C227" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="D227" s="69"/>
-      <c r="E227" s="69"/>
+      <c r="D227" s="94"/>
+      <c r="E227" s="94"/>
       <c r="F227" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G227" s="69" t="s">
+      <c r="G227" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="H227" s="69"/>
-      <c r="I227" s="69"/>
+      <c r="H227" s="94"/>
+      <c r="I227" s="94"/>
       <c r="J227" s="9"/>
       <c r="K227" s="27"/>
     </row>
@@ -6613,88 +6622,88 @@
       <c r="A231" s="55">
         <v>21</v>
       </c>
-      <c r="B231" s="79" t="s">
+      <c r="B231" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="C231" s="80"/>
-      <c r="D231" s="80"/>
-      <c r="E231" s="80"/>
-      <c r="F231" s="80"/>
-      <c r="G231" s="80"/>
-      <c r="H231" s="80"/>
-      <c r="I231" s="80"/>
-      <c r="J231" s="81"/>
-      <c r="K231" s="82"/>
+      <c r="C231" s="76"/>
+      <c r="D231" s="76"/>
+      <c r="E231" s="76"/>
+      <c r="F231" s="76"/>
+      <c r="G231" s="76"/>
+      <c r="H231" s="76"/>
+      <c r="I231" s="76"/>
+      <c r="J231" s="77"/>
+      <c r="K231" s="78"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="83" t="s">
+      <c r="B232" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C232" s="84"/>
-      <c r="D232" s="84"/>
-      <c r="E232" s="84"/>
-      <c r="F232" s="84"/>
-      <c r="G232" s="84"/>
-      <c r="H232" s="84"/>
-      <c r="I232" s="84"/>
-      <c r="J232" s="84"/>
-      <c r="K232" s="85"/>
+      <c r="C232" s="80"/>
+      <c r="D232" s="80"/>
+      <c r="E232" s="80"/>
+      <c r="F232" s="80"/>
+      <c r="G232" s="80"/>
+      <c r="H232" s="80"/>
+      <c r="I232" s="80"/>
+      <c r="J232" s="80"/>
+      <c r="K232" s="81"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B233" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C233" s="86" t="s">
+      <c r="C233" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D233" s="87"/>
-      <c r="E233" s="88" t="s">
+      <c r="D233" s="83"/>
+      <c r="E233" s="84" t="s">
         <v>164</v>
       </c>
-      <c r="F233" s="88"/>
-      <c r="G233" s="89"/>
+      <c r="F233" s="84"/>
+      <c r="G233" s="85"/>
       <c r="H233" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I233" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J233" s="90" t="s">
+      <c r="J233" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K233" s="91"/>
+      <c r="K233" s="87"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B234" s="37"/>
-      <c r="C234" s="70" t="s">
+      <c r="C234" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="D234" s="71"/>
-      <c r="E234" s="72" t="s">
+      <c r="D234" s="70"/>
+      <c r="E234" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="F234" s="72"/>
-      <c r="G234" s="73"/>
+      <c r="F234" s="71"/>
+      <c r="G234" s="72"/>
       <c r="H234" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I234" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J234" s="74"/>
-      <c r="K234" s="75"/>
+      <c r="J234" s="73"/>
+      <c r="K234" s="74"/>
     </row>
     <row r="235" spans="1:11" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="104"/>
-      <c r="C235" s="105"/>
-      <c r="D235" s="105"/>
-      <c r="E235" s="105"/>
-      <c r="F235" s="105"/>
-      <c r="G235" s="105"/>
-      <c r="H235" s="105"/>
-      <c r="I235" s="105"/>
-      <c r="J235" s="105"/>
-      <c r="K235" s="106"/>
+      <c r="B235" s="96"/>
+      <c r="C235" s="97"/>
+      <c r="D235" s="97"/>
+      <c r="E235" s="97"/>
+      <c r="F235" s="97"/>
+      <c r="G235" s="97"/>
+      <c r="H235" s="97"/>
+      <c r="I235" s="97"/>
+      <c r="J235" s="97"/>
+      <c r="K235" s="98"/>
     </row>
     <row r="236" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6702,80 +6711,80 @@
       <c r="A238" s="48">
         <v>22</v>
       </c>
-      <c r="B238" s="79" t="s">
+      <c r="B238" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="C238" s="80"/>
-      <c r="D238" s="80"/>
-      <c r="E238" s="80"/>
-      <c r="F238" s="80"/>
-      <c r="G238" s="80"/>
-      <c r="H238" s="80"/>
-      <c r="I238" s="80"/>
-      <c r="J238" s="81"/>
-      <c r="K238" s="82"/>
+      <c r="C238" s="76"/>
+      <c r="D238" s="76"/>
+      <c r="E238" s="76"/>
+      <c r="F238" s="76"/>
+      <c r="G238" s="76"/>
+      <c r="H238" s="76"/>
+      <c r="I238" s="76"/>
+      <c r="J238" s="77"/>
+      <c r="K238" s="78"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="83" t="s">
+      <c r="B239" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="C239" s="84"/>
-      <c r="D239" s="84"/>
-      <c r="E239" s="84"/>
-      <c r="F239" s="84"/>
-      <c r="G239" s="84"/>
-      <c r="H239" s="84"/>
-      <c r="I239" s="84"/>
-      <c r="J239" s="84"/>
-      <c r="K239" s="85"/>
+      <c r="C239" s="80"/>
+      <c r="D239" s="80"/>
+      <c r="E239" s="80"/>
+      <c r="F239" s="80"/>
+      <c r="G239" s="80"/>
+      <c r="H239" s="80"/>
+      <c r="I239" s="80"/>
+      <c r="J239" s="80"/>
+      <c r="K239" s="81"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B240" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C240" s="86" t="s">
+      <c r="C240" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="D240" s="87"/>
-      <c r="E240" s="88" t="s">
+      <c r="D240" s="83"/>
+      <c r="E240" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="F240" s="88"/>
-      <c r="G240" s="89"/>
+      <c r="F240" s="84"/>
+      <c r="G240" s="85"/>
       <c r="H240" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I240" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J240" s="90" t="s">
+      <c r="J240" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K240" s="91"/>
+      <c r="K240" s="87"/>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B241" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C241" s="96" t="s">
+      <c r="C241" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D241" s="97"/>
-      <c r="E241" s="98" t="s">
+      <c r="D241" s="89"/>
+      <c r="E241" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="F241" s="98"/>
-      <c r="G241" s="99"/>
+      <c r="F241" s="90"/>
+      <c r="G241" s="91"/>
       <c r="H241" s="35" t="s">
         <v>1</v>
       </c>
       <c r="I241" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J241" s="100" t="s">
+      <c r="J241" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="K241" s="101"/>
+      <c r="K241" s="93"/>
       <c r="O241" t="s">
         <v>222</v>
       </c>
@@ -6784,55 +6793,55 @@
       <c r="B242" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C242" s="70" t="s">
+      <c r="C242" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="D242" s="71"/>
-      <c r="E242" s="72" t="s">
+      <c r="D242" s="70"/>
+      <c r="E242" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="F242" s="72"/>
-      <c r="G242" s="73"/>
+      <c r="F242" s="71"/>
+      <c r="G242" s="72"/>
       <c r="H242" s="38" t="s">
         <v>1</v>
       </c>
       <c r="I242" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J242" s="74" t="s">
+      <c r="J242" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="K242" s="75"/>
+      <c r="K242" s="74"/>
     </row>
     <row r="243" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="76" t="s">
+      <c r="B243" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C243" s="77"/>
-      <c r="D243" s="77"/>
-      <c r="E243" s="77"/>
-      <c r="F243" s="77"/>
-      <c r="G243" s="77"/>
-      <c r="H243" s="77"/>
-      <c r="I243" s="77"/>
-      <c r="J243" s="77"/>
-      <c r="K243" s="78"/>
+      <c r="C243" s="66"/>
+      <c r="D243" s="66"/>
+      <c r="E243" s="66"/>
+      <c r="F243" s="66"/>
+      <c r="G243" s="66"/>
+      <c r="H243" s="66"/>
+      <c r="I243" s="66"/>
+      <c r="J243" s="66"/>
+      <c r="K243" s="67"/>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B244" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C244" s="69" t="s">
+      <c r="C244" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="D244" s="69"/>
-      <c r="E244" s="69"/>
+      <c r="D244" s="94"/>
+      <c r="E244" s="94"/>
       <c r="F244" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G244" s="69"/>
-      <c r="H244" s="69"/>
-      <c r="I244" s="69"/>
+      <c r="G244" s="94"/>
+      <c r="H244" s="94"/>
+      <c r="I244" s="94"/>
       <c r="J244" s="9"/>
       <c r="K244" s="27"/>
     </row>
@@ -6840,19 +6849,19 @@
       <c r="B245" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C245" s="69" t="s">
+      <c r="C245" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="D245" s="69"/>
-      <c r="E245" s="69"/>
+      <c r="D245" s="94"/>
+      <c r="E245" s="94"/>
       <c r="F245" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G245" s="69" t="s">
+      <c r="G245" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="H245" s="69"/>
-      <c r="I245" s="69"/>
+      <c r="H245" s="94"/>
+      <c r="I245" s="94"/>
       <c r="J245" s="9"/>
       <c r="K245" s="27"/>
     </row>
@@ -6882,88 +6891,88 @@
       <c r="A249" s="48">
         <v>23</v>
       </c>
-      <c r="B249" s="79" t="s">
+      <c r="B249" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C249" s="80"/>
-      <c r="D249" s="80"/>
-      <c r="E249" s="80"/>
-      <c r="F249" s="80"/>
-      <c r="G249" s="80"/>
-      <c r="H249" s="80"/>
-      <c r="I249" s="80"/>
-      <c r="J249" s="81"/>
-      <c r="K249" s="82"/>
+      <c r="C249" s="76"/>
+      <c r="D249" s="76"/>
+      <c r="E249" s="76"/>
+      <c r="F249" s="76"/>
+      <c r="G249" s="76"/>
+      <c r="H249" s="76"/>
+      <c r="I249" s="76"/>
+      <c r="J249" s="77"/>
+      <c r="K249" s="78"/>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B250" s="83" t="s">
+      <c r="B250" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C250" s="84"/>
-      <c r="D250" s="84"/>
-      <c r="E250" s="84"/>
-      <c r="F250" s="84"/>
-      <c r="G250" s="84"/>
-      <c r="H250" s="84"/>
-      <c r="I250" s="84"/>
-      <c r="J250" s="84"/>
-      <c r="K250" s="85"/>
+      <c r="C250" s="80"/>
+      <c r="D250" s="80"/>
+      <c r="E250" s="80"/>
+      <c r="F250" s="80"/>
+      <c r="G250" s="80"/>
+      <c r="H250" s="80"/>
+      <c r="I250" s="80"/>
+      <c r="J250" s="80"/>
+      <c r="K250" s="81"/>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B251" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C251" s="86" t="s">
+      <c r="C251" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="D251" s="87"/>
-      <c r="E251" s="88" t="s">
+      <c r="D251" s="83"/>
+      <c r="E251" s="84" t="s">
         <v>168</v>
       </c>
-      <c r="F251" s="88"/>
-      <c r="G251" s="89"/>
+      <c r="F251" s="84"/>
+      <c r="G251" s="85"/>
       <c r="H251" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I251" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J251" s="90" t="s">
+      <c r="J251" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K251" s="91"/>
+      <c r="K251" s="87"/>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B252" s="37"/>
-      <c r="C252" s="70" t="s">
+      <c r="C252" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="D252" s="71"/>
-      <c r="E252" s="72" t="s">
+      <c r="D252" s="70"/>
+      <c r="E252" s="71" t="s">
         <v>169</v>
       </c>
-      <c r="F252" s="72"/>
-      <c r="G252" s="73"/>
+      <c r="F252" s="71"/>
+      <c r="G252" s="72"/>
       <c r="H252" s="38" t="s">
         <v>24</v>
       </c>
       <c r="I252" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J252" s="74"/>
-      <c r="K252" s="75"/>
+      <c r="J252" s="73"/>
+      <c r="K252" s="74"/>
     </row>
     <row r="253" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="104"/>
-      <c r="C253" s="105"/>
-      <c r="D253" s="105"/>
-      <c r="E253" s="105"/>
-      <c r="F253" s="105"/>
-      <c r="G253" s="105"/>
-      <c r="H253" s="105"/>
-      <c r="I253" s="105"/>
-      <c r="J253" s="105"/>
-      <c r="K253" s="106"/>
+      <c r="B253" s="96"/>
+      <c r="C253" s="97"/>
+      <c r="D253" s="97"/>
+      <c r="E253" s="97"/>
+      <c r="F253" s="97"/>
+      <c r="G253" s="97"/>
+      <c r="H253" s="97"/>
+      <c r="I253" s="97"/>
+      <c r="J253" s="97"/>
+      <c r="K253" s="98"/>
     </row>
     <row r="254" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="255" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6971,240 +6980,240 @@
       <c r="A256" s="48">
         <v>24</v>
       </c>
-      <c r="B256" s="79" t="s">
+      <c r="B256" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="C256" s="80"/>
-      <c r="D256" s="80"/>
-      <c r="E256" s="80"/>
-      <c r="F256" s="80"/>
-      <c r="G256" s="80"/>
-      <c r="H256" s="80"/>
-      <c r="I256" s="80"/>
-      <c r="J256" s="81"/>
-      <c r="K256" s="82"/>
+      <c r="C256" s="76"/>
+      <c r="D256" s="76"/>
+      <c r="E256" s="76"/>
+      <c r="F256" s="76"/>
+      <c r="G256" s="76"/>
+      <c r="H256" s="76"/>
+      <c r="I256" s="76"/>
+      <c r="J256" s="77"/>
+      <c r="K256" s="78"/>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="83" t="s">
+      <c r="B257" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="C257" s="84"/>
-      <c r="D257" s="84"/>
-      <c r="E257" s="84"/>
-      <c r="F257" s="84"/>
-      <c r="G257" s="84"/>
-      <c r="H257" s="84"/>
-      <c r="I257" s="84"/>
-      <c r="J257" s="84"/>
-      <c r="K257" s="85"/>
+      <c r="C257" s="80"/>
+      <c r="D257" s="80"/>
+      <c r="E257" s="80"/>
+      <c r="F257" s="80"/>
+      <c r="G257" s="80"/>
+      <c r="H257" s="80"/>
+      <c r="I257" s="80"/>
+      <c r="J257" s="80"/>
+      <c r="K257" s="81"/>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C258" s="86" t="s">
+      <c r="C258" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="D258" s="87"/>
-      <c r="E258" s="88" t="s">
+      <c r="D258" s="83"/>
+      <c r="E258" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="F258" s="88"/>
-      <c r="G258" s="89"/>
+      <c r="F258" s="84"/>
+      <c r="G258" s="85"/>
       <c r="H258" s="32" t="s">
         <v>1</v>
       </c>
       <c r="I258" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J258" s="90" t="s">
+      <c r="J258" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="K258" s="91"/>
+      <c r="K258" s="87"/>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C259" s="96" t="s">
+      <c r="C259" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="D259" s="97"/>
-      <c r="E259" s="98" t="s">
+      <c r="D259" s="89"/>
+      <c r="E259" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="F259" s="98"/>
-      <c r="G259" s="99"/>
+      <c r="F259" s="90"/>
+      <c r="G259" s="91"/>
       <c r="H259" s="35" t="s">
         <v>184</v>
       </c>
       <c r="I259" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J259" s="100"/>
-      <c r="K259" s="101"/>
+      <c r="J259" s="92"/>
+      <c r="K259" s="93"/>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="34"/>
-      <c r="C260" s="96" t="s">
+      <c r="C260" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="D260" s="97"/>
-      <c r="E260" s="98" t="s">
+      <c r="D260" s="89"/>
+      <c r="E260" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="F260" s="98"/>
-      <c r="G260" s="99"/>
+      <c r="F260" s="90"/>
+      <c r="G260" s="91"/>
       <c r="H260" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I260" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J260" s="100" t="s">
+      <c r="J260" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="K260" s="101"/>
+      <c r="K260" s="93"/>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B261" s="34"/>
-      <c r="C261" s="96" t="s">
+      <c r="C261" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="D261" s="97"/>
-      <c r="E261" s="98" t="s">
+      <c r="D261" s="89"/>
+      <c r="E261" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="F261" s="98"/>
-      <c r="G261" s="99"/>
+      <c r="F261" s="90"/>
+      <c r="G261" s="91"/>
       <c r="H261" s="35" t="s">
         <v>188</v>
       </c>
       <c r="I261" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J261" s="100"/>
-      <c r="K261" s="101"/>
+      <c r="J261" s="92"/>
+      <c r="K261" s="93"/>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B262" s="34"/>
-      <c r="C262" s="96" t="s">
+      <c r="C262" s="88" t="s">
         <v>198</v>
       </c>
-      <c r="D262" s="97"/>
-      <c r="E262" s="98" t="s">
+      <c r="D262" s="89"/>
+      <c r="E262" s="90" t="s">
         <v>199</v>
       </c>
-      <c r="F262" s="98"/>
-      <c r="G262" s="99"/>
+      <c r="F262" s="90"/>
+      <c r="G262" s="91"/>
       <c r="H262" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I262" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J262" s="100" t="s">
+      <c r="J262" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="K262" s="101"/>
+      <c r="K262" s="93"/>
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" s="34"/>
-      <c r="C263" s="96" t="s">
+      <c r="C263" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="D263" s="97"/>
-      <c r="E263" s="98" t="s">
+      <c r="D263" s="89"/>
+      <c r="E263" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="F263" s="98"/>
-      <c r="G263" s="99"/>
+      <c r="F263" s="90"/>
+      <c r="G263" s="91"/>
       <c r="H263" s="35" t="s">
         <v>187</v>
       </c>
       <c r="I263" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J263" s="100"/>
-      <c r="K263" s="101"/>
+      <c r="J263" s="92"/>
+      <c r="K263" s="93"/>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="34"/>
-      <c r="C264" s="96" t="s">
+      <c r="C264" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="D264" s="97"/>
-      <c r="E264" s="98" t="s">
+      <c r="D264" s="89"/>
+      <c r="E264" s="90" t="s">
         <v>203</v>
       </c>
-      <c r="F264" s="98"/>
-      <c r="G264" s="99"/>
+      <c r="F264" s="90"/>
+      <c r="G264" s="91"/>
       <c r="H264" s="35" t="s">
         <v>126</v>
       </c>
       <c r="I264" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J264" s="100" t="s">
+      <c r="J264" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="K264" s="101"/>
+      <c r="K264" s="93"/>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="34"/>
-      <c r="C265" s="96" t="s">
+      <c r="C265" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="D265" s="97"/>
-      <c r="E265" s="98" t="s">
+      <c r="D265" s="89"/>
+      <c r="E265" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="F265" s="98"/>
-      <c r="G265" s="99"/>
+      <c r="F265" s="90"/>
+      <c r="G265" s="91"/>
       <c r="H265" s="35" t="s">
         <v>202</v>
       </c>
       <c r="I265" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J265" s="100"/>
-      <c r="K265" s="101"/>
+      <c r="J265" s="92"/>
+      <c r="K265" s="93"/>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B266" s="37"/>
-      <c r="C266" s="70" t="s">
+      <c r="C266" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="D266" s="71"/>
-      <c r="E266" s="72" t="s">
+      <c r="D266" s="70"/>
+      <c r="E266" s="71" t="s">
         <v>190</v>
       </c>
-      <c r="F266" s="72"/>
-      <c r="G266" s="73"/>
+      <c r="F266" s="71"/>
+      <c r="G266" s="72"/>
       <c r="H266" s="38" t="s">
         <v>232</v>
       </c>
       <c r="I266" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J266" s="74" t="s">
+      <c r="J266" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="K266" s="75"/>
+      <c r="K266" s="74"/>
     </row>
     <row r="267" spans="2:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="76" t="s">
+      <c r="B267" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C267" s="77"/>
-      <c r="D267" s="77"/>
-      <c r="E267" s="77"/>
-      <c r="F267" s="77"/>
-      <c r="G267" s="77"/>
-      <c r="H267" s="77"/>
-      <c r="I267" s="77"/>
-      <c r="J267" s="77"/>
-      <c r="K267" s="78"/>
+      <c r="C267" s="66"/>
+      <c r="D267" s="66"/>
+      <c r="E267" s="66"/>
+      <c r="F267" s="66"/>
+      <c r="G267" s="66"/>
+      <c r="H267" s="66"/>
+      <c r="I267" s="66"/>
+      <c r="J267" s="66"/>
+      <c r="K267" s="67"/>
     </row>
     <row r="268" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="21" t="s">
@@ -7227,20 +7236,437 @@
     <row r="269" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="469">
-    <mergeCell ref="B177:K177"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="G178:I178"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="B172:K172"/>
-    <mergeCell ref="B173:K173"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B95:K95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B61:K61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="B70:K70"/>
+    <mergeCell ref="B71:K71"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="B75:K75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="B79:K79"/>
+    <mergeCell ref="B80:K80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="B85:K85"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B91:K91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="B99:K99"/>
+    <mergeCell ref="B100:K100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="B104:K104"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="B108:K108"/>
+    <mergeCell ref="B109:K109"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="B119:K119"/>
+    <mergeCell ref="B120:K120"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="B134:K134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="B141:K141"/>
+    <mergeCell ref="B142:K142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="G138:I138"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="B146:K146"/>
+    <mergeCell ref="B181:K181"/>
+    <mergeCell ref="B182:K182"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:G163"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="C169:E169"/>
+    <mergeCell ref="G169:I169"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:G186"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="E184:G184"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:G185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="G190:I190"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B189:K189"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="G191:I191"/>
+    <mergeCell ref="B194:K194"/>
+    <mergeCell ref="B195:K195"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="E200:G200"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="E198:G198"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="B201:K201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="G202:I202"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:K153"/>
+    <mergeCell ref="B214:K214"/>
+    <mergeCell ref="B215:K215"/>
+    <mergeCell ref="B211:K211"/>
+    <mergeCell ref="B149:K149"/>
+    <mergeCell ref="B150:K150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B207:K207"/>
+    <mergeCell ref="B208:K208"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="E210:G210"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="G203:I203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="G204:I204"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="C221:D221"/>
+    <mergeCell ref="E221:G221"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="E218:G218"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="E252:G252"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="B253:K253"/>
+    <mergeCell ref="B156:K156"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:G158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="B235:K235"/>
+    <mergeCell ref="B249:K249"/>
+    <mergeCell ref="B250:K250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="E251:G251"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="B232:K232"/>
+    <mergeCell ref="C233:D233"/>
+    <mergeCell ref="E233:G233"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:G165"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="B238:K238"/>
+    <mergeCell ref="B239:K239"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="B167:K167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="G168:I168"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="E234:G234"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="E217:G217"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="B231:K231"/>
+    <mergeCell ref="B223:K223"/>
+    <mergeCell ref="C224:E224"/>
+    <mergeCell ref="G224:I224"/>
+    <mergeCell ref="C227:E227"/>
+    <mergeCell ref="G227:I227"/>
+    <mergeCell ref="C228:E228"/>
+    <mergeCell ref="G228:I228"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:G222"/>
+    <mergeCell ref="C246:E246"/>
+    <mergeCell ref="G246:I246"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="E240:G240"/>
+    <mergeCell ref="C244:E244"/>
+    <mergeCell ref="G244:I244"/>
+    <mergeCell ref="B243:K243"/>
+    <mergeCell ref="C245:E245"/>
+    <mergeCell ref="G245:I245"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="E242:G242"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="E266:G266"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E263:G263"/>
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="B256:K256"/>
+    <mergeCell ref="B257:K257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="E258:G258"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="E259:G259"/>
+    <mergeCell ref="J259:K259"/>
     <mergeCell ref="C268:E268"/>
     <mergeCell ref="G268:I268"/>
     <mergeCell ref="E264:G264"/>
@@ -7265,437 +7691,20 @@
     <mergeCell ref="E260:G260"/>
     <mergeCell ref="B267:K267"/>
     <mergeCell ref="C266:D266"/>
-    <mergeCell ref="E266:G266"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="E263:G263"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="B256:K256"/>
-    <mergeCell ref="B257:K257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="E258:G258"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="E259:G259"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="C246:E246"/>
-    <mergeCell ref="G246:I246"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="E240:G240"/>
-    <mergeCell ref="C244:E244"/>
-    <mergeCell ref="G244:I244"/>
-    <mergeCell ref="B243:K243"/>
-    <mergeCell ref="C245:E245"/>
-    <mergeCell ref="G245:I245"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="E242:G242"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="B238:K238"/>
-    <mergeCell ref="B239:K239"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="B167:K167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="G168:I168"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="E234:G234"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="E217:G217"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="B231:K231"/>
-    <mergeCell ref="B223:K223"/>
-    <mergeCell ref="C224:E224"/>
-    <mergeCell ref="G224:I224"/>
-    <mergeCell ref="C227:E227"/>
-    <mergeCell ref="G227:I227"/>
-    <mergeCell ref="C228:E228"/>
-    <mergeCell ref="G228:I228"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:G222"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="E252:G252"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="B253:K253"/>
-    <mergeCell ref="B156:K156"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:G158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="B235:K235"/>
-    <mergeCell ref="B249:K249"/>
-    <mergeCell ref="B250:K250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="E251:G251"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="B232:K232"/>
-    <mergeCell ref="C233:D233"/>
-    <mergeCell ref="E233:G233"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:G165"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="C221:D221"/>
-    <mergeCell ref="E221:G221"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="E216:G216"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="E218:G218"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B153:K153"/>
-    <mergeCell ref="B214:K214"/>
-    <mergeCell ref="B215:K215"/>
-    <mergeCell ref="B211:K211"/>
-    <mergeCell ref="B149:K149"/>
-    <mergeCell ref="B150:K150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B207:K207"/>
-    <mergeCell ref="B208:K208"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="E210:G210"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="G203:I203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="G204:I204"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="E200:G200"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="E198:G198"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="B201:K201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="G202:I202"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E199:G199"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="E196:G196"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:G197"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="G191:I191"/>
-    <mergeCell ref="B194:K194"/>
-    <mergeCell ref="B195:K195"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="G190:I190"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:G188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B189:K189"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:G186"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="E184:G184"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:G185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:G145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="B146:K146"/>
-    <mergeCell ref="B181:K181"/>
-    <mergeCell ref="B182:K182"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:G162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:G163"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="C169:E169"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="B141:K141"/>
-    <mergeCell ref="B142:K142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="G138:I138"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="B134:K134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:G131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="B119:K119"/>
-    <mergeCell ref="B120:K120"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="B104:K104"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="B113:K113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="B108:K108"/>
-    <mergeCell ref="B109:K109"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="B99:K99"/>
-    <mergeCell ref="B100:K100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="B85:K85"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B91:K91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="B79:K79"/>
-    <mergeCell ref="B80:K80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="B71:K71"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="B61:K61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B95:K95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B177:K177"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="G178:I178"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="B172:K172"/>
+    <mergeCell ref="B173:K173"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="J175:K175"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7725,14 +7734,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
       <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7745,14 +7754,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="129" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="137" t="s">
@@ -7775,192 +7784,192 @@
       <c r="G5" s="142"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="83"/>
+      <c r="D6" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98" t="s">
+      <c r="C7" s="89"/>
+      <c r="D7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="60" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="144" t="s">
+      <c r="C10" s="136"/>
+      <c r="D10" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="60" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="144" t="s">
+      <c r="C11" s="136"/>
+      <c r="D11" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="127" t="s">
+      <c r="B12" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="144" t="s">
+      <c r="C13" s="136"/>
+      <c r="D13" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="144" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
       <c r="G14" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="144" t="s">
+      <c r="C15" s="136"/>
+      <c r="D15" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="145"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="144" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="145"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="130"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="145"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="129" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="136"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="137" t="s">
@@ -7983,92 +7992,92 @@
       <c r="G23" s="142"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
+      <c r="C24" s="83"/>
+      <c r="D24" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="127" t="s">
+      <c r="B25" s="134" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98" t="s">
+      <c r="C25" s="89"/>
+      <c r="D25" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98" t="s">
+      <c r="C26" s="89"/>
+      <c r="D26" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="127" t="s">
+      <c r="B27" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="90" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="60" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="133"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="129" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="136"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="131"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="137" t="s">
@@ -8091,64 +8100,64 @@
       <c r="G34" s="142"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="143" t="s">
+      <c r="B35" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88" t="s">
+      <c r="C35" s="83"/>
+      <c r="D35" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
       <c r="G35" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="134" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98" t="s">
+      <c r="C36" s="89"/>
+      <c r="D36" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="E36" s="98"/>
-      <c r="F36" s="99"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="91"/>
       <c r="G36" s="60" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="148"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="133"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="134" t="s">
+      <c r="B41" s="129" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="136"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="131"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="137" t="s">
@@ -8171,176 +8180,176 @@
       <c r="G43" s="142"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="88" t="s">
+      <c r="C44" s="83"/>
+      <c r="D44" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="85"/>
       <c r="G44" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="127" t="s">
+      <c r="B45" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="98" t="s">
+      <c r="C45" s="89"/>
+      <c r="D45" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="98"/>
-      <c r="F45" s="99"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="91"/>
       <c r="G45" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="127" t="s">
+      <c r="B46" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="97"/>
-      <c r="D46" s="98" t="s">
+      <c r="C46" s="89"/>
+      <c r="D46" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="99"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="91"/>
       <c r="G46" s="60" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="127" t="s">
+      <c r="B47" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="98" t="s">
+      <c r="C47" s="89"/>
+      <c r="D47" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="99"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="91"/>
       <c r="G47" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="147"/>
-      <c r="D48" s="144" t="s">
+      <c r="C48" s="136"/>
+      <c r="D48" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="E48" s="144"/>
-      <c r="F48" s="145"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="133"/>
       <c r="G48" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="146" t="s">
+      <c r="B49" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="147"/>
-      <c r="D49" s="144" t="s">
+      <c r="C49" s="136"/>
+      <c r="D49" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="E49" s="144"/>
-      <c r="F49" s="145"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="127" t="s">
+      <c r="B50" s="134" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="98" t="s">
+      <c r="C50" s="89"/>
+      <c r="D50" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="E50" s="98"/>
-      <c r="F50" s="99"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="91"/>
       <c r="G50" s="60" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="146" t="s">
+      <c r="B51" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="147"/>
-      <c r="D51" s="144" t="s">
+      <c r="C51" s="136"/>
+      <c r="D51" s="132" t="s">
         <v>270</v>
       </c>
-      <c r="E51" s="144"/>
-      <c r="F51" s="145"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="133"/>
       <c r="G51" s="60" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="146" t="s">
+      <c r="B52" s="135" t="s">
         <v>265</v>
       </c>
-      <c r="C52" s="147"/>
-      <c r="D52" s="144" t="s">
+      <c r="C52" s="136"/>
+      <c r="D52" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="E52" s="144"/>
-      <c r="F52" s="145"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="133"/>
       <c r="G52" s="60" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="146" t="s">
+      <c r="B53" s="135" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="147"/>
-      <c r="D53" s="144" t="s">
+      <c r="C53" s="136"/>
+      <c r="D53" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="E53" s="144"/>
-      <c r="F53" s="145"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="133"/>
       <c r="G53" s="60" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="128" t="s">
+      <c r="B54" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="130"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="148"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="131" t="s">
+      <c r="B55" s="143" t="s">
         <v>275</v>
       </c>
-      <c r="C55" s="132"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="133"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="145"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="134" t="s">
+      <c r="B58" s="129" t="s">
         <v>276</v>
       </c>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="136"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="131"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="137" t="s">
@@ -8363,106 +8372,106 @@
       <c r="G60" s="142"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="143" t="s">
+      <c r="B61" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="88" t="s">
+      <c r="C61" s="83"/>
+      <c r="D61" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="88"/>
-      <c r="F61" s="89"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="85"/>
       <c r="G61" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="127" t="s">
+      <c r="B62" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="97"/>
-      <c r="D62" s="98" t="s">
+      <c r="C62" s="89"/>
+      <c r="D62" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="98"/>
-      <c r="F62" s="99"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="91"/>
       <c r="G62" s="60" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="127" t="s">
+      <c r="B63" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="97"/>
-      <c r="D63" s="98" t="s">
+      <c r="C63" s="89"/>
+      <c r="D63" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="98"/>
-      <c r="F63" s="99"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="91"/>
       <c r="G63" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="146" t="s">
+      <c r="B64" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="147"/>
-      <c r="D64" s="144" t="s">
+      <c r="C64" s="136"/>
+      <c r="D64" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="E64" s="144"/>
-      <c r="F64" s="145"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="133"/>
       <c r="G64" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="146" t="s">
+      <c r="B65" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="147"/>
-      <c r="D65" s="144" t="s">
+      <c r="C65" s="136"/>
+      <c r="D65" s="132" t="s">
         <v>278</v>
       </c>
-      <c r="E65" s="144"/>
-      <c r="F65" s="145"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="133"/>
       <c r="G65" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="128" t="s">
+      <c r="B66" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="130"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="148"/>
     </row>
     <row r="67" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="143" t="s">
         <v>279</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="132"/>
-      <c r="E67" s="132"/>
-      <c r="F67" s="132"/>
-      <c r="G67" s="133"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+      <c r="G67" s="145"/>
     </row>
     <row r="68" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="134" t="s">
+      <c r="B70" s="129" t="s">
         <v>280</v>
       </c>
-      <c r="C70" s="135"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="135"/>
-      <c r="F70" s="135"/>
-      <c r="G70" s="136"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="131"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="137" t="s">
@@ -8485,162 +8494,162 @@
       <c r="G72" s="142"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="143" t="s">
+      <c r="B73" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="88" t="s">
+      <c r="C73" s="83"/>
+      <c r="D73" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E73" s="88"/>
-      <c r="F73" s="89"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="85"/>
       <c r="G73" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="127" t="s">
+      <c r="B74" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="C74" s="97"/>
-      <c r="D74" s="98" t="s">
+      <c r="C74" s="89"/>
+      <c r="D74" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="E74" s="98"/>
-      <c r="F74" s="99"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="91"/>
       <c r="G74" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="97"/>
-      <c r="D75" s="98" t="s">
+      <c r="C75" s="89"/>
+      <c r="D75" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="98"/>
-      <c r="F75" s="99"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="91"/>
       <c r="G75" s="60" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="127" t="s">
+      <c r="B76" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="97"/>
-      <c r="D76" s="98" t="s">
+      <c r="C76" s="89"/>
+      <c r="D76" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="98"/>
-      <c r="F76" s="99"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="91"/>
       <c r="G76" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="146" t="s">
+      <c r="B77" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="147"/>
-      <c r="D77" s="98" t="s">
+      <c r="C77" s="136"/>
+      <c r="D77" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="98"/>
-      <c r="F77" s="99"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="91"/>
       <c r="G77" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="146" t="s">
+      <c r="B78" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="147"/>
-      <c r="D78" s="144" t="s">
+      <c r="C78" s="136"/>
+      <c r="D78" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="E78" s="144"/>
-      <c r="F78" s="145"/>
+      <c r="E78" s="132"/>
+      <c r="F78" s="133"/>
       <c r="G78" s="60" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="127" t="s">
+      <c r="B79" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="144" t="s">
+      <c r="C79" s="89"/>
+      <c r="D79" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="144"/>
-      <c r="F79" s="145"/>
+      <c r="E79" s="132"/>
+      <c r="F79" s="133"/>
       <c r="G79" s="60" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="146" t="s">
+      <c r="B80" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C80" s="147"/>
-      <c r="D80" s="144" t="s">
+      <c r="C80" s="136"/>
+      <c r="D80" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="E80" s="144"/>
-      <c r="F80" s="145"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="133"/>
       <c r="G80" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="146" t="s">
+      <c r="B81" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="147"/>
-      <c r="D81" s="144" t="s">
+      <c r="C81" s="136"/>
+      <c r="D81" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="144"/>
-      <c r="F81" s="145"/>
+      <c r="E81" s="132"/>
+      <c r="F81" s="133"/>
       <c r="G81" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="128" t="s">
+      <c r="B82" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="130"/>
+      <c r="C82" s="147"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="147"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="148"/>
     </row>
     <row r="83" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="131" t="s">
+      <c r="B83" s="143" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="132"/>
-      <c r="D83" s="132"/>
-      <c r="E83" s="132"/>
-      <c r="F83" s="132"/>
-      <c r="G83" s="133"/>
+      <c r="C83" s="144"/>
+      <c r="D83" s="144"/>
+      <c r="E83" s="144"/>
+      <c r="F83" s="144"/>
+      <c r="G83" s="145"/>
     </row>
     <row r="84" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="134" t="s">
+      <c r="B86" s="129" t="s">
         <v>284</v>
       </c>
-      <c r="C86" s="135"/>
-      <c r="D86" s="135"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="135"/>
-      <c r="G86" s="136"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="131"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="137" t="s">
@@ -8663,134 +8672,134 @@
       <c r="G88" s="142"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="143" t="s">
+      <c r="B89" s="128" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="88" t="s">
+      <c r="C89" s="83"/>
+      <c r="D89" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="E89" s="88"/>
-      <c r="F89" s="89"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="85"/>
       <c r="G89" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="127" t="s">
+      <c r="B90" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="97"/>
-      <c r="D90" s="98" t="s">
+      <c r="C90" s="89"/>
+      <c r="D90" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="E90" s="98"/>
-      <c r="F90" s="99"/>
+      <c r="E90" s="90"/>
+      <c r="F90" s="91"/>
       <c r="G90" s="60" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="127" t="s">
+      <c r="B91" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="97"/>
-      <c r="D91" s="98" t="s">
+      <c r="C91" s="89"/>
+      <c r="D91" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="E91" s="98"/>
-      <c r="F91" s="99"/>
+      <c r="E91" s="90"/>
+      <c r="F91" s="91"/>
       <c r="G91" s="60" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="127" t="s">
+      <c r="B92" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="C92" s="97"/>
-      <c r="D92" s="98" t="s">
+      <c r="C92" s="89"/>
+      <c r="D92" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="99"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="91"/>
       <c r="G92" s="60" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="146" t="s">
+      <c r="B93" s="135" t="s">
         <v>225</v>
       </c>
-      <c r="C93" s="147"/>
-      <c r="D93" s="98" t="s">
+      <c r="C93" s="136"/>
+      <c r="D93" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="98"/>
-      <c r="F93" s="99"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="91"/>
       <c r="G93" s="60" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="146" t="s">
+      <c r="B94" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="C94" s="147"/>
-      <c r="D94" s="144" t="s">
+      <c r="C94" s="136"/>
+      <c r="D94" s="132" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="144"/>
-      <c r="F94" s="145"/>
+      <c r="E94" s="132"/>
+      <c r="F94" s="133"/>
       <c r="G94" s="60" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="127" t="s">
+      <c r="B95" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="97"/>
-      <c r="D95" s="144" t="s">
+      <c r="C95" s="89"/>
+      <c r="D95" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="E95" s="144"/>
-      <c r="F95" s="145"/>
+      <c r="E95" s="132"/>
+      <c r="F95" s="133"/>
       <c r="G95" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="128" t="s">
+      <c r="B96" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C96" s="129"/>
-      <c r="D96" s="129"/>
-      <c r="E96" s="129"/>
-      <c r="F96" s="129"/>
-      <c r="G96" s="130"/>
+      <c r="C96" s="147"/>
+      <c r="D96" s="147"/>
+      <c r="E96" s="147"/>
+      <c r="F96" s="147"/>
+      <c r="G96" s="148"/>
     </row>
     <row r="97" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="131" t="s">
+      <c r="B97" s="143" t="s">
         <v>291</v>
       </c>
-      <c r="C97" s="132"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="132"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="133"/>
+      <c r="C97" s="144"/>
+      <c r="D97" s="144"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="144"/>
+      <c r="G97" s="145"/>
     </row>
     <row r="98" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="99" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="134" t="s">
+      <c r="B100" s="129" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="135"/>
-      <c r="D100" s="135"/>
-      <c r="E100" s="135"/>
-      <c r="F100" s="135"/>
-      <c r="G100" s="136"/>
+      <c r="C100" s="130"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="130"/>
+      <c r="F100" s="130"/>
+      <c r="G100" s="131"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="137" t="s">
@@ -8813,92 +8822,92 @@
       <c r="G102" s="142"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="143" t="s">
+      <c r="B103" s="128" t="s">
         <v>286</v>
       </c>
-      <c r="C103" s="87"/>
-      <c r="D103" s="88" t="s">
+      <c r="C103" s="83"/>
+      <c r="D103" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="E103" s="88"/>
-      <c r="F103" s="89"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="85"/>
       <c r="G103" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="127" t="s">
+      <c r="B104" s="134" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="97"/>
-      <c r="D104" s="98" t="s">
+      <c r="C104" s="89"/>
+      <c r="D104" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="E104" s="98"/>
-      <c r="F104" s="99"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="91"/>
       <c r="G104" s="60" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="127" t="s">
+      <c r="B105" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="C105" s="97"/>
-      <c r="D105" s="98" t="s">
+      <c r="C105" s="89"/>
+      <c r="D105" s="90" t="s">
         <v>289</v>
       </c>
-      <c r="E105" s="98"/>
-      <c r="F105" s="99"/>
+      <c r="E105" s="90"/>
+      <c r="F105" s="91"/>
       <c r="G105" s="60" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="127" t="s">
+      <c r="B106" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="97"/>
-      <c r="D106" s="144" t="s">
+      <c r="C106" s="89"/>
+      <c r="D106" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="E106" s="144"/>
-      <c r="F106" s="145"/>
+      <c r="E106" s="132"/>
+      <c r="F106" s="133"/>
       <c r="G106" s="60" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="128" t="s">
+      <c r="B107" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="129"/>
-      <c r="D107" s="129"/>
-      <c r="E107" s="129"/>
-      <c r="F107" s="129"/>
-      <c r="G107" s="130"/>
+      <c r="C107" s="147"/>
+      <c r="D107" s="147"/>
+      <c r="E107" s="147"/>
+      <c r="F107" s="147"/>
+      <c r="G107" s="148"/>
     </row>
     <row r="108" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="131" t="s">
+      <c r="B108" s="143" t="s">
         <v>291</v>
       </c>
-      <c r="C108" s="132"/>
-      <c r="D108" s="132"/>
-      <c r="E108" s="132"/>
-      <c r="F108" s="132"/>
-      <c r="G108" s="133"/>
+      <c r="C108" s="144"/>
+      <c r="D108" s="144"/>
+      <c r="E108" s="144"/>
+      <c r="F108" s="144"/>
+      <c r="G108" s="145"/>
     </row>
     <row r="109" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="134" t="s">
+      <c r="B111" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="C111" s="135"/>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="135"/>
-      <c r="G111" s="136"/>
+      <c r="C111" s="130"/>
+      <c r="D111" s="130"/>
+      <c r="E111" s="130"/>
+      <c r="F111" s="130"/>
+      <c r="G111" s="131"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="137" t="s">
@@ -8921,64 +8930,64 @@
       <c r="G113" s="142"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B114" s="143" t="s">
+      <c r="B114" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="C114" s="87"/>
-      <c r="D114" s="88" t="s">
+      <c r="C114" s="83"/>
+      <c r="D114" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="E114" s="88"/>
-      <c r="F114" s="89"/>
+      <c r="E114" s="84"/>
+      <c r="F114" s="85"/>
       <c r="G114" s="59" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B115" s="127" t="s">
+      <c r="B115" s="134" t="s">
         <v>299</v>
       </c>
-      <c r="C115" s="97"/>
-      <c r="D115" s="98" t="s">
+      <c r="C115" s="89"/>
+      <c r="D115" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="E115" s="98"/>
-      <c r="F115" s="99"/>
+      <c r="E115" s="90"/>
+      <c r="F115" s="91"/>
       <c r="G115" s="60" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="128" t="s">
+      <c r="B116" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C116" s="129"/>
-      <c r="D116" s="129"/>
-      <c r="E116" s="129"/>
-      <c r="F116" s="129"/>
-      <c r="G116" s="130"/>
+      <c r="C116" s="147"/>
+      <c r="D116" s="147"/>
+      <c r="E116" s="147"/>
+      <c r="F116" s="147"/>
+      <c r="G116" s="148"/>
     </row>
     <row r="117" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="131" t="s">
+      <c r="B117" s="143" t="s">
         <v>302</v>
       </c>
-      <c r="C117" s="132"/>
-      <c r="D117" s="132"/>
-      <c r="E117" s="132"/>
-      <c r="F117" s="132"/>
-      <c r="G117" s="133"/>
+      <c r="C117" s="144"/>
+      <c r="D117" s="144"/>
+      <c r="E117" s="144"/>
+      <c r="F117" s="144"/>
+      <c r="G117" s="145"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="119" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="134" t="s">
+      <c r="B120" s="129" t="s">
         <v>303</v>
       </c>
-      <c r="C120" s="135"/>
-      <c r="D120" s="135"/>
-      <c r="E120" s="135"/>
-      <c r="F120" s="135"/>
-      <c r="G120" s="136"/>
+      <c r="C120" s="130"/>
+      <c r="D120" s="130"/>
+      <c r="E120" s="130"/>
+      <c r="F120" s="130"/>
+      <c r="G120" s="131"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="137" t="s">
@@ -9001,70 +9010,186 @@
       <c r="G122" s="142"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B123" s="143" t="s">
+      <c r="B123" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="C123" s="87"/>
-      <c r="D123" s="88" t="s">
+      <c r="C123" s="83"/>
+      <c r="D123" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="E123" s="88"/>
-      <c r="F123" s="89"/>
+      <c r="E123" s="84"/>
+      <c r="F123" s="85"/>
       <c r="G123" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="127" t="s">
+      <c r="B124" s="134" t="s">
         <v>299</v>
       </c>
-      <c r="C124" s="97"/>
-      <c r="D124" s="98" t="s">
+      <c r="C124" s="89"/>
+      <c r="D124" s="90" t="s">
         <v>300</v>
       </c>
-      <c r="E124" s="98"/>
-      <c r="F124" s="99"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="91"/>
       <c r="G124" s="60" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B125" s="128" t="s">
+      <c r="B125" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="C125" s="129"/>
-      <c r="D125" s="129"/>
-      <c r="E125" s="129"/>
-      <c r="F125" s="129"/>
-      <c r="G125" s="130"/>
+      <c r="C125" s="147"/>
+      <c r="D125" s="147"/>
+      <c r="E125" s="147"/>
+      <c r="F125" s="147"/>
+      <c r="G125" s="148"/>
     </row>
     <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="131" t="s">
+      <c r="B126" s="143" t="s">
         <v>307</v>
       </c>
-      <c r="C126" s="132"/>
-      <c r="D126" s="132"/>
-      <c r="E126" s="132"/>
-      <c r="F126" s="132"/>
-      <c r="G126" s="133"/>
+      <c r="C126" s="144"/>
+      <c r="D126" s="144"/>
+      <c r="E126" s="144"/>
+      <c r="F126" s="144"/>
+      <c r="G126" s="145"/>
     </row>
     <row r="127" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -9084,136 +9209,20 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9222,10 +9231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E0E0E8-F671-4E51-A713-EC19D0B585DD}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9238,14 +9247,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
       <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9260,14 +9269,14 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="129" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="136"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
@@ -9282,104 +9291,104 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="128" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84" t="s">
         <v>324</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="59" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="134" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="149" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="63" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="150" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="156"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="153"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="156"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="146" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="130"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="143" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="129" t="s">
         <v>331</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="136"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="140" t="s">
@@ -9392,74 +9401,74 @@
       <c r="G15" s="142"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="149" t="s">
+      <c r="B16" s="157" t="s">
         <v>328</v>
       </c>
-      <c r="C16" s="150"/>
-      <c r="D16" s="151" t="s">
+      <c r="C16" s="158"/>
+      <c r="D16" s="159" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="160"/>
       <c r="G16" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="150" t="s">
         <v>323</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="156"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="153"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="159"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="156"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="146" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="130"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="148"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="133"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="134" t="s">
-        <v>332</v>
-      </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="136"/>
+      <c r="B23" s="129" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="131"/>
     </row>
     <row r="24" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="140" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C24" s="141"/>
       <c r="D24" s="141"/>
@@ -9468,67 +9477,160 @@
       <c r="G24" s="142"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="157" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" s="158"/>
+      <c r="D25" s="159" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="159"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="150" t="s">
+        <v>323</v>
+      </c>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="153"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="154" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="156"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="146" t="s">
+        <v>329</v>
+      </c>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="143" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="129" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="131"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="157" t="s">
         <v>334</v>
       </c>
-      <c r="C25" s="150"/>
-      <c r="D25" s="151" t="s">
+      <c r="C34" s="158"/>
+      <c r="D34" s="159" t="s">
         <v>335</v>
       </c>
-      <c r="E25" s="151"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="64" t="s">
+      <c r="E34" s="159"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="64" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="153" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="150" t="s">
         <v>323</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="156"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="157" t="s">
+      <c r="C35" s="151"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="159"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="128" t="s">
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="156"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="146" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="130"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="131" t="s">
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="148"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="133"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
+  <mergeCells count="37">
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:F6"/>
@@ -9539,20 +9641,11 @@
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
